--- a/outputs/ML_Results/dist_LR/Nantes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nantes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42778975" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42879929" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ43008750" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43111869" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43239114" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ43346031" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ43469933" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ43581418" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ43701527" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ43812792" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ43934460" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ44046125" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ44168544" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ44280653" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ44403020" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ44515470" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ44634207" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ44747236" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ44865109" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ44982149" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ45097751" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ45214044" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ45315103" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ45445814" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ45548822" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ45674563" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ45782535" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ45905448" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ46014583" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ46137815" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ46248794" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ46368461" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ46481540" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ46600856" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ46714969" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ46835693" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ46948820" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ47068558" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ47180427" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ47300805" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ47418520" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ47533542" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ47634625" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ47762528" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ47869627" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ47993699" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ48104476" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ48238903" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ48373551" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ48494438" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ04746898" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ04856643" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ04979512" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ05104351" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ05328621" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ05475245" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ05623286" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ05788814" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ05939136" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ06078653" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ06214692" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ06348223" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ06493758" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ06645025" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ06789550" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ06936110" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ07087222" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ07317376" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ07491940" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ07690969" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ07879608" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ08088468" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ08294662" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ08526168" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ08847883" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ09147444" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ09389131" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ09575178" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ09767919" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ09947314" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ10163130" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ10340301" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ10606235" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ10779982" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ10941270" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ11112912" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ11287434" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ11459471" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ11627517" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ11803693" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ11987251" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ12204872" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ12382021" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ12565374" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ12757423" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ12951914" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ13145958" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ13345903" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ13545008" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ13705939" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Nantes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nantes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ04746898" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ04856643" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ04979512" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ05104351" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ05328621" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ05475245" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ05623286" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ05788814" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ05939136" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ06078653" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ06214692" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ06348223" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ06493758" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ06645025" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ06789550" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ06936110" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ07087222" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ07317376" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ07491940" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ07690969" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ07879608" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ08088468" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ08294662" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ08526168" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ08847883" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ09147444" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ09389131" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ09575178" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ09767919" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ09947314" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ10163130" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ10340301" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ10606235" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ10779982" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ10941270" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ11112912" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ11287434" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ11459471" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ11627517" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ11803693" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ11987251" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ12204872" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ12382021" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ12565374" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ12757423" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ12951914" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ13145958" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ13345903" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ13545008" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ13705939" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ16354043" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ16467137" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ16567798" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ16664507" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ16789876" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ16951996" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ17056246" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ17151338" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ17254810" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ17360478" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ17479312" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ17579975" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ17699476" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ17827491" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ17943025" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ18063207" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ18181792" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ18304545" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ18425780" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ18547280" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ18668039" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ18790494" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ18915766" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ19060407" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ19185442" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ19314027" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ19451105" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ19589110" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ19718057" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ19855324" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ19985179" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ20115044" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ20247764" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ20380352" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ20509069" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ20633945" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ20761012" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ20890327" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ21024844" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ21151549" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ21278752" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ21411184" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ21560458" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ21693008" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ21819767" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ21948600" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ22080957" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ22207441" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ22336381" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ22462755" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3324.485398294638</v>
+        <v>3175.625031937456</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02369827342137857</v>
+        <v>0.02823930535977608</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.9304410445877</v>
+        <v>131.8048017312704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08786820098651069</v>
+        <v>0.0870239251827107</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.351597465654</v>
+        <v>258.2150944608513</v>
       </c>
       <c r="C4" t="n">
-        <v>9.298486686391459e-06</v>
+        <v>2.068251300477266e-06</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04720795937296651</v>
+        <v>-0.06132431702980889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5654848715063931</v>
+        <v>0.4408516645369179</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.831608468780388e-05</v>
+        <v>-3.864901175728089e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4867258272442367</v>
+        <v>0.5690790740210145</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.002447285108182</v>
+        <v>1.342400998860079</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7689060364499544</v>
+        <v>0.8923439662776353</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.36841281047737</v>
+        <v>11.33317227106497</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02075572476300408</v>
+        <v>0.02066339126213606</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1167.34500027845</v>
+        <v>995.1321672805043</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3683313713398482</v>
+        <v>0.4332503913199062</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-426.5327822965905</v>
+        <v>-320.3636074234655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5327720624631298</v>
+        <v>0.6299636206981467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-477.3662613358481</v>
+        <v>3013.315542248873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4717224691259152</v>
+        <v>0.06682999685182056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2915.580546381596</v>
+        <v>-38.73025784457027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07800082419489443</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-39.89171532508693</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0338361591970941</v>
+        <v>0.03777103372303087</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5149.087397413705</v>
+        <v>5068.4681347185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000396709236052038</v>
+        <v>0.0004059945300586127</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.6767904340938</v>
+        <v>107.8038469960463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1709431259126379</v>
+        <v>0.1595187339687653</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.1546486961302</v>
+        <v>176.1176721986007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00120742344780984</v>
+        <v>0.0007606860610468408</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03658427580863982</v>
+        <v>-0.04316178441112301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6133772431674509</v>
+        <v>0.541536615560154</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.292869085513424e-05</v>
+        <v>-5.910748487880792e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.454669731869949</v>
+        <v>0.4779115557643573</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.658239250289167</v>
+        <v>-10.49332477459032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3432968332290441</v>
+        <v>0.2934703347310493</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.003098478597069</v>
+        <v>5.933123769623199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2288640271754058</v>
+        <v>0.231414177583848</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170.880642333997</v>
+        <v>75.05079893159689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9020221052080568</v>
+        <v>0.9561699254024116</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-979.4620383138827</v>
+        <v>-966.2375823158636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1735438085638142</v>
+        <v>0.1765487085307865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-297.4784265870335</v>
+        <v>4123.743716178986</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6344209269737899</v>
+        <v>0.009689892549726723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4107.217403447331</v>
+        <v>-38.91740257194018</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01042413658732087</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-40.04362891266824</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0350229862482916</v>
+        <v>0.03765005405698796</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2926.513539263249</v>
+        <v>2659.839272188063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1021631060876761</v>
+        <v>0.1238987505911473</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.6450212498999</v>
+        <v>125.7405262231504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.145513126841268</v>
+        <v>0.1464997770055099</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.5944669896076</v>
+        <v>289.2112361151007</v>
       </c>
       <c r="C4" t="n">
-        <v>1.203048839977904e-06</v>
+        <v>2.579214435807457e-07</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002699839833431597</v>
+        <v>-0.0110136024966908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9700695229831863</v>
+        <v>0.8757272677377927</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.640508419318857e-05</v>
+        <v>-3.821904140480199e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5348333289308662</v>
+        <v>0.6019256579036361</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.766996874399123</v>
+        <v>-3.938858621648503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7946656542941098</v>
+        <v>0.7055272922440188</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.85587265700552</v>
+        <v>9.131575325444516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1785262264824919</v>
+        <v>0.162740541247766</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2255.301733580057</v>
+        <v>2169.795748206458</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08973603575932257</v>
+        <v>0.09899516866273651</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-306.3187773364089</v>
+        <v>-259.0251153750496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6788017164601227</v>
+        <v>0.7236277998770793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-400.1220582906631</v>
+        <v>4459.444957034219</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5298355386764715</v>
+        <v>0.008117322255979451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4377.804419057357</v>
+        <v>-33.22545404322234</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009835261480472696</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-36.72240146731304</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1679680063328242</v>
+        <v>0.1995078908934772</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4114.258461958472</v>
+        <v>4059.203180715125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004555604210726931</v>
+        <v>0.004523914942008699</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.4773951951277</v>
+        <v>115.8085550584885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1275924923207622</v>
+        <v>0.120288664277906</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.1396511626288</v>
+        <v>226.7116366742313</v>
       </c>
       <c r="C4" t="n">
-        <v>2.934208200160109e-05</v>
+        <v>1.305906721519111e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03710207319510772</v>
+        <v>-0.04034540337182474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6184377675987027</v>
+        <v>0.5822940699302444</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.161620924521546e-05</v>
+        <v>-1.955219447784203e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.767296935034083</v>
+        <v>0.7868056098201739</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.111733042411466</v>
+        <v>-7.746380909620513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4833356053188098</v>
+        <v>0.4336911558606992</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.392216696038119</v>
+        <v>9.344034359071618</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06308636378214227</v>
+        <v>0.06255900614648269</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>933.7026155254157</v>
+        <v>868.3525399667556</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4913726872918135</v>
+        <v>0.5147056147813966</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-232.9265244792164</v>
+        <v>-217.7117048848609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7329227493763921</v>
+        <v>0.747583244996601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-219.516430376751</v>
+        <v>4170.116635288655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.745170980165258</v>
+        <v>0.01640446904526933</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4147.876764562281</v>
+        <v>-47.46136119797693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01778866020771509</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-47.9478453323005</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01200046774714716</v>
+        <v>0.01200463549025375</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5318.858077242172</v>
+        <v>5335.897936763276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001204786355021399</v>
+        <v>9.079362676814717e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.78797587073942</v>
+        <v>67.6318116149472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3118873235919361</v>
+        <v>0.3093435319961027</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.318689110904</v>
+        <v>172.1308307261379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004869738164843221</v>
+        <v>0.0003248367676002162</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03317471335490479</v>
+        <v>-0.03135347173478198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6185260222641245</v>
+        <v>0.6222738387387394</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.929416791145356e-05</v>
+        <v>-5.98688741195053e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3375128029428178</v>
+        <v>0.3272896228145611</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.08968591328713</v>
+        <v>-13.98897857881458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.129876068103867</v>
+        <v>0.1275625948872195</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.40038251011152</v>
+        <v>10.41302138644201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01896453636449558</v>
+        <v>0.01792903500298094</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1413.052363484036</v>
+        <v>1433.122020626992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2030320693178758</v>
+        <v>0.1862452884214934</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-224.8156540068773</v>
+        <v>-226.4312946447833</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7161171088016938</v>
+        <v>0.7120802107034154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.71189125906994</v>
+        <v>3007.017245702953</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9198758958741937</v>
+        <v>0.0356191895212461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3019.517226783786</v>
+        <v>-56.89680759392377</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03691847861161276</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-56.76677015399732</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00107214548536028</v>
+        <v>0.0009297078783541707</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3823.450429135514</v>
+        <v>3521.653180932684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001856860151886713</v>
+        <v>0.004384495775114344</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.73343626978543</v>
+        <v>46.89398324305054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6395035751275981</v>
+        <v>0.4809759060374703</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.3364941306652</v>
+        <v>226.6112655048056</v>
       </c>
       <c r="C4" t="n">
-        <v>5.190102629902694e-06</v>
+        <v>1.038476165641977e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06399108472472945</v>
+        <v>0.0293353321336914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3930809689637927</v>
+        <v>0.6926456569981854</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001135825420222616</v>
+        <v>-9.201914453180822e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1158517963866653</v>
+        <v>0.2053227555436768</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.315414190797363</v>
+        <v>-10.10987593886324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.40993418979825</v>
+        <v>0.2595973911967167</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.05670241920085</v>
+        <v>6.06063398284768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1575456067268321</v>
+        <v>0.1658505389650695</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1216.436517281744</v>
+        <v>943.2441374581831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3116417809762161</v>
+        <v>0.4384792542037359</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1288.600989169248</v>
+        <v>-1141.610158324979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.028839762232274</v>
+        <v>0.05480962022805589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1153.5646135577</v>
+        <v>6854.526358213857</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05104313066962643</v>
+        <v>4.221432793733426e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6894.458589552256</v>
+        <v>-21.66890639175385</v>
       </c>
       <c r="C12" t="n">
-        <v>2.804906220388987e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.22822314244226</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1621880421307377</v>
+        <v>0.2005132093462551</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4470.301259353065</v>
+        <v>4299.424755029681</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006951859300776832</v>
+        <v>0.0008794774792250421</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.4822145634082</v>
+        <v>125.7256686355675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06892379029488335</v>
+        <v>0.0631780026918965</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253.0940703888027</v>
+        <v>263.2880940955113</v>
       </c>
       <c r="C4" t="n">
-        <v>2.529903768639679e-07</v>
+        <v>3.081525738418883e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06088414983096491</v>
+        <v>-0.07004779202321965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3566572901542876</v>
+        <v>0.2806847209403541</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.658276444267581e-06</v>
+        <v>-1.830325413656824e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.895611060355477</v>
+        <v>0.9776214429689863</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.52992001534313</v>
+        <v>-0.7110444067265576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9550729887884333</v>
+        <v>0.938735791101367</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.17192717561688</v>
+        <v>10.02247465563534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04427066523442406</v>
+        <v>0.04661557837091713</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.93583574102377</v>
+        <v>-47.28155412653177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9620082640860881</v>
+        <v>0.9650890196734698</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-187.2977164924337</v>
+        <v>-143.2486694193417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7787373859974686</v>
+        <v>0.8288028347558161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-458.701748201596</v>
+        <v>2284.034921455996</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4271593190729613</v>
+        <v>0.1150086850776996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2262.049546564448</v>
+        <v>-58.26730615934274</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1195702245477549</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-60.05967737194216</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005305837053325418</v>
+        <v>0.0006516196527596882</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4286.061982713392</v>
+        <v>4172.605335726576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004990020397398031</v>
+        <v>0.005342415001212125</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.16129938364651</v>
+        <v>60.74985869384479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4349796545685413</v>
+        <v>0.4197757305405744</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.5391160509309</v>
+        <v>252.7302586187472</v>
       </c>
       <c r="C4" t="n">
-        <v>5.953963221916102e-06</v>
+        <v>1.711602863258242e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02162599999524001</v>
+        <v>-0.03146117825961553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7805147772068355</v>
+        <v>0.6730322979029852</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.226581182403008e-05</v>
+        <v>-3.655848044390163e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6070512412134219</v>
+        <v>0.6512317549957746</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.477368470219773</v>
+        <v>-4.920864223289268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6784737520968186</v>
+        <v>0.6457063134915024</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.408595952934254</v>
+        <v>8.406419399387278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1747304346463358</v>
+        <v>0.1724244045779496</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>922.184687054295</v>
+        <v>822.626376557394</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4828936356491583</v>
+        <v>0.5238723633864804</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-557.4435346752728</v>
+        <v>-537.7737413577718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4372758363216446</v>
+        <v>0.4503037904376493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-326.5739925565009</v>
+        <v>4377.471171393225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6259201786686466</v>
+        <v>0.01280447280619192</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4348.234613016276</v>
+        <v>-48.13272446270848</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01397649444054121</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-49.02024995076592</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01094521489027658</v>
+        <v>0.01153719349223133</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3509.691484605626</v>
+        <v>3381.518322567071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005096161417838483</v>
+        <v>0.005923435293865754</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.1479641268254</v>
+        <v>136.4782480443339</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0497222415396639</v>
+        <v>0.0428750969478981</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.402623240255</v>
+        <v>298.8298389843976</v>
       </c>
       <c r="C4" t="n">
-        <v>1.172270584428041e-08</v>
+        <v>1.251823837783729e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01416007446694054</v>
+        <v>0.0007028296560466496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8421977173381577</v>
+        <v>0.9917075938229956</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.54464305548721e-05</v>
+        <v>-2.698913701939723e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5703409373125146</v>
+        <v>0.6567802603877545</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.786219381576963</v>
+        <v>-5.223019186565516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5759409461807363</v>
+        <v>0.5386441797966963</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.080337606944937</v>
+        <v>8.140786729230854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05552010165436375</v>
+        <v>0.05265198394929551</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1198.079901455979</v>
+        <v>1075.580953392677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2613555492683007</v>
+        <v>0.3027622653592646</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-727.3731170450133</v>
+        <v>-667.1663389652972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2135067874937097</v>
+        <v>0.2451125962420867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-344.2924359831175</v>
+        <v>3371.916954859969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5239350174897142</v>
+        <v>0.03992214437228508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3356.861846094953</v>
+        <v>-40.46169800919394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04171063947394021</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-40.81659654403126</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01096959988321963</v>
+        <v>0.01123139410260089</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4877.35737050754</v>
+        <v>4668.508583223225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007411954404241556</v>
+        <v>0.001122744938613637</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.0460919985812</v>
+        <v>99.92423054852677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1850695715213015</v>
+        <v>0.1689261477405216</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.2709151477573</v>
+        <v>218.8547956895784</v>
       </c>
       <c r="C4" t="n">
-        <v>9.693216351774283e-05</v>
+        <v>2.438522744672273e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02183217479757382</v>
+        <v>0.005960990707045477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7598069067298689</v>
+        <v>0.9324462586695795</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001142861947641948</v>
+        <v>-9.969118392290545e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1319363370146543</v>
+        <v>0.183246253578245</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.048132009460275</v>
+        <v>-10.64043575865709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4394790466187873</v>
+        <v>0.2980141363735989</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.206304585045793</v>
+        <v>6.973880432314303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1351706030585215</v>
+        <v>0.1488008231192333</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1781.264017303966</v>
+        <v>1530.165849836523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1708463087744183</v>
+        <v>0.2335563959617219</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-702.9148611544126</v>
+        <v>-592.1271764702897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3086149158446202</v>
+        <v>0.3875073461236397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-774.219368338132</v>
+        <v>4187.017211847469</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2388168098520177</v>
+        <v>0.007189392566562891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4133.854581069088</v>
+        <v>-49.00611761233125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007795217452956898</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-51.13203512693082</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.009635976283920383</v>
+        <v>0.01277116061263542</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3134.084392978752</v>
+        <v>2978.332742379958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05891477499876051</v>
+        <v>0.06749279268400307</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.2589922278378</v>
+        <v>148.8993107995463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09006862641698136</v>
+        <v>0.08266099777918015</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.9967640128906</v>
+        <v>236.7692547372158</v>
       </c>
       <c r="C4" t="n">
-        <v>2.288064160200866e-05</v>
+        <v>9.939528399309189e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02723923245687809</v>
+        <v>-0.0336475171910546</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7111904775346427</v>
+        <v>0.6424226885832227</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.015652860825492e-05</v>
+        <v>-2.491371017590679e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6659670884645175</v>
+        <v>0.71792338514799</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.263945905586532</v>
+        <v>-7.831429162807183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5497997439349696</v>
+        <v>0.4382449776412773</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.480232472268426</v>
+        <v>8.435745716242074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1113471115813577</v>
+        <v>0.1114627516635753</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2151.095480223952</v>
+        <v>2075.877663375302</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1214164021990935</v>
+        <v>0.1313317877444174</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-325.2581937058653</v>
+        <v>-282.6950654623129</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6508171771756469</v>
+        <v>0.6911728101899282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-396.9240195061218</v>
+        <v>4315.159711209925</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5491108408843384</v>
+        <v>0.007412926560743934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4263.486129018557</v>
+        <v>-25.82155767572102</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008519461126312963</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-28.12144266408277</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2561859918411418</v>
+        <v>0.2886406524122959</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2844.497876850412</v>
+        <v>2959.684226504554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06217805346811639</v>
+        <v>0.04514913460546592</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1337135370002471</v>
+        <v>1.09343285436708</v>
       </c>
       <c r="C3" t="n">
-        <v>0.998594653365272</v>
+        <v>0.9884193726816154</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.2061602815816</v>
+        <v>274.0283698210277</v>
       </c>
       <c r="C4" t="n">
-        <v>2.156956677167111e-07</v>
+        <v>1.129022229442876e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05189433313594505</v>
+        <v>0.05029684252972234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5059202435348644</v>
+        <v>0.515534330298831</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.764504071545047e-05</v>
+        <v>-8.58443270883046e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.291172607467732</v>
+        <v>0.2969344388255581</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.68102166332237</v>
+        <v>-9.677596637831499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3046210908330918</v>
+        <v>0.3276787118397327</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.08165369188457</v>
+        <v>10.05323806586119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04955780663621105</v>
+        <v>0.04866357418783183</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2449.260935611633</v>
+        <v>2408.602265803585</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07065170095017051</v>
+        <v>0.07227410938425692</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-465.3293894085391</v>
+        <v>-469.7645268512638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4739269983551866</v>
+        <v>0.4667394815201227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.1607384834961</v>
+        <v>4773.433773411445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7389711778169019</v>
+        <v>0.002215623158907473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4802.379571915803</v>
+        <v>-26.14364342289046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002271930329512846</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-24.31287352439359</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2897030891259531</v>
+        <v>0.2382332721271103</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4402.824330280683</v>
+        <v>4339.038857275335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003146450407848567</v>
+        <v>0.0003121186026947599</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.85785793455426</v>
+        <v>37.13598036283099</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5494831590863354</v>
+        <v>0.5440341830438375</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.2471925680742</v>
+        <v>185.4451065213992</v>
       </c>
       <c r="C4" t="n">
-        <v>2.911793935407562e-05</v>
+        <v>1.03799609870492e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07247020341912236</v>
+        <v>-0.07403160210855603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.245642892661787</v>
+        <v>0.232071846999123</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.360454231604313e-05</v>
+        <v>-1.525311660015839e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8239578110544953</v>
+        <v>0.8014868127445154</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.341346634967184</v>
+        <v>-4.990965152154022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6029883661105009</v>
+        <v>0.5406607174639841</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.28555380485469</v>
+        <v>14.23874599187533</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002702069683305934</v>
+        <v>0.002615110521822478</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>528.5001060573049</v>
+        <v>504.4017917911433</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6286171495341107</v>
+        <v>0.641872291224007</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.4949064815255</v>
+        <v>144.0769837762139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.767149531655904</v>
+        <v>0.8042517475723892</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-270.7991116941082</v>
+        <v>4318.142971549755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.672733532703273</v>
+        <v>0.002207530190790443</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4296.925384409245</v>
+        <v>-57.00934554381496</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002476043181384433</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-57.8918162611539</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0004511595936683082</v>
+        <v>0.0004500149609637575</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4143.332663277485</v>
+        <v>3960.696113305597</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008973859292050865</v>
+        <v>0.01148304099607119</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.55497256926398</v>
+        <v>97.13205515167637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1860587053704545</v>
+        <v>0.1735669058127948</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.8397251317809</v>
+        <v>235.9371855062073</v>
       </c>
       <c r="C4" t="n">
-        <v>1.123960056139095e-05</v>
+        <v>2.843611433749862e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0149031086348696</v>
+        <v>-0.03515120471153843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8326057102294711</v>
+        <v>0.5990237320079405</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.100799237185485e-05</v>
+        <v>-3.08925577961476e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.532689756873302</v>
+        <v>0.6327571026777786</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.106913616671648</v>
+        <v>-6.992484535457088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5413260220326143</v>
+        <v>0.4818293682493143</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.919840648925977</v>
+        <v>8.040132472512031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1628979356859635</v>
+        <v>0.1560087799071337</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1919.918737123828</v>
+        <v>1631.897524044719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.131692918592105</v>
+        <v>0.184116024875712</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-359.5567579375734</v>
+        <v>-305.9375874111172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5874119838557614</v>
+        <v>0.6424547561363279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-631.4921727243429</v>
+        <v>2999.025757596592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3658132332012873</v>
+        <v>0.05546298310599719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2978.102885543925</v>
+        <v>-39.71282386996759</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05753152061986254</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-41.22909069525713</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07961431616802972</v>
+        <v>0.08978578297578464</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3955.923824781129</v>
+        <v>3873.215777120752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002441726932876081</v>
+        <v>0.002802626826345203</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.74337118625269</v>
+        <v>56.5316704780887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5083309671102387</v>
+        <v>0.427414040937218</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.7381576023451</v>
+        <v>199.5118237205053</v>
       </c>
       <c r="C4" t="n">
-        <v>7.099675988229495e-05</v>
+        <v>3.554773659032947e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0492810737691072</v>
+        <v>-0.06780920167597282</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5237052940750115</v>
+        <v>0.3579291783656579</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.226772109660064e-05</v>
+        <v>-2.449597089044378e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6499037459093269</v>
+        <v>0.727294008181993</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.163077417617032</v>
+        <v>-7.34104137606921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5111678535431832</v>
+        <v>0.4274341012708096</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.14946367963433</v>
+        <v>10.97784617176789</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01417703132646283</v>
+        <v>0.01527680451403212</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.4315132156726</v>
+        <v>-1.868147376543675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9253844015985973</v>
+        <v>0.9988583141822206</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-326.9010254407876</v>
+        <v>-285.099075050417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5687329714576095</v>
+        <v>0.6167561600110325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-476.8888791058407</v>
+        <v>5555.554495831332</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41808080223394</v>
+        <v>0.0001381888403880943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5567.433269581692</v>
+        <v>-38.32678389258706</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001405593033813363</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-38.98332937523696</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02435828394061407</v>
+        <v>0.02620146515105753</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4570.871589389956</v>
+        <v>4363.626482227546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003460484530737226</v>
+        <v>0.0004411647354426476</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.1436730242406</v>
+        <v>134.160429217554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05997113662426643</v>
+        <v>0.05344327745411658</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.4816300631211</v>
+        <v>264.8020895818394</v>
       </c>
       <c r="C4" t="n">
-        <v>2.291542895628577e-07</v>
+        <v>2.687089646289494e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01431274930673979</v>
+        <v>-0.02174494118291488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8307048588060064</v>
+        <v>0.742302857186957</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.433958255093822e-05</v>
+        <v>-3.959045033915425e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5090863262885033</v>
+        <v>0.5527482420963072</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.866597837834885</v>
+        <v>-2.74622431276984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8310215583993419</v>
+        <v>0.7510512005749528</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.062781004107233</v>
+        <v>6.141978850252027</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1723986956574541</v>
+        <v>0.165677638002933</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>525.3185910485881</v>
+        <v>463.2720114383283</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6278079427371699</v>
+        <v>0.667280538235647</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-937.5648965416997</v>
+        <v>-892.5268426454734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1990237135238271</v>
+        <v>0.2185695792931509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-448.6548245209511</v>
+        <v>2577.2806620564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4259081258284481</v>
+        <v>0.07672690449819479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2510.68335203995</v>
+        <v>-47.57491381295302</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08585183102710675</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-48.99869893706239</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.005770345520009993</v>
+        <v>0.006808355562876976</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4155.621842443103</v>
+        <v>4008.284205311772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005494995694101708</v>
+        <v>0.006471816456405482</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.2267415503612</v>
+        <v>77.36252153741597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.339937357207601</v>
+        <v>0.3242073932135716</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.7120959410807</v>
+        <v>234.6559073170474</v>
       </c>
       <c r="C4" t="n">
-        <v>3.771702566114781e-05</v>
+        <v>1.02845902573449e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03236432318442144</v>
+        <v>-0.04207210134483651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6563403540038976</v>
+        <v>0.5539433391059105</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.750577142302771e-05</v>
+        <v>-4.14953673340355e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5040964939945759</v>
+        <v>0.5547754678505592</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.285744119471412</v>
+        <v>-4.406922503822559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.758365630863943</v>
+        <v>0.6751455093520224</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.845856683062216</v>
+        <v>9.688051750556099</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08456520628017436</v>
+        <v>0.08802187103052646</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1027.425686813095</v>
+        <v>918.5686642293731</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4112050812428741</v>
+        <v>0.4568358247733486</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-455.7078843089814</v>
+        <v>-422.4836711250755</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5028125114304196</v>
+        <v>0.5316973111148715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-446.1792911549107</v>
+        <v>4158.916282453321</v>
       </c>
       <c r="C11" t="n">
-        <v>0.496016569811952</v>
+        <v>0.014195565218787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4099.770959490585</v>
+        <v>-45.50335404046955</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01613150380328609</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-46.96210578865995</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01178408283019088</v>
+        <v>0.0135096605524337</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3721.519613544968</v>
+        <v>3683.58731409664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01049269085969121</v>
+        <v>0.01015255931579253</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.83327113361804</v>
+        <v>99.31464983195539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1750963135585534</v>
+        <v>0.1740671561104446</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.254264753324</v>
+        <v>241.9127041342088</v>
       </c>
       <c r="C4" t="n">
-        <v>7.544835391283066e-06</v>
+        <v>2.91815506731808e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03634410793317197</v>
+        <v>0.03548259381102906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.632684905001166</v>
+        <v>0.6379597362032472</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.831028210278365e-05</v>
+        <v>-8.762685632292494e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2739242800344851</v>
+        <v>0.2738975583290469</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.74693961328466</v>
+        <v>-13.34445627821929</v>
       </c>
       <c r="C7" t="n">
-        <v>0.211637960848556</v>
+        <v>0.1718912732383924</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.359995402697303</v>
+        <v>8.308930775509014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0946249698543063</v>
+        <v>0.0939332387004603</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2412.121452060937</v>
+        <v>2394.182724958067</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06700019995916121</v>
+        <v>0.06654274265496897</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-343.3767697277267</v>
+        <v>-338.3196349292321</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6118108386036768</v>
+        <v>0.6143747236590819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-151.1689171820495</v>
+        <v>5897.229966493736</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8273170197430043</v>
+        <v>0.003014038716794922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5864.041031464792</v>
+        <v>-41.78360923734321</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003482996129834672</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-42.29256886297829</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02784813832211642</v>
+        <v>0.02742140213964281</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3945.635946090178</v>
+        <v>3860.941901635839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007658033990251941</v>
+        <v>0.008304150985757347</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.0332222256349</v>
+        <v>116.0038782347606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1236196686056256</v>
+        <v>0.1185741698102844</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277.8795682378349</v>
+        <v>283.5839608432336</v>
       </c>
       <c r="C4" t="n">
-        <v>1.930635010422065e-07</v>
+        <v>5.913778767268772e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01748887601986998</v>
+        <v>-0.0246400278400038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7961930780865385</v>
+        <v>0.7097396670668565</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.382500353148814e-05</v>
+        <v>-3.993506295553196e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5592306316547542</v>
+        <v>0.5911217557228678</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.200618349404802</v>
+        <v>-3.101722138056953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8198736025775696</v>
+        <v>0.7436697148133067</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.001776467740825</v>
+        <v>7.957653766872994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09980106914692599</v>
+        <v>0.09988325690743038</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1502.396291371802</v>
+        <v>1391.719124667496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2565852087478088</v>
+        <v>0.2851844525310666</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-486.8978135220532</v>
+        <v>-475.2361657181336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4800807106450397</v>
+        <v>0.4882504748844401</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-342.8247761264843</v>
+        <v>3878.072228028384</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5732791962109073</v>
+        <v>0.01041934661837927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3863.349036947829</v>
+        <v>-51.40389955206045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01111919574633198</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-52.36941369269658</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03210634420969821</v>
+        <v>0.03393965876546035</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4718.61613304602</v>
+        <v>4255.691766426722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005706411275322757</v>
+        <v>0.001488445134955217</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.7798498992055</v>
+        <v>114.4705558455878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09901173817755893</v>
+        <v>0.1005311092816345</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.5802079529143</v>
+        <v>221.5116910404014</v>
       </c>
       <c r="C4" t="n">
-        <v>9.567298825800303e-05</v>
+        <v>8.872633516226392e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01268933996262578</v>
+        <v>-0.01057527831892423</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8478940805131395</v>
+        <v>0.8711373324545295</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.529512137516082e-05</v>
+        <v>-2.89589810428993e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4616437535693907</v>
+        <v>0.6362817039362716</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.486687307539476</v>
+        <v>-10.96967905724241</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3015841787864999</v>
+        <v>0.2353964171554859</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.698383656628826</v>
+        <v>8.952749599961333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05168668207213815</v>
+        <v>0.0474979309957148</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1250.05478970234</v>
+        <v>1034.527746394434</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2500848458055847</v>
+        <v>0.3417403977581692</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-455.6183306963806</v>
+        <v>-256.5137508713283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4716885879457196</v>
+        <v>0.6820841925676765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-928.7685616118542</v>
+        <v>2041.428248599049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1175415575047783</v>
+        <v>0.1614097989499881</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1919.77044299368</v>
+        <v>-42.50316233490037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1834958785845386</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-45.65789866058725</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.007453874336420474</v>
+        <v>0.01270390057379209</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4500.354339479293</v>
+        <v>4506.829338744793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000969912590547453</v>
+        <v>0.0007796994828361857</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.4849441970487</v>
+        <v>111.3315736568852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1388847587453646</v>
+        <v>0.1358433111686871</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2503133252932</v>
+        <v>212.8216219036531</v>
       </c>
       <c r="C4" t="n">
-        <v>1.760431507725615e-05</v>
+        <v>8.18231488284817e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0405576392157285</v>
+        <v>-0.040221286190882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6038523552014901</v>
+        <v>0.6013556779215239</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.051713514783385e-05</v>
+        <v>-4.05500587527372e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6090203527240515</v>
+        <v>0.6060655692632662</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.863041904120948</v>
+        <v>-5.790322090193548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5634271108589122</v>
+        <v>0.5567676463213103</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.13552505359749</v>
+        <v>7.142320553665201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.137165848471171</v>
+        <v>0.1336007819580184</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>417.2591403383058</v>
+        <v>419.5496858143679</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7544385167454191</v>
+        <v>0.7510767588293747</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-643.6139524856003</v>
+        <v>-643.0127969853054</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3320408168380181</v>
+        <v>0.3287711245190348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.35158366872793</v>
+        <v>3866.992721062326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.972495926302253</v>
+        <v>0.0175022075132504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3867.906942055833</v>
+        <v>-44.31121767135943</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01833285085756391</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-44.2341494958871</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0161371865580717</v>
+        <v>0.01445605755633595</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3562.379638745252</v>
+        <v>3340.935033449706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01082187894883843</v>
+        <v>0.01525380807441507</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.00261167096787</v>
+        <v>45.8354755456586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5793113818513735</v>
+        <v>0.5242458645858639</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.0803128224298</v>
+        <v>240.7700082044966</v>
       </c>
       <c r="C4" t="n">
-        <v>1.115980942540062e-05</v>
+        <v>2.545450595290028e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02098209581811772</v>
+        <v>-0.04311033144898502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7779414220420275</v>
+        <v>0.5452734233539323</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.294563659586542e-05</v>
+        <v>-4.918431912585058e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3593423642414503</v>
+        <v>0.4646959846459779</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.631656150339925</v>
+        <v>-5.425017623309163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6033172861069203</v>
+        <v>0.5414889318664272</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.57876993814068</v>
+        <v>12.55736111827322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00596991618710689</v>
+        <v>0.006045738210846037</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1928.526479879619</v>
+        <v>1671.133064880357</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1052806691445668</v>
+        <v>0.1500203114534148</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-142.8233018361495</v>
+        <v>-84.58712540587612</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8181842237398005</v>
+        <v>0.8912687756168582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-583.3729953164171</v>
+        <v>5118.374418136878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3089862830479852</v>
+        <v>0.0009584389670009522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5015.547497631305</v>
+        <v>-41.96953941962813</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001223569382039422</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-43.65257573698698</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01213106629435625</v>
+        <v>0.01523687689905671</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5881.702132171824</v>
+        <v>5611.377435859433</v>
       </c>
       <c r="C2" t="n">
-        <v>2.573218993882489e-05</v>
+        <v>4.55724704378455e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.3099904243593</v>
+        <v>135.3620175725943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05919348619331382</v>
+        <v>0.0449679796200002</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.0133924542854</v>
+        <v>229.3661569380521</v>
       </c>
       <c r="C4" t="n">
-        <v>1.165316498198136e-05</v>
+        <v>1.276436870673921e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04471021726567756</v>
+        <v>0.009020301132395103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5354090747292539</v>
+        <v>0.8917340182634632</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.942600670414349e-05</v>
+        <v>-8.019399200857755e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1442455654195813</v>
+        <v>0.2268081995432488</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.72775670616191</v>
+        <v>-11.32541257329218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2475028071999716</v>
+        <v>0.223502128807422</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.472249429989892</v>
+        <v>5.3132680663043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3044983380213981</v>
+        <v>0.3203451383924645</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1596.525653043033</v>
+        <v>1244.621469630533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1697396531122976</v>
+        <v>0.2700423902388746</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1288.094514113452</v>
+        <v>-1219.165528799693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04295538415720953</v>
+        <v>0.05493810352552552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-863.7728925189108</v>
+        <v>3142.666131039688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2184980042643291</v>
+        <v>0.07630742012698601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3115.145997921334</v>
+        <v>-62.13791572314778</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07780471795538477</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-64.25997449836299</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0004565263751495333</v>
+        <v>0.0006646010841500952</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4340.358400354187</v>
+        <v>4280.978893092229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00823843022152654</v>
+        <v>0.00840823762248819</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.17322732192252</v>
+        <v>90.13166473078167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2405408090665641</v>
+        <v>0.2264538137276818</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.552254469914</v>
+        <v>228.6192413099201</v>
       </c>
       <c r="C4" t="n">
-        <v>1.545713684365191e-05</v>
+        <v>6.545110774159928e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006831293096054042</v>
+        <v>-0.01181407691173741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.926948210000287</v>
+        <v>0.8714031058900341</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.719319592625578e-05</v>
+        <v>-5.351799036620191e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4267460284824055</v>
+        <v>0.4503125747024423</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.612623232366246</v>
+        <v>-8.591986120687494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5130902020674315</v>
+        <v>0.4473173192222136</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.731992353941237</v>
+        <v>7.531999140908741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3253056585195441</v>
+        <v>0.3338825892110302</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>913.1740501850605</v>
+        <v>865.5488092142069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4794276505453764</v>
+        <v>0.4980237854310913</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-692.1833100894037</v>
+        <v>-669.6551337039746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3243426174877462</v>
+        <v>0.3356285659267587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-263.2509268058734</v>
+        <v>5738.081730540269</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6931873572167155</v>
+        <v>0.002894755043925487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5710.582900017778</v>
+        <v>-47.30145519394833</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003230971376261371</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-48.14557916885249</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01636853615547553</v>
+        <v>0.01691103689670343</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2840.590614519182</v>
+        <v>2811.212069345304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06285306125871064</v>
+        <v>0.06173719765546788</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196.196094655627</v>
+        <v>197.0117851756751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01109453204940529</v>
+        <v>0.01006187776431366</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.6465068700945</v>
+        <v>300.7991761320596</v>
       </c>
       <c r="C4" t="n">
-        <v>9.561745564451045e-08</v>
+        <v>2.558804495198559e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02275831168546155</v>
+        <v>-0.024265180584299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7392775665372119</v>
+        <v>0.7182567508225528</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.812586555015129e-05</v>
+        <v>-2.730814297126225e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6714573785985722</v>
+        <v>0.6773942111134593</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5517694868048135</v>
+        <v>0.2864310311007561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9546162045709932</v>
+        <v>0.9759094461491218</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.116430046952431</v>
+        <v>9.095834514284157</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111319621813091</v>
+        <v>0.109468845352025</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1780.597882278583</v>
+        <v>1760.110338431342</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1479974765700643</v>
+        <v>0.1475230956349664</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-522.2785614441271</v>
+        <v>-515.5093777176337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4186795934212122</v>
+        <v>0.4203933764032918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-99.6025522396385</v>
+        <v>4870.487378254937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8724384985604265</v>
+        <v>0.01813984811403446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4866.602869040349</v>
+        <v>-45.36079024763391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01908240776617682</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-45.57394534826115</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01801330471545423</v>
+        <v>0.0174389596371072</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3500.336486643592</v>
+        <v>3529.330855408208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0193748912062601</v>
+        <v>0.01620975861635626</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.6976365104272</v>
+        <v>103.3519894994238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1465368515264028</v>
+        <v>0.1446299450313037</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.3902566053189</v>
+        <v>245.1434817058854</v>
       </c>
       <c r="C4" t="n">
-        <v>8.867224897031412e-07</v>
+        <v>4.753548559042947e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05045257814224159</v>
+        <v>-0.04781921856981705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5031033540139913</v>
+        <v>0.5047266686241043</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.236291521276854e-05</v>
+        <v>-2.353117134031032e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7511186473260624</v>
+        <v>0.7344157418000099</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.45893055490265</v>
+        <v>-4.320635694439439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6629328682039562</v>
+        <v>0.6686170573429544</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.00556606296067</v>
+        <v>10.00840908713151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04422445924138389</v>
+        <v>0.04264540869947574</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1602.846320848891</v>
+        <v>1628.740109912127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2178882244330647</v>
+        <v>0.2012886292092774</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-307.2897079336838</v>
+        <v>-306.8624432884324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6367040260082275</v>
+        <v>0.6347219764664733</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.4414357317537</v>
+        <v>3427.898233775773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.902423296500791</v>
+        <v>0.020731114168803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3432.35852126721</v>
+        <v>-39.01012014122703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02154240358933326</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-38.6076106620006</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08511388619439401</v>
+        <v>0.0765549695217811</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4328.475629035864</v>
+        <v>4090.326693586465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001497649110460034</v>
+        <v>0.002298757061546356</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.48833002310334</v>
+        <v>93.50578051179301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2312788218318772</v>
+        <v>0.2165753899372265</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.1471965120321</v>
+        <v>233.2947012827958</v>
       </c>
       <c r="C4" t="n">
-        <v>2.708337111420882e-05</v>
+        <v>6.90531920321772e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006637506556153097</v>
+        <v>-0.007437865837240591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9293977883266322</v>
+        <v>0.9198426921879311</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.148494910163991e-05</v>
+        <v>-7.926929685267734e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3068600331300301</v>
+        <v>0.3724187707284606</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.654310442416829</v>
+        <v>-6.224611112857321</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7189357357431981</v>
+        <v>0.52964358997377</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.227096440231035</v>
+        <v>7.976641654996717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09012995242851005</v>
+        <v>0.1002037970476646</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1643.560212098127</v>
+        <v>1380.832732166136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2435807754646939</v>
+        <v>0.3200773105643201</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-744.9714421312174</v>
+        <v>-683.6734830281039</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278218915713811</v>
+        <v>0.3184159578089781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-767.6272489876114</v>
+        <v>4237.420243199867</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2753948768421215</v>
+        <v>0.006984255580958674</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4116.886351787605</v>
+        <v>-43.50965045490813</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008770350446029522</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-46.81677576018367</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01254184141053366</v>
+        <v>0.01849129977528518</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4327.57626127138</v>
+        <v>4150.279022492564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00102583988116555</v>
+        <v>0.001532852862929017</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.23683261824809</v>
+        <v>21.72271525562597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8370892553964893</v>
+        <v>0.7697086481100555</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.8344589758301</v>
+        <v>230.1847746752278</v>
       </c>
       <c r="C4" t="n">
-        <v>1.038005489239532e-05</v>
+        <v>2.449166348379968e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01567770059907181</v>
+        <v>-0.007311974554010281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8304096036812033</v>
+        <v>0.918000035025895</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.053818471908651e-05</v>
+        <v>-5.884456342012199e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2732694465690955</v>
+        <v>0.3565288497296234</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.266481680538592</v>
+        <v>-8.887996547537821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4116551200146952</v>
+        <v>0.3122153262165456</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.968659632834349</v>
+        <v>6.849966563236585</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1214670320431646</v>
+        <v>0.1290875162873739</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-426.096122730246</v>
+        <v>-561.8520613816572</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7241172233282483</v>
+        <v>0.6415771895616521</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-702.3267132605715</v>
+        <v>-638.8221301136582</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2827174681596057</v>
+        <v>0.3284034265717261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-704.4713803919882</v>
+        <v>4812.404541222641</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2216480696448183</v>
+        <v>0.001516276638007006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4778.515037848102</v>
+        <v>-30.09767699894428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001580321397415561</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-31.03940680056186</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07107515204704011</v>
+        <v>0.08061061388822534</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4914.272814206239</v>
+        <v>4649.501820310057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003550953685901513</v>
+        <v>0.0005812424058244181</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.38066914926361</v>
+        <v>66.83942775624112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3186362905194157</v>
+        <v>0.3089567641330708</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.4439579141416</v>
+        <v>181.1666724527864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004110858493981839</v>
+        <v>8.949342623856001e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02363175051249453</v>
+        <v>-0.03676785842647701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7188919896158845</v>
+        <v>0.5705406703788858</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.135629072396854e-05</v>
+        <v>-3.091664348977815e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5101405237957708</v>
+        <v>0.6191969539005882</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.44328814830698</v>
+        <v>-13.78473438231831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1860862044013671</v>
+        <v>0.1412196570909398</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.33241658019092</v>
+        <v>12.52360229702146</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01515024704846182</v>
+        <v>0.01382320763413369</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1496.817586330674</v>
+        <v>1331.949831772013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1530352306831593</v>
+        <v>0.1994070294581149</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-31.0156043093375</v>
+        <v>68.19704092981056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9603642145973426</v>
+        <v>0.9123211911258885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-620.9450716608495</v>
+        <v>3923.737258933468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2570802378274078</v>
+        <v>0.007069623028202263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3803.722616494539</v>
+        <v>-55.03582206434164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008981543864250879</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-56.63300973657184</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001358878618915167</v>
+        <v>0.001781800046213245</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4007.380262016537</v>
+        <v>3813.539748939836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003238406666586128</v>
+        <v>0.004601709849893233</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.97141935773706</v>
+        <v>100.7913274019027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.176652043760446</v>
+        <v>0.169220519398091</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.6508726622362</v>
+        <v>246.0116230921419</v>
       </c>
       <c r="C4" t="n">
-        <v>3.438547589413809e-06</v>
+        <v>7.630540459480285e-07</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01560088979094409</v>
+        <v>0.0009270047087481803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8268066860446213</v>
+        <v>0.9894389204254235</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.211409677494791e-05</v>
+        <v>-5.255267262947196e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3482686654608552</v>
+        <v>0.4232300750786362</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.08323709197961</v>
+        <v>-11.55888735734293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3126051275633372</v>
+        <v>0.2435307941076653</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.419430622292397</v>
+        <v>8.345988804475091</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07121424752124016</v>
+        <v>0.07387479892381041</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1944.561895201034</v>
+        <v>1739.933167015313</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1038105584205669</v>
+        <v>0.1399365804425358</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-292.8575430511446</v>
+        <v>-245.2345372479322</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6744175717887642</v>
+        <v>0.7246903680293113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-649.7174948521395</v>
+        <v>5010.089948146002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2865923348653213</v>
+        <v>0.001207668990239343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4982.473010853594</v>
+        <v>-42.49923331236745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001275193427081109</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-44.45743211782269</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0122457040415627</v>
+        <v>0.01593008176541703</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4212.911030879493</v>
+        <v>4130.83116987492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00232681816281534</v>
+        <v>0.00253781021903414</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.05271616979019</v>
+        <v>56.29840602781911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4858480179945982</v>
+        <v>0.446958849539456</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.3397376392268</v>
+        <v>216.3950183148718</v>
       </c>
       <c r="C4" t="n">
-        <v>6.823650907480006e-05</v>
+        <v>2.353055989511009e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01618526512763388</v>
+        <v>-0.02078025511572087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8295135129947432</v>
+        <v>0.7801139949025707</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.239576685005003e-05</v>
+        <v>-4.026997298937493e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6121201996774636</v>
+        <v>0.6281258518256156</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.357031748283031</v>
+        <v>-7.043539968317432</v>
       </c>
       <c r="C7" t="n">
-        <v>0.613073072492788</v>
+        <v>0.488783754982662</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.98783339135688</v>
+        <v>9.805329316756868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04641535675597449</v>
+        <v>0.04893370839989919</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>258.1386522531957</v>
+        <v>248.4213990719236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8515627986374803</v>
+        <v>0.8564144287563564</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-591.9183303309337</v>
+        <v>-560.2573217548579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3659100829037636</v>
+        <v>0.3881943676207196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-420.8760325114736</v>
+        <v>4820.394210410053</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5482758380569894</v>
+        <v>0.003042070935043017</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4792.308161545374</v>
+        <v>-42.05791190881341</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003370097495486551</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-42.70768660026113</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02153867763156552</v>
+        <v>0.02263965643253375</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5488.199948231568</v>
+        <v>5127.525239123626</v>
       </c>
       <c r="C2" t="n">
-        <v>6.149457926145329e-05</v>
+        <v>0.0001689790699259832</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.70365121261608</v>
+        <v>66.86245286407694</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3710587716481077</v>
+        <v>0.2976845213012062</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.8992186413639</v>
+        <v>186.3821469803245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001159855883526835</v>
+        <v>3.224876075907759e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005161398015741336</v>
+        <v>-0.02975664556933055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9347400497495624</v>
+        <v>0.6253255913388486</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.099726360428269e-05</v>
+        <v>-6.392665159337492e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1927493917457065</v>
+        <v>0.3045687976815813</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.43487666893786</v>
+        <v>-14.78264889180217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1127575124020702</v>
+        <v>0.08506052955942353</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.489917558500082</v>
+        <v>9.363351398305539</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0261757942291873</v>
+        <v>0.03057154998951552</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2244.724720928791</v>
+        <v>1590.242323697942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751237501331783</v>
+        <v>0.1603997845061212</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-196.4345929869</v>
+        <v>-172.3180466946965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7390485333369717</v>
+        <v>0.773540083067214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1109.605728700963</v>
+        <v>3448.172596802186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07716881123349362</v>
+        <v>0.03369520274561922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3257.808685939362</v>
+        <v>-53.12665898867681</v>
       </c>
       <c r="C12" t="n">
-        <v>0.041751079688593</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-57.78416245699434</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00178289823319242</v>
+        <v>0.004033412546533686</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3567.263726596717</v>
+        <v>3456.299354439137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03322324314243039</v>
+        <v>0.03170932600271508</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.94539270183</v>
+        <v>138.416663688452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07692187182453002</v>
+        <v>0.07727998863738085</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.4931263582075</v>
+        <v>296.6946792212249</v>
       </c>
       <c r="C4" t="n">
-        <v>1.836245330676761e-07</v>
+        <v>2.975917381679807e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03762487958055127</v>
+        <v>-0.0391807765172125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.587252022280339</v>
+        <v>0.5678938017762568</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.859888537740706e-05</v>
+        <v>-1.70721393097073e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7863525107932614</v>
+        <v>0.801498027714957</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.651531122596102</v>
+        <v>2.148604828012344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.801225434863721</v>
+        <v>0.8345584750742059</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.875303173184143</v>
+        <v>9.987400733489704</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08781537617449416</v>
+        <v>0.08141501264923023</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>851.0495262653794</v>
+        <v>856.9706289785745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.50015728530922</v>
+        <v>0.4941757361062898</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-838.3195101741535</v>
+        <v>-819.445239638398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2410608374849049</v>
+        <v>0.2461040441089721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-168.1032173493795</v>
+        <v>3832.023990372883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7914942872423024</v>
+        <v>0.01987184598597019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3793.163290259883</v>
+        <v>-51.45134496701146</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02252952784663555</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-52.69019395098693</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02727329288385256</v>
+        <v>0.02672806733124304</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4475.302109707319</v>
+        <v>4268.485303892827</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000460124161633766</v>
+        <v>0.0006419683472849642</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.96982394102548</v>
+        <v>92.74861074168444</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23565835360049</v>
+        <v>0.1922954615359056</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.9353709539645</v>
+        <v>194.4926271427966</v>
       </c>
       <c r="C4" t="n">
-        <v>9.94262820467237e-05</v>
+        <v>3.511293779164427e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06555800018576369</v>
+        <v>-0.07883873489972272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3258127648964877</v>
+        <v>0.2264009780416543</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.068032169242785e-06</v>
+        <v>8.447544441669932e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9870678035888433</v>
+        <v>0.8966087957193134</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.934686327487938</v>
+        <v>-8.768981068114243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3853686302118061</v>
+        <v>0.3347532088661672</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.30469962719662</v>
+        <v>12.1807098769894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007683277249276022</v>
+        <v>0.008167880260537844</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1160.407473052046</v>
+        <v>957.9235361029573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3170305005824016</v>
+        <v>0.3990924818851372</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.6213990755318</v>
+        <v>244.9599264211063</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7118201642942497</v>
+        <v>0.7053767052755232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-504.1602085331647</v>
+        <v>4472.174177887297</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3587359738497459</v>
+        <v>0.001656909991894096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4392.523158585343</v>
+        <v>-55.98930206874149</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002049308245589557</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-58.31187092167713</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001264820417255646</v>
+        <v>0.001689245158112423</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3684.316756875469</v>
+        <v>3648.268314199666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006724962534405252</v>
+        <v>0.006478664745308308</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.4205198923887</v>
+        <v>134.1686112255477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07658043947711578</v>
+        <v>0.06938231636221613</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.8950316188811</v>
+        <v>250.1923695127537</v>
       </c>
       <c r="C4" t="n">
-        <v>2.324305253799211e-06</v>
+        <v>1.02895007996542e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05096381640629036</v>
+        <v>-0.05678893989034792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5376949301696994</v>
+        <v>0.4671259823278047</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.911255261320829e-05</v>
+        <v>-2.569861290806658e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6885218897131533</v>
+        <v>0.7156575251794658</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8319707928047322</v>
+        <v>-1.066433062678133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9291929810870223</v>
+        <v>0.9081273779396558</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.545445226867999</v>
+        <v>6.506835215469932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2568031752939635</v>
+        <v>0.2560670780195829</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1004.575854130571</v>
+        <v>953.3127929882894</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4170505592849869</v>
+        <v>0.4301418137074514</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-228.0536483837491</v>
+        <v>-213.5492410739089</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7213180762628209</v>
+        <v>0.7353187208305896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-138.9963324443734</v>
+        <v>3152.259657906368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8203931465894985</v>
+        <v>0.04414039993076189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3154.6863578251</v>
+        <v>-40.46827799333878</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0454786927362418</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-40.7525974619798</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0272343941781148</v>
+        <v>0.02684602707462379</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4630.639542285111</v>
+        <v>4371.290764260646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001665411943373469</v>
+        <v>0.0003378287898634358</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.0418518354368</v>
+        <v>78.75324268647893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2293091686094325</v>
+        <v>0.2464860785098449</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.3276567643235</v>
+        <v>189.2211373210715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003472063153542092</v>
+        <v>5.979832205975129e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02585135339122996</v>
+        <v>-0.04923831299350695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6818619941831103</v>
+        <v>0.4248168804353321</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.864600102841594e-05</v>
+        <v>-2.046249693481793e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5188778239123991</v>
+        <v>0.7290917947217308</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.642217154401703</v>
+        <v>-10.37312750769122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3698289154572253</v>
+        <v>0.2175969866457593</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.49790936510285</v>
+        <v>10.12713455456493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0160027884608318</v>
+        <v>0.0207620125421824</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1281.775722062753</v>
+        <v>961.0836936684991</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2468092484223969</v>
+        <v>0.3789413123326926</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-494.592386978989</v>
+        <v>-368.2667707657906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3989195971466911</v>
+        <v>0.528609808454354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-882.5025464031719</v>
+        <v>3898.498081726589</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1412382230904465</v>
+        <v>0.006482927891902054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3653.064123641034</v>
+        <v>-44.60514836136391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01040717906345164</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-47.1507627715615</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003143360945691727</v>
+        <v>0.005147565494667253</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4009.297305032127</v>
+        <v>3956.896695061489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007376609774036153</v>
+        <v>0.007469995924908946</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.91481977014908</v>
+        <v>68.01869543146077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3535874806849687</v>
+        <v>0.3565342960522013</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238.5974428350497</v>
+        <v>242.1438710281937</v>
       </c>
       <c r="C4" t="n">
-        <v>5.141066342635799e-06</v>
+        <v>2.270460338756374e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03253719738882657</v>
+        <v>-0.03514823134584175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6619583865990489</v>
+        <v>0.6330753175240684</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.186961586990804e-05</v>
+        <v>-3.104156712688982e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.666508759649994</v>
+        <v>0.6725668558182761</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.076213268184873</v>
+        <v>-5.847597643256371</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6421659419046307</v>
+        <v>0.583239405116724</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.33206112594653</v>
+        <v>10.30848895927245</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06216941052672616</v>
+        <v>0.06107531712736003</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>755.3694624475597</v>
+        <v>688.0382334796118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5603944853561128</v>
+        <v>0.589753398164732</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-397.8616774028247</v>
+        <v>-399.0969073242705</v>
       </c>
       <c r="C10" t="n">
-        <v>0.569152153782291</v>
+        <v>0.5654906033674489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-243.0484084864347</v>
+        <v>3984.152600663083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7119172983053479</v>
+        <v>0.04590014964749963</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3976.728679255575</v>
+        <v>-44.62169223106919</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04771004678345166</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-45.43242008966772</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01706705362049428</v>
+        <v>0.0175369598199647</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3523.753344948085</v>
+        <v>3306.465580615392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007491343600172318</v>
+        <v>0.01004729604363718</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.4705795028553</v>
+        <v>172.4407519515189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02065474745336053</v>
+        <v>0.01666476952070275</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.1397686992383</v>
+        <v>240.0137536098111</v>
       </c>
       <c r="C4" t="n">
-        <v>5.843775759761897e-06</v>
+        <v>7.490212769682981e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05822904874392337</v>
+        <v>-0.06833997317992663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4021920546342902</v>
+        <v>0.3174668141320441</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.363762704158267e-05</v>
+        <v>-1.333044696213227e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7321699189955895</v>
+        <v>0.844094916692717</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3276018277209438</v>
+        <v>-1.797851509893771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9728172675936302</v>
+        <v>0.848827939056036</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.323073762877243</v>
+        <v>8.150981775221275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1280765378828281</v>
+        <v>0.1348434512487367</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1715.730739734105</v>
+        <v>1631.230709837275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1361401845321083</v>
+        <v>0.1536354080761684</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-96.44279073652979</v>
+        <v>-21.06804748622631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8814318196164193</v>
+        <v>0.9736900824252064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-494.3217488628547</v>
+        <v>4136.475353281325</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4048209124684405</v>
+        <v>0.005693195745182384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4089.029837109912</v>
+        <v>-41.3411433774429</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00640746193762772</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-43.31807189311248</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01468203966417284</v>
+        <v>0.01827300786168716</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4242.872300532496</v>
+        <v>4159.358787397666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01029909790415836</v>
+        <v>0.01033919687217488</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.0859151749963</v>
+        <v>136.3944152624154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08963032744251008</v>
+        <v>0.07764561518172307</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275.2887033706818</v>
+        <v>280.0129452654868</v>
       </c>
       <c r="C4" t="n">
-        <v>1.417843027122939e-06</v>
+        <v>3.614417712209936e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004615757006426191</v>
+        <v>-0.004058751486335943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9557780191700291</v>
+        <v>0.9587505898815583</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.080932934420664e-05</v>
+        <v>-6.612761873852182e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3522215883136924</v>
+        <v>0.3732370029144573</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.956505928556295</v>
+        <v>-3.195013617520141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.772381295014444</v>
+        <v>0.7524420691515604</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.030220847990989</v>
+        <v>8.043228211734291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1183162643435474</v>
+        <v>0.1153244590242383</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1378.418272331523</v>
+        <v>1318.857211219221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3113062315950831</v>
+        <v>0.3250735526145869</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-839.4261739822462</v>
+        <v>-794.8867472910156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246945212629726</v>
+        <v>0.2611163204992336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-212.1590888474957</v>
+        <v>3567.073077764779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7412115935433323</v>
+        <v>0.02271284043125812</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3578.81831835712</v>
+        <v>-55.95348245972743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02321364598474835</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-56.38196479793099</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02426377578538639</v>
+        <v>0.02418310905920402</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4693.276200393235</v>
+        <v>4585.250420706165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001083708176881717</v>
+        <v>0.001153346276779621</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.42862848818856</v>
+        <v>54.11327461332655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4913825498071718</v>
+        <v>0.4656737765172521</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.902182555476</v>
+        <v>236.0421723904318</v>
       </c>
       <c r="C4" t="n">
-        <v>5.751533203012901e-06</v>
+        <v>2.150353415773267e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006602455543163091</v>
+        <v>0.0008805695231556415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9246751335736928</v>
+        <v>0.9897566368814552</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.025358425677013e-05</v>
+        <v>-6.964676381044445e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3280776483519325</v>
+        <v>0.32958233448106</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.834470408559284</v>
+        <v>-10.50197742985753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3013837222088094</v>
+        <v>0.2630581276447864</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.033145240414001</v>
+        <v>7.102441418463279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1439905694222217</v>
+        <v>0.1378620384033549</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>794.1576625984853</v>
+        <v>732.0303058843365</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5326462987290179</v>
+        <v>0.561276289072157</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-481.714110535941</v>
+        <v>-502.3717758551633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4597169707649095</v>
+        <v>0.4374679810575453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-363.7357723138742</v>
+        <v>4432.448977183776</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6037709193170613</v>
+        <v>0.005598155103377027</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4394.100985713633</v>
+        <v>-45.19947945642086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006335466675831973</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-46.18561580226221</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01347263295288785</v>
+        <v>0.01442917973247223</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4743.361275453706</v>
+        <v>4469.992470091202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002372752137668202</v>
+        <v>0.00358421527769589</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.861638703942</v>
+        <v>111.9458615460539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1781249446557779</v>
+        <v>0.1498464482050462</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.3299583340421</v>
+        <v>236.8873825287852</v>
       </c>
       <c r="C4" t="n">
-        <v>3.745773540779781e-05</v>
+        <v>5.501114266169615e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01087013859088282</v>
+        <v>-0.02488205768392904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8838282231076705</v>
+        <v>0.7343778981334042</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.513763758305552e-05</v>
+        <v>-5.161774413735775e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.380924127267019</v>
+        <v>0.4810334206326533</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.208221807388476</v>
+        <v>-8.593783393186442</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5619758552752624</v>
+        <v>0.4128108333221002</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.985369478875793</v>
+        <v>6.615610267299957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.250110246453043</v>
+        <v>0.27551200212604</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1290.906977608993</v>
+        <v>1183.586649841934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3093416755735298</v>
+        <v>0.3499673835986239</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-342.1725387467559</v>
+        <v>-254.6314000681059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6151443758884967</v>
+        <v>0.7064523901215349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-707.5686122137334</v>
+        <v>3965.112559728379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.286863579350104</v>
+        <v>0.01812460282248859</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3860.011243653455</v>
+        <v>-49.45567529237177</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02141763830801304</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-52.24646453295599</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01065700524064495</v>
+        <v>0.01462162442511672</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3058.311335317827</v>
+        <v>2806.984603952316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03697290151043604</v>
+        <v>0.05054058469947183</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.77557764391815</v>
+        <v>45.59102307320643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5455898538654508</v>
+        <v>0.5187423358478989</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240.1236448886331</v>
+        <v>249.2208183770788</v>
       </c>
       <c r="C4" t="n">
-        <v>7.326586580116411e-07</v>
+        <v>1.723469576296509e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006781285989702623</v>
+        <v>-0.01965599099023019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9183605185386183</v>
+        <v>0.7610960342434303</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.856676263298147e-05</v>
+        <v>-3.194067858985162e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5604563392902078</v>
+        <v>0.627224267030652</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.4910071897379</v>
+        <v>-2.676842243837577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8723151587984266</v>
+        <v>0.7706420450848063</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.21668288424047</v>
+        <v>8.269336378771285</v>
       </c>
       <c r="C8" t="n">
-        <v>0.110153691655683</v>
+        <v>0.1075222909490989</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>381.5151051066514</v>
+        <v>295.7549508466204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7670960226220901</v>
+        <v>0.8177432800874146</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-735.6071167423677</v>
+        <v>-694.7634912249976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22114199141163</v>
+        <v>0.2458145894820916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-538.1982834896353</v>
+        <v>6151.51047495112</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3540581832838816</v>
+        <v>8.411865547287949e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6078.958989900673</v>
+        <v>-22.62314311329698</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001046647827345494</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-25.76076007754865</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2320341000202459</v>
+        <v>0.2868312476921547</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3820.362283053198</v>
+        <v>3670.446899872784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009262132978398117</v>
+        <v>0.01100529491844395</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.7374616104132</v>
+        <v>112.3474983497293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1346063375985555</v>
+        <v>0.123778051955599</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.695276240668</v>
+        <v>249.365080695622</v>
       </c>
       <c r="C4" t="n">
-        <v>9.12140767692063e-06</v>
+        <v>1.822376290004658e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01908631811253737</v>
+        <v>-0.03731340456746051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8190788785599353</v>
+        <v>0.6364857360675719</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.688579004148092e-05</v>
+        <v>-3.672186444653351e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5109635600423923</v>
+        <v>0.5972247457965479</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.529487685233292</v>
+        <v>-7.010129343920845</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5199466195836964</v>
+        <v>0.4871265824047546</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.923994898899013</v>
+        <v>10.107982561233</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04750592893923346</v>
+        <v>0.04254403990593748</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2299.191873800631</v>
+        <v>2105.937389153995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0826661642535774</v>
+        <v>0.102004922636443</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.56195127939009</v>
+        <v>124.4755864982724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9743676039200578</v>
+        <v>0.8678294981950612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-461.5664596113329</v>
+        <v>4489.304099417739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4884772797495364</v>
+        <v>0.01528346037225713</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4564.389091097403</v>
+        <v>-50.06266910226526</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01426328975449453</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-50.44218278538558</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.008898110766854541</v>
+        <v>0.009091466336079389</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4724.09865011247</v>
+        <v>4685.446126553108</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002760323359947522</v>
+        <v>0.0002610016244088144</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.13434040562282</v>
+        <v>70.66553375058467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3143492561272561</v>
+        <v>0.2993477479708169</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.4364825783211</v>
+        <v>173.8507241138371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006506778471561613</v>
+        <v>0.0004317763508026939</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05893631424858206</v>
+        <v>-0.06275580546220277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3840993589506595</v>
+        <v>0.3428082797002169</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.861154704849036e-05</v>
+        <v>-3.734690209350239e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6082413396129657</v>
+        <v>0.6171601694667064</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.790323390971592</v>
+        <v>-9.273841391118449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3360849688908321</v>
+        <v>0.2999175304452181</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.24661742006692</v>
+        <v>12.188283257924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008787451633023104</v>
+        <v>0.008589014811632642</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>889.1627125931734</v>
+        <v>826.8020401813778</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4643006792503528</v>
+        <v>0.4871194616714136</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-209.3473187715572</v>
+        <v>-214.8842758214323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7459676004856788</v>
+        <v>0.7377226677166953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-201.1266029638537</v>
+        <v>4061.353532261905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7580616371532516</v>
+        <v>0.007141354043712078</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4042.571440522421</v>
+        <v>-52.48700820687711</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007851650165186174</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-53.02287075338126</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001692536591751145</v>
+        <v>0.001646173803691737</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4160.461472575129</v>
+        <v>4044.266485125928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003278201546250948</v>
+        <v>0.003945491377951505</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.05310960733988</v>
+        <v>82.12467544260824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.255656010464064</v>
+        <v>0.2485063335135792</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.885982776676</v>
+        <v>216.7945441058627</v>
       </c>
       <c r="C4" t="n">
-        <v>4.486579295800453e-05</v>
+        <v>1.456385922220915e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0366478265715523</v>
+        <v>-0.04659528168298666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5761962084837194</v>
+        <v>0.4698419945427844</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.347213968911216e-05</v>
+        <v>-2.794806994102291e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6101776077003815</v>
+        <v>0.6681814088933677</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.442619684396835</v>
+        <v>-5.7655439850465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6488048776396893</v>
+        <v>0.548990376218687</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.45456509114743</v>
+        <v>6.455802359769047</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2178884631128342</v>
+        <v>0.2169162894849645</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.5326820448945</v>
+        <v>2.520133730036378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9166490040482196</v>
+        <v>0.9983349755119679</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-589.1468057013847</v>
+        <v>-555.0295660250254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3837190982012336</v>
+        <v>0.4100295874452228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-516.118464103226</v>
+        <v>5064.179404910197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3893152906542819</v>
+        <v>0.001874044536567337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5058.577489527261</v>
+        <v>-35.66407915341807</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001939539431839021</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-36.32055547535263</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04038545742269825</v>
+        <v>0.04340636322469112</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4015.618518745081</v>
+        <v>3955.06790972003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001677345609080919</v>
+        <v>0.001639842716545511</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.7497513879305</v>
+        <v>154.2115399038745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02876692319185989</v>
+        <v>0.02822760542671394</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274.7321977205104</v>
+        <v>279.0237625611769</v>
       </c>
       <c r="C4" t="n">
-        <v>8.057202825887839e-08</v>
+        <v>1.66258292067533e-08</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01701347622039629</v>
+        <v>-0.01970619133235374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8001560743976699</v>
+        <v>0.766362508796407</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.806175307367372e-05</v>
+        <v>-2.608781602046842e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6654511928029903</v>
+        <v>0.6845631269594185</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.799062487460922</v>
+        <v>-2.432094420367193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8452552612356106</v>
+        <v>0.7863546187256274</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.405956450127825</v>
+        <v>7.356006234686681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09836671671591654</v>
+        <v>0.09823227000953766</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>617.1333750624938</v>
+        <v>570.9408107593042</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5729218437603864</v>
+        <v>0.5967525230969427</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1015.591535457609</v>
+        <v>-1009.241592084609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1045063805228855</v>
+        <v>0.1042327073622168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-203.5529105602229</v>
+        <v>2264.93514284325</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7322250968088095</v>
+        <v>0.1166790843258538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2240.126968707509</v>
+        <v>-44.02358750247052</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1235575908394495</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-44.71281102847579</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.009016646534348203</v>
+        <v>0.009105269994914737</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4375.463342270876</v>
+        <v>4097.676962158324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00305175429223775</v>
+        <v>0.004532895017755931</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.426689389629</v>
+        <v>124.5569426549994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08423750474086894</v>
+        <v>0.08137381588264278</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.4163008023255</v>
+        <v>252.1314090521507</v>
       </c>
       <c r="C4" t="n">
-        <v>7.171829008149062e-06</v>
+        <v>8.28691905632698e-07</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06303202495362123</v>
+        <v>0.04857481116760384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4036035715059726</v>
+        <v>0.5113199294513047</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001103100944469689</v>
+        <v>-9.708848770342485e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1336556806885561</v>
+        <v>0.1785752948957047</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.22977970486499</v>
+        <v>-11.72069816323891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3268756758324485</v>
+        <v>0.2567624400479724</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.361348561156806</v>
+        <v>7.418334049497588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1350268553253003</v>
+        <v>0.1319643436409384</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2418.591369352562</v>
+        <v>2220.452022421809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04798353512500741</v>
+        <v>0.06503977730743322</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-870.9871136341408</v>
+        <v>-776.7046327737989</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1796364166677382</v>
+        <v>0.2256802735055506</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-639.0172048257882</v>
+        <v>3800.730868570157</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322860940226264</v>
+        <v>0.01400950100114545</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3695.381629830377</v>
+        <v>-44.59522762704478</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01707391100571879</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-46.88274043802996</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01173462942915073</v>
+        <v>0.01543311666966656</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4469.962979408173</v>
+        <v>4345.251690593472</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002971707195154517</v>
+        <v>0.003495528912785767</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.2584386267724</v>
+        <v>116.0338544015769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1333540797720565</v>
+        <v>0.1225944718363916</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.4776299768464</v>
+        <v>225.9691722142298</v>
       </c>
       <c r="C4" t="n">
-        <v>8.047482573697331e-05</v>
+        <v>2.40526663300965e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06236023202988639</v>
+        <v>-0.0773091223970257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.462782254162682</v>
+        <v>0.348194062018215</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.24944369286859e-05</v>
+        <v>-2.400482886201461e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6571524852879089</v>
+        <v>0.7391340003357549</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.626592502558346</v>
+        <v>-2.861349022573322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.874348005245154</v>
+        <v>0.7774731695057425</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.258193794298293</v>
+        <v>9.176533347275551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06277743360376901</v>
+        <v>0.06413650594547587</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>824.9124320803512</v>
+        <v>688.0577404498545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5374586019170882</v>
+        <v>0.6023440661693659</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-350.9262573419234</v>
+        <v>-285.810837649007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6187657049046666</v>
+        <v>0.6819774112608056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-487.8815160485947</v>
+        <v>3804.195574696372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4518711936064324</v>
+        <v>0.03937827248333319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3799.175134071923</v>
+        <v>-52.73710605451113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04028555875156509</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-53.43834102750957</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.006751240210110804</v>
+        <v>0.007205594606638435</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3937.536635082808</v>
+        <v>3889.847545419806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002249202287023907</v>
+        <v>0.002259807172154586</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.640746496839</v>
+        <v>120.0697593774954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09712469032836168</v>
+        <v>0.08729237132445922</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.3418250018452</v>
+        <v>266.364330358246</v>
       </c>
       <c r="C4" t="n">
-        <v>7.753243882270916e-08</v>
+        <v>2.084114806609686e-08</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03365713665788633</v>
+        <v>-0.03845450307586565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6021244674110915</v>
+        <v>0.5414807492851113</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.254791817997851e-05</v>
+        <v>-1.276101032784621e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8407393362320197</v>
+        <v>0.8370660380134525</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1931731726666879</v>
+        <v>-0.3824143881328474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9826336745168538</v>
+        <v>0.9649173443640119</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.702793438936098</v>
+        <v>8.635657814359005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04488405111166737</v>
+        <v>0.04497861154442186</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>651.4231035537564</v>
+        <v>594.6403411121819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5701691225746175</v>
+        <v>0.5988979094334153</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-532.7485299560767</v>
+        <v>-549.4734143400838</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3819404124477953</v>
+        <v>0.3630547072623008</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-299.3566537781101</v>
+        <v>4028.910163692984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6990574847497686</v>
+        <v>0.009416706896336143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4025.045011679963</v>
+        <v>-54.11841815695347</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009942249460328652</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-54.5648696183047</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001959668955012693</v>
+        <v>0.0019431362525636</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2346.120984784005</v>
+        <v>2177.484820187318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09872306061992719</v>
+        <v>0.1177207616032475</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11.76247822123085</v>
+        <v>-10.82851272058161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8643064722498213</v>
+        <v>0.8744772751521108</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.2070804652393</v>
+        <v>237.5325113748282</v>
       </c>
       <c r="C4" t="n">
-        <v>6.890856448586842e-07</v>
+        <v>1.4283337620656e-07</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02649266622721069</v>
+        <v>-0.0344575347233792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6716760311930432</v>
+        <v>0.5734128482272954</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.096541623479401e-05</v>
+        <v>-2.478113789016693e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6176621142200593</v>
+        <v>0.6851063142701053</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.251297282526208</v>
+        <v>-8.337896819572848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4268631652653043</v>
+        <v>0.3519916875016514</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.55639069181849</v>
+        <v>16.61165874517889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01402458142239445</v>
+        <v>0.01333645927153585</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2050.501619786432</v>
+        <v>1987.168220665862</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06916208644999461</v>
+        <v>0.07580820247766837</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.9022481835439</v>
+        <v>429.1841973469679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5244521946536451</v>
+        <v>0.4762967741960538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-363.5017022290083</v>
+        <v>4475.363607629863</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4947894033153006</v>
+        <v>0.00194565055041792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4417.203076734187</v>
+        <v>-20.37379206864115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002342811719723952</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.26887891396134</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2616631877506532</v>
+        <v>0.2974130477158731</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Nantes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nantes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ16354043" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ16467137" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ16567798" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ16664507" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ16789876" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ16951996" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ17056246" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ17151338" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ17254810" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ17360478" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ17479312" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ17579975" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ17699476" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ17827491" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ17943025" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ18063207" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ18181792" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ18304545" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ18425780" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ18547280" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ18668039" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ18790494" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ18915766" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ19060407" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ19185442" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ19314027" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ19451105" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ19589110" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ19718057" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ19855324" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ19985179" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ20115044" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ20247764" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ20380352" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ20509069" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ20633945" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ20761012" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ20890327" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ21024844" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ21151549" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ21278752" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ21411184" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ21560458" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ21693008" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ21819767" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ21948600" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ22080957" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ22207441" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ22336381" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ22462755" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ58436446" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ58555268" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ58684597" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ58812334" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ58933402" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ59046852" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ59157323" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ59354362" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ59451383" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ59549702" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ59646695" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ59743933" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ59841867" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ59940882" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ00062406" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ00176307" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ00284299" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ00405540" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ00531232" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ00658031" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ00782242" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ00911550" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ01038364" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ01164645" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ01295563" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ01427734" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ01560108" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ01724463" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ01888768" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ02031171" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ02161232" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ02299729" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ02432067" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ02555534" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ02680907" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ02834245" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ02966649" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ03093168" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ03214071" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ03334814" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ03455065" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ03586880" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ03730216" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ03863386" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ03983117" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ04108102" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ04251940" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ04381148" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ04518822" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ04662350" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Nantes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nantes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ58436446" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ58555268" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ58684597" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ58812334" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58933402" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ59046852" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ59157323" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ59354362" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ59451383" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ59549702" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ59646695" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ59743933" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ59841867" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ59940882" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ00062406" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ00176307" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ00284299" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ00405540" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ00531232" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ00658031" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ00782242" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ00911550" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ01038364" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ01164645" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ01295563" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ01427734" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ01560108" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ01724463" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ01888768" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ02031171" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ02161232" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ02299729" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ02432067" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ02555534" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ02680907" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ02834245" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ02966649" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ03093168" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ03214071" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ03334814" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ03455065" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ03586880" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ03730216" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ03863386" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ03983117" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ04108102" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ04251940" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ04381148" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ04518822" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ04662350" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ13662408" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13769370" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13881257" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ14004731" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ14129727" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14239970" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14342574" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14453111" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ14572094" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14682407" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ14818170" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ14964957" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ15114241" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ15247878" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ15363079" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ15483144" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ15587126" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ15714944" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ15826529" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ15930423" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ16063782" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ16209066" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ16334099" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ16459311" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ16570892" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ16681425" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ16804474" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ16939012" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ17155334" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ17266347" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ17376613" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ17486961" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ17597001" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ17712686" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ17857211" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ17997539" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ18130956" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ18246485" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ18356375" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ18466625" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ18576178" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ18686121" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ18813401" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ18926937" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ19033125" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ19158523" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ19269790" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ19380059" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ19505462" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ19615717" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3175.625031937456</v>
+        <v>3381.975098965494</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02823930535977608</v>
+        <v>8.802332572955823e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.8048017312704</v>
+        <v>261.5501264519847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0870239251827107</v>
+        <v>1.573141430244153e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258.2150944608513</v>
+        <v>-0.09945106747047</v>
       </c>
       <c r="C4" t="n">
-        <v>2.068251300477266e-06</v>
+        <v>0.04889112789482928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06132431702980889</v>
+        <v>4554.279956171103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4408516645369179</v>
+        <v>0.01997526490820416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.864901175728089e-05</v>
+        <v>-450.1013858665153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5690790740210145</v>
+        <v>0.4484792076833871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.342400998860079</v>
+        <v>79.4811728059363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8923439662776353</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.33317227106497</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02066339126213606</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>995.1321672805043</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4332503913199062</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-320.3636074234655</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6299636206981467</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3013.315542248873</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06682999685182056</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-38.73025784457027</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03777103372303087</v>
+        <v>0.3031704389341099</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5068.4681347185</v>
+        <v>3456.712222472996</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004059945300586127</v>
+        <v>5.92304013597755e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.8038469960463</v>
+        <v>259.8920786292468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1595187339687653</v>
+        <v>1.314959458540904e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.1176721986007</v>
+        <v>-0.09026348545938036</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007606860610468408</v>
+        <v>0.077079912241763</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04316178441112301</v>
+        <v>5676.13009915087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.541536615560154</v>
+        <v>0.004927263156258535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.910748487880792e-05</v>
+        <v>-1255.400656819214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4779115557643573</v>
+        <v>0.03858614276533669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.49332477459032</v>
+        <v>107.0342954942314</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2934703347310493</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.933123769623199</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.231414177583848</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>75.05079893159689</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9561699254024116</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-966.2375823158636</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1765487085307865</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4123.743716178986</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.009689892549726723</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-38.91740257194018</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03765005405698796</v>
+        <v>0.176078534098342</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2659.839272188063</v>
+        <v>3289.24806539058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1238987505911473</v>
+        <v>3.417886087586183e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.7405262231504</v>
+        <v>277.140879982074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1464997770055099</v>
+        <v>1.875583344556836e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.2112361151007</v>
+        <v>-0.0773608102094815</v>
       </c>
       <c r="C4" t="n">
-        <v>2.579214435807457e-07</v>
+        <v>0.1627313714936062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0110136024966908</v>
+        <v>6155.485876709584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8757272677377927</v>
+        <v>0.001310153106287899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.821904140480199e-05</v>
+        <v>-844.1533817194158</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6019256579036361</v>
+        <v>0.1557026014408774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.938858621648503</v>
+        <v>37.64670961799226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7055272922440188</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.131575325444516</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.162740541247766</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2169.795748206458</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09899516866273651</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-259.0251153750496</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7236277998770793</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4459.444957034219</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.008117322255979451</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-33.22545404322234</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1995078908934772</v>
+        <v>0.6102371569573755</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4059.203180715125</v>
+        <v>3233.782045060542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004523914942008699</v>
+        <v>1.783655480680938e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.8085550584885</v>
+        <v>259.4485064413557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.120288664277906</v>
+        <v>4.261035597778906e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.7116366742313</v>
+        <v>-0.0872742421845345</v>
       </c>
       <c r="C4" t="n">
-        <v>1.305906721519111e-05</v>
+        <v>0.09600330454591505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04034540337182474</v>
+        <v>5178.054128838223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5822940699302444</v>
+        <v>0.005501147334021626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.955219447784203e-05</v>
+        <v>-954.1937726315266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7868056098201739</v>
+        <v>0.1192280615861338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.746380909620513</v>
+        <v>170.8958208260954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4336911558606992</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.344034359071618</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06255900614648269</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>868.3525399667556</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5147056147813966</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-217.7117048848609</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.747583244996601</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4170.116635288655</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01640446904526933</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-47.46136119797693</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01200463549025375</v>
+        <v>0.05462188971222087</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5335.897936763276</v>
+        <v>3526.856502551863</v>
       </c>
       <c r="C2" t="n">
-        <v>9.079362676814717e-05</v>
+        <v>1.453995107042215e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.6318116149472</v>
+        <v>276.3847635965013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3093435319961027</v>
+        <v>2.405265460587851e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.1308307261379</v>
+        <v>-0.09219110666956412</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003248367676002162</v>
+        <v>0.06489578397853232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03135347173478198</v>
+        <v>4996.380154872979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6222738387387394</v>
+        <v>0.006311613300043577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.98688741195053e-05</v>
+        <v>-1022.957697567891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3272896228145611</v>
+        <v>0.07316924883264307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.98897857881458</v>
+        <v>70.32034188393646</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1275625948872195</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.41302138644201</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01792903500298094</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1433.122020626992</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1862452884214934</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-226.4312946447833</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7120802107034154</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3007.017245702953</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0356191895212461</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-56.89680759392377</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0009297078783541707</v>
+        <v>0.3766706787690545</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3521.653180932684</v>
+        <v>3477.781487216568</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004384495775114344</v>
+        <v>1.487909478638782e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.89398324305054</v>
+        <v>299.2918220893164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4809759060374703</v>
+        <v>7.557634790019765e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.6112655048056</v>
+        <v>-0.04928410896779942</v>
       </c>
       <c r="C4" t="n">
-        <v>1.038476165641977e-06</v>
+        <v>0.2714186067558905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0293353321336914</v>
+        <v>2779.860542882155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6926456569981854</v>
+        <v>0.08527468718667811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.201914453180822e-05</v>
+        <v>-1353.072939412061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2053227555436768</v>
+        <v>0.004984084349511014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.10987593886324</v>
+        <v>117.5195950440531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2595973911967167</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.06063398284768</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1658505389650695</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>943.2441374581831</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4384792542037359</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1141.610158324979</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05480962022805589</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6854.526358213857</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.221432793733426e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-21.66890639175385</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2005132093462551</v>
+        <v>0.06806530991383067</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4299.424755029681</v>
+        <v>3877.065032520638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008794774792250421</v>
+        <v>3.207976971599565e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.7256686355675</v>
+        <v>252.326496823718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0631780026918965</v>
+        <v>1.246475372993761e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2880940955113</v>
+        <v>-0.1029394972869559</v>
       </c>
       <c r="C4" t="n">
-        <v>3.081525738418883e-08</v>
+        <v>0.03552992460868302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07004779202321965</v>
+        <v>4142.701729550965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2806847209403541</v>
+        <v>0.01767791947003832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.830325413656824e-06</v>
+        <v>-1303.551657063151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9776214429689863</v>
+        <v>0.02129233670346652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7110444067265576</v>
+        <v>92.06034097960558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.938735791101367</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.02247465563534</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04661557837091713</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-47.28155412653177</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9650890196734698</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-143.2486694193417</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8288028347558161</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2284.034921455996</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1150086850776996</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-58.26730615934274</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0006516196527596882</v>
+        <v>0.2124981923651166</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4172.605335726576</v>
+        <v>2780.494639379395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005342415001212125</v>
+        <v>9.827868384769446e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.74985869384479</v>
+        <v>320.6131649504947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4197757305405744</v>
+        <v>2.815795100541384e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.7302586187472</v>
+        <v>-0.03798080837725648</v>
       </c>
       <c r="C4" t="n">
-        <v>1.711602863258242e-06</v>
+        <v>0.4345519395236149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03146117825961553</v>
+        <v>5687.185899913999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6730322979029852</v>
+        <v>0.0009751287403626292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.655848044390163e-05</v>
+        <v>-929.0471857423333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6512317549957746</v>
+        <v>0.07794761231522521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.920864223289268</v>
+        <v>75.72638459908545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6457063134915024</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.406419399387278</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1724244045779496</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>822.626376557394</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5238723633864804</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-537.7737413577718</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4503037904376493</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4377.471171393225</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01280447280619192</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-48.13272446270848</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01153719349223133</v>
+        <v>0.2611482380709774</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3381.518322567071</v>
+        <v>3400.322595022126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005923435293865754</v>
+        <v>1.881165998731901e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.4782480443339</v>
+        <v>254.8835096282111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0428750969478981</v>
+        <v>8.948864896740121e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.8298389843976</v>
+        <v>-0.08938456864913838</v>
       </c>
       <c r="C4" t="n">
-        <v>1.251823837783729e-09</v>
+        <v>0.06132971898736046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007028296560466496</v>
+        <v>4022.800375595315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9917075938229956</v>
+        <v>0.01544973478104478</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.698913701939723e-05</v>
+        <v>-832.2882110515575</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6567802603877545</v>
+        <v>0.1369859862631596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.223019186565516</v>
+        <v>154.2378491271074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5386441797966963</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.140786729230854</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05265198394929551</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1075.580953392677</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3027622653592646</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-667.1663389652972</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2451125962420867</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3371.916954859969</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03992214437228508</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-40.46169800919394</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01123139410260089</v>
+        <v>0.05219748839968741</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4668.508583223225</v>
+        <v>3331.31970033978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001122744938613637</v>
+        <v>6.512388344551643e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.92423054852677</v>
+        <v>282.8799398417914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1689261477405216</v>
+        <v>1.210415387530036e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.8547956895784</v>
+        <v>-0.09844637001427634</v>
       </c>
       <c r="C4" t="n">
-        <v>2.438522744672273e-05</v>
+        <v>0.08072048013970605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005960990707045477</v>
+        <v>6550.446350835451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9324462586695795</v>
+        <v>0.0006685756329767603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.969118392290545e-05</v>
+        <v>-1071.367071738094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183246253578245</v>
+        <v>0.06625143979603794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.64043575865709</v>
+        <v>64.21159474300796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2980141363735989</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.973880432314303</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1488008231192333</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1530.165849836523</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2335563959617219</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-592.1271764702897</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3875073461236397</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4187.017211847469</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.007189392566562891</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-49.00611761233125</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01277116061263542</v>
+        <v>0.4049586295003806</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2978.332742379958</v>
+        <v>4175.301018517197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06749279268400307</v>
+        <v>2.115939845543797e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.8993107995463</v>
+        <v>247.0971566208821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08266099777918015</v>
+        <v>2.209050932556325e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236.7692547372158</v>
+        <v>-0.09718988916621241</v>
       </c>
       <c r="C4" t="n">
-        <v>9.939528399309189e-06</v>
+        <v>0.04727230870074556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0336475171910546</v>
+        <v>2534.585343082281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6424226885832227</v>
+        <v>0.1547117065947831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.491371017590679e-05</v>
+        <v>-1527.579002059905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.71792338514799</v>
+        <v>0.007884611015978114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.831429162807183</v>
+        <v>98.87869820437118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4382449776412773</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.435745716242074</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1114627516635753</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2075.877663375302</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1313317877444174</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-282.6950654623129</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6911728101899282</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4315.159711209925</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.007412926560743934</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-25.82155767572102</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2886406524122959</v>
+        <v>0.191450328215182</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2959.684226504554</v>
+        <v>3929.137640478995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04514913460546592</v>
+        <v>1.531890734269864e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.09343285436708</v>
+        <v>271.9977211897575</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9884193726816154</v>
+        <v>2.54950663505488e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274.0283698210277</v>
+        <v>-0.09047052956964666</v>
       </c>
       <c r="C4" t="n">
-        <v>1.129022229442876e-07</v>
+        <v>0.07854739620733031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05029684252972234</v>
+        <v>3462.101945223942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.515534330298831</v>
+        <v>0.04850579000062603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.58443270883046e-05</v>
+        <v>-1441.735228249304</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2969344388255581</v>
+        <v>0.01264237729315058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.677596637831499</v>
+        <v>70.59839308450771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3276787118397327</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.05323806586119</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04866357418783183</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2408.602265803585</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07227410938425692</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-469.7645268512638</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4667394815201227</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4773.433773411445</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002215623158907473</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-26.14364342289046</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2382332721271103</v>
+        <v>0.3446607973972311</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4339.038857275335</v>
+        <v>3691.250864507932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003121186026947599</v>
+        <v>6.700894960795709e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.13598036283099</v>
+        <v>255.587771630028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5440341830438375</v>
+        <v>7.642538696863118e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.4451065213992</v>
+        <v>-0.0912223653252993</v>
       </c>
       <c r="C4" t="n">
-        <v>1.03799609870492e-05</v>
+        <v>0.06415159791855543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07403160210855603</v>
+        <v>4617.957580699331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232071846999123</v>
+        <v>0.01394948040120647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.525311660015839e-05</v>
+        <v>-1076.157224471399</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8014868127445154</v>
+        <v>0.05965241038046596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.990965152154022</v>
+        <v>90.08085860944803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5406607174639841</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.23874599187533</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.002615110521822478</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>504.4017917911433</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.641872291224007</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>144.0769837762139</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8042517475723892</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4318.142971549755</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002207530190790443</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-57.00934554381496</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004500149609637575</v>
+        <v>0.2566617051997439</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3960.696113305597</v>
+        <v>3036.82990019664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01148304099607119</v>
+        <v>4.381481843092348e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.13205515167637</v>
+        <v>322.6900149075342</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1735669058127948</v>
+        <v>8.989899737529032e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9371855062073</v>
+        <v>-0.0324059908908971</v>
       </c>
       <c r="C4" t="n">
-        <v>2.843611433749862e-06</v>
+        <v>0.4904292000541431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03515120471153843</v>
+        <v>4339.892640729646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5990237320079405</v>
+        <v>0.005961563794538311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.08925577961476e-05</v>
+        <v>-946.1084435127376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6327571026777786</v>
+        <v>0.05542634482914824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.992484535457088</v>
+        <v>73.67260017611557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4818293682493143</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.040132472512031</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1560087799071337</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1631.897524044719</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.184116024875712</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-305.9375874111172</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6424547561363279</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2999.025757596592</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05546298310599719</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-39.71282386996759</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08978578297578464</v>
+        <v>0.2731972414661074</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3873.215777120752</v>
+        <v>3136.009969906233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002802626826345203</v>
+        <v>5.210380950381284e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.5316704780887</v>
+        <v>298.4028031143881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.427414040937218</v>
+        <v>7.175807920601507e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.5118237205053</v>
+        <v>-0.08288640719932699</v>
       </c>
       <c r="C4" t="n">
-        <v>3.554773659032947e-05</v>
+        <v>0.09289683464193023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06780920167597282</v>
+        <v>5555.926600328206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3579291783656579</v>
+        <v>0.004568758271400365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.449597089044378e-05</v>
+        <v>-638.8378724927306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.727294008181993</v>
+        <v>0.3011512613728025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.34104137606921</v>
+        <v>77.5908914150298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4274341012708096</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.97784617176789</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01527680451403212</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1.868147376543675</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9988583141822206</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-285.099075050417</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6167561600110325</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5555.554495831332</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001381888403880943</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-38.32678389258706</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02620146515105753</v>
+        <v>0.3427103553120817</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4363.626482227546</v>
+        <v>3854.95293982574</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004411647354426476</v>
+        <v>3.897413288181513e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.160429217554</v>
+        <v>239.3104519091922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05344327745411658</v>
+        <v>1.076410630371527e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264.8020895818394</v>
+        <v>-0.09627885109008877</v>
       </c>
       <c r="C4" t="n">
-        <v>2.687089646289494e-08</v>
+        <v>0.06907990085924239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02174494118291488</v>
+        <v>3601.870836755325</v>
       </c>
       <c r="C5" t="n">
-        <v>0.742302857186957</v>
+        <v>0.06232404738533556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.959045033915425e-05</v>
+        <v>-1395.001100054894</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5527482420963072</v>
+        <v>0.01218258146997553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.74622431276984</v>
+        <v>137.2288407915008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7510512005749528</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.141978850252027</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.165677638002933</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>463.2720114383283</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.667280538235647</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-892.5268426454734</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2185695792931509</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2577.2806620564</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07672690449819479</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-47.57491381295302</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.006808355562876976</v>
+        <v>0.06274796185764764</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4008.284205311772</v>
+        <v>3635.330231358443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006471816456405482</v>
+        <v>4.626032194951946e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36252153741597</v>
+        <v>261.5974970126234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3242073932135716</v>
+        <v>7.147352442374825e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.6559073170474</v>
+        <v>-0.08938434822030773</v>
       </c>
       <c r="C4" t="n">
-        <v>1.02845902573449e-05</v>
+        <v>0.09001827728736889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04207210134483651</v>
+        <v>4548.840358137077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5539433391059105</v>
+        <v>0.01256037556342245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.14953673340355e-05</v>
+        <v>-1289.627321228937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5547754678505592</v>
+        <v>0.02938320306842818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.406922503822559</v>
+        <v>103.4672843024924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6751455093520224</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.688051750556099</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08802187103052646</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>918.5686642293731</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4568358247733486</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-422.4836711250755</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5316973111148715</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4158.916282453321</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.014195565218787</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-45.50335404046955</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0135096605524337</v>
+        <v>0.1720333473493643</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3683.58731409664</v>
+        <v>3723.362928176081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01015255931579253</v>
+        <v>4.593874111489976e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.31464983195539</v>
+        <v>249.0949135934276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1740671561104446</v>
+        <v>9.148661336837837e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.9127041342088</v>
+        <v>-0.112055581196723</v>
       </c>
       <c r="C4" t="n">
-        <v>2.91815506731808e-06</v>
+        <v>0.02498502640539239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03548259381102906</v>
+        <v>5081.085466289633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6379597362032472</v>
+        <v>0.003668791915605632</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.762685632292494e-05</v>
+        <v>-1114.426313355771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2738975583290469</v>
+        <v>0.05304752727946088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.34445627821929</v>
+        <v>85.63697767585242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1718912732383924</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.308930775509014</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0939332387004603</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2394.182724958067</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06654274265496897</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-338.3196349292321</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6143747236590819</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5897.229966493736</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003014038716794922</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-41.78360923734321</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02742140213964281</v>
+        <v>0.305795367182949</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3860.941901635839</v>
+        <v>3949.358575856084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008304150985757347</v>
+        <v>1.931977463316924e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.0038782347606</v>
+        <v>254.7780265557579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1185741698102844</v>
+        <v>1.986913614544174e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.5839608432336</v>
+        <v>-0.09655389063831579</v>
       </c>
       <c r="C4" t="n">
-        <v>5.913778767268772e-08</v>
+        <v>0.09569256370268633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0246400278400038</v>
+        <v>2541.378364694822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7097396670668565</v>
+        <v>0.1580103910714051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.993506295553196e-05</v>
+        <v>-1258.238473109758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5911217557228678</v>
+        <v>0.03641030120904422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.101722138056953</v>
+        <v>123.9686456827487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7436697148133067</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.957653766872994</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09988325690743038</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1391.719124667496</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2851844525310666</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-475.2361657181336</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4882504748844401</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3878.072228028384</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01041934661837927</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-51.40389955206045</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03393965876546035</v>
+        <v>0.09694679734315115</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4255.691766426722</v>
+        <v>3668.400331662273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001488445134955217</v>
+        <v>2.922081445451215e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.4705558455878</v>
+        <v>271.0553655705364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1005311092816345</v>
+        <v>1.563241443699767e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.5116910404014</v>
+        <v>-0.07907045094404891</v>
       </c>
       <c r="C4" t="n">
-        <v>8.872633516226392e-06</v>
+        <v>0.142157030688669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01057527831892423</v>
+        <v>4322.056881200707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8711373324545295</v>
+        <v>0.01205345442929938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.89589810428993e-05</v>
+        <v>-1070.037732320183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6362817039362716</v>
+        <v>0.0640087462630666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.96967905724241</v>
+        <v>45.83007927494438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2353964171554859</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.952749599961333</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0474979309957148</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1034.527746394434</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3417403977581692</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-256.5137508713283</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6820841925676765</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2041.428248599049</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1614097989499881</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-42.50316233490037</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01270390057379209</v>
+        <v>0.5605495945017502</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4506.829338744793</v>
+        <v>2293.381953909993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007796994828361857</v>
+        <v>2.852570911239115e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.3315736568852</v>
+        <v>300.3093026387662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1358433111686871</v>
+        <v>2.754201141297639e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.8216219036531</v>
+        <v>-0.05203627718413137</v>
       </c>
       <c r="C4" t="n">
-        <v>8.18231488284817e-06</v>
+        <v>0.2096474736579968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.040221286190882</v>
+        <v>10321.50880719383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6013556779215239</v>
+        <v>2.891491216735543e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.05500587527372e-05</v>
+        <v>-752.1412527506432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6060655692632662</v>
+        <v>0.1408860610411912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.790322090193548</v>
+        <v>50.62501233310007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5567676463213103</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.142320553665201</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1336007819580184</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>419.5496858143679</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7510767588293747</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-643.0127969853054</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3287711245190348</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3866.992721062326</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0175022075132504</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-44.31121767135943</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01445605755633595</v>
+        <v>0.4524815944962587</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3340.935033449706</v>
+        <v>3460.121874668011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01525380807441507</v>
+        <v>2.095453334672743e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.8354755456586</v>
+        <v>290.3755247474659</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5242458645858639</v>
+        <v>5.186352967971671e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240.7700082044966</v>
+        <v>-0.07177773690044406</v>
       </c>
       <c r="C4" t="n">
-        <v>2.545450595290028e-06</v>
+        <v>0.1356080114298731</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04311033144898502</v>
+        <v>3461.221865585871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5452734233539323</v>
+        <v>0.04975341633470601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.918431912585058e-05</v>
+        <v>-1418.254044571088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4646959846459779</v>
+        <v>0.009599661506539233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.425017623309163</v>
+        <v>170.5253558817426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5414889318664272</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.55736111827322</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.006045738210846037</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1671.133064880357</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1500203114534148</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-84.58712540587612</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8912687756168582</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5118.374418136878</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0009584389670009522</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-41.96953941962813</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01523687689905671</v>
+        <v>0.0316174755587347</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5611.377435859433</v>
+        <v>2480.956855909976</v>
       </c>
       <c r="C2" t="n">
-        <v>4.55724704378455e-05</v>
+        <v>6.518213749636537e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.3620175725943</v>
+        <v>320.606970221252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0449679796200002</v>
+        <v>4.421971823615094e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.3661569380521</v>
+        <v>-0.04437668698225801</v>
       </c>
       <c r="C4" t="n">
-        <v>1.276436870673921e-06</v>
+        <v>0.3509795906593233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009020301132395103</v>
+        <v>7511.301906332565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8917340182634632</v>
+        <v>6.913190607754609e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.019399200857755e-05</v>
+        <v>-877.7084133175854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2268081995432488</v>
+        <v>0.09337339485929846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.32541257329218</v>
+        <v>109.8198151787948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223502128807422</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.3132680663043</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3203451383924645</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1244.621469630533</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2700423902388746</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1219.165528799693</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05493810352552552</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3142.666131039688</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07630742012698601</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-62.13791572314778</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0006646010841500952</v>
+        <v>0.1450810117332908</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4280.978893092229</v>
+        <v>3672.225497779732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00840823762248819</v>
+        <v>1.609666593561659e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.13166473078167</v>
+        <v>255.1249075356206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2264538137276818</v>
+        <v>8.075587218135682e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.6192413099201</v>
+        <v>-0.09803255642355249</v>
       </c>
       <c r="C4" t="n">
-        <v>6.545110774159928e-06</v>
+        <v>0.04742767118361008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01181407691173741</v>
+        <v>4524.466045307587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8714031058900341</v>
+        <v>0.008252049109007762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.351799036620191e-05</v>
+        <v>-1073.704605267247</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4503125747024423</v>
+        <v>0.05664068052002245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.591986120687494</v>
+        <v>95.64924673367196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4473173192222136</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.531999140908741</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3338825892110302</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>865.5488092142069</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4980237854310913</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-669.6551337039746</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3356285659267587</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5738.081730540269</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002894755043925487</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-47.30145519394833</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01691103689670343</v>
+        <v>0.2043808780688357</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2811.212069345304</v>
+        <v>3827.49923732447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06173719765546788</v>
+        <v>3.649515981741662e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>197.0117851756751</v>
+        <v>244.2065160621578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01006187776431366</v>
+        <v>1.121012191864818e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300.7991761320596</v>
+        <v>-0.1055274277803277</v>
       </c>
       <c r="C4" t="n">
-        <v>2.558804495198559e-08</v>
+        <v>0.03601198709697388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.024265180584299</v>
+        <v>4394.335509314252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7182567508225528</v>
+        <v>0.01854520082319739</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.730814297126225e-05</v>
+        <v>-1156.518048334896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6773942111134593</v>
+        <v>0.04708702975714689</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2864310311007561</v>
+        <v>98.48132231637618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9759094461491218</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.095834514284157</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.109468845352025</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1760.110338431342</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1475230956349664</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-515.5093777176337</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4203933764032918</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4870.487378254937</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01813984811403446</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-45.36079024763391</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0174389596371072</v>
+        <v>0.2272345976147995</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3529.330855408208</v>
+        <v>4101.235167956036</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01620975861635626</v>
+        <v>1.053639202382964e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.3519894994238</v>
+        <v>247.8355259614297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1446299450313037</v>
+        <v>1.548065735213614e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.1434817058854</v>
+        <v>-0.08256532383711393</v>
       </c>
       <c r="C4" t="n">
-        <v>4.753548559042947e-07</v>
+        <v>0.07015641201133113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04781921856981705</v>
+        <v>1362.739663328404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5047266686241043</v>
+        <v>0.4299641122189922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.353117134031032e-05</v>
+        <v>-1628.805111499049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7344157418000099</v>
+        <v>0.003767605417678286</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.320635694439439</v>
+        <v>189.9499708157956</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6686170573429544</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.00840908713151</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04264540869947574</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1628.740109912127</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2012886292092774</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-306.8624432884324</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6347219764664733</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3427.898233775773</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.020731114168803</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-39.01012014122703</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0765549695217811</v>
+        <v>0.00878116950735423</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4090.326693586465</v>
+        <v>3506.035427778814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002298757061546356</v>
+        <v>3.665010869314382e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.50578051179301</v>
+        <v>291.6316643086005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2165753899372265</v>
+        <v>6.30656030595551e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233.2947012827958</v>
+        <v>-0.09093643440707755</v>
       </c>
       <c r="C4" t="n">
-        <v>6.90531920321772e-06</v>
+        <v>0.1025479941816727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007437865837240591</v>
+        <v>4839.151848491817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9198426921879311</v>
+        <v>0.006884667196232098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.926929685267734e-05</v>
+        <v>-1041.187060237762</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3724187707284606</v>
+        <v>0.07870763381438102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.224611112857321</v>
+        <v>42.61376518694027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.52964358997377</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.976641654996717</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1002037970476646</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1380.832732166136</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3200773105643201</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-683.6734830281039</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3184159578089781</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4237.420243199867</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.006984255580958674</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-43.50965045490813</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01849129977528518</v>
+        <v>0.6050814751744249</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4150.279022492564</v>
+        <v>3386.563781200689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001532852862929017</v>
+        <v>5.402712169624795e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.72271525562597</v>
+        <v>282.0249666242647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7697086481100555</v>
+        <v>7.392292800479986e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.1847746752278</v>
+        <v>-0.06904549460980779</v>
       </c>
       <c r="C4" t="n">
-        <v>2.449166348379968e-06</v>
+        <v>0.2366971635914559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007311974554010281</v>
+        <v>4599.277826649079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.918000035025895</v>
+        <v>0.01203610116426009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.884456342012199e-05</v>
+        <v>-1054.323641093094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3565288497296234</v>
+        <v>0.06591818477856906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.887996547537821</v>
+        <v>81.36242846599532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3122153262165456</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.849966563236585</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1290875162873739</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-561.8520613816572</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6415771895616521</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-638.8221301136582</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3284034265717261</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4812.404541222641</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001516276638007006</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-30.09767699894428</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08061061388822534</v>
+        <v>0.2737547183300432</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4649.501820310057</v>
+        <v>2591.681427019072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005812424058244181</v>
+        <v>1.151827349954718e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.83942775624112</v>
+        <v>289.805594932491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3089567641330708</v>
+        <v>3.338330323073756e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.1666724527864</v>
+        <v>-0.06861265251140922</v>
       </c>
       <c r="C4" t="n">
-        <v>8.949342623856001e-05</v>
+        <v>0.1022102257528608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03676785842647701</v>
+        <v>8240.370152431748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5705406703788858</v>
+        <v>1.929717538353795e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.091664348977815e-05</v>
+        <v>-655.2395101312065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6191969539005882</v>
+        <v>0.1884653553969781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.78473438231831</v>
+        <v>99.48470708130782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1412196570909398</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.52360229702146</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01382320763413369</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1331.949831772013</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1994070294581149</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>68.19704092981056</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9123211911258885</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3923.737258933468</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.007069623028202263</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-55.03582206434164</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001781800046213245</v>
+        <v>0.1450376171623508</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3813.539748939836</v>
+        <v>3514.44388556908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004601709849893233</v>
+        <v>4.26089749636846e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.7913274019027</v>
+        <v>250.2266494283627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.169220519398091</v>
+        <v>1.269373857332846e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.0116230921419</v>
+        <v>-0.1257461430326567</v>
       </c>
       <c r="C4" t="n">
-        <v>7.630540459480285e-07</v>
+        <v>0.02453813554912789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0009270047087481803</v>
+        <v>6031.927183978056</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9894389204254235</v>
+        <v>0.0002988998920788635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.255267262947196e-05</v>
+        <v>-967.8868657488947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4232300750786362</v>
+        <v>0.08422362055813416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.55888735734293</v>
+        <v>103.1162381579881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2435307941076653</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.345988804475091</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07387479892381041</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1739.933167015313</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1399365804425358</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-245.2345372479322</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7246903680293113</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5010.089948146002</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001207668990239343</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-42.49923331236745</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01593008176541703</v>
+        <v>0.1739697160441583</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4130.83116987492</v>
+        <v>2763.617601519411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00253781021903414</v>
+        <v>1.288216029883974e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.29840602781911</v>
+        <v>312.8064469688276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.446958849539456</v>
+        <v>1.247714651923822e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.3950183148718</v>
+        <v>-0.04794029014195197</v>
       </c>
       <c r="C4" t="n">
-        <v>2.353055989511009e-05</v>
+        <v>0.2784181437135995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02078025511572087</v>
+        <v>5975.443081552931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7801139949025707</v>
+        <v>0.0013520004131268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.026997298937493e-05</v>
+        <v>-731.1562942635903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6281258518256156</v>
+        <v>0.1708047042532336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.043539968317432</v>
+        <v>84.25593769895306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.488783754982662</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.805329316756868</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04893370839989919</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>248.4213990719236</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8564144287563564</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-560.2573217548579</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3881943676207196</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4820.394210410053</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003042070935043017</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-42.05791190881341</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02263965643253375</v>
+        <v>0.2279300492535808</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5127.525239123626</v>
+        <v>3652.976354750292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001689790699259832</v>
+        <v>2.146156421399603e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.86245286407694</v>
+        <v>267.5702834101953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2976845213012062</v>
+        <v>5.047114647813992e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.3821469803245</v>
+        <v>-0.07945628635918982</v>
       </c>
       <c r="C4" t="n">
-        <v>3.224876075907759e-05</v>
+        <v>0.126039308852167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02975664556933055</v>
+        <v>4384.283245653689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6253255913388486</v>
+        <v>0.0151667068393592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.392665159337492e-05</v>
+        <v>-1179.436615451214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3045687976815813</v>
+        <v>0.05177519167212437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.78264889180217</v>
+        <v>67.11825467828029</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08506052955942353</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.363351398305539</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03057154998951552</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1590.242323697942</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1603997845061212</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-172.3180466946965</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.773540083067214</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3448.172596802186</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03369520274561922</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-53.12665898867681</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.004033412546533686</v>
+        <v>0.3853965708743629</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3456.299354439137</v>
+        <v>3783.549546466775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03170932600271508</v>
+        <v>1.536938543892494e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.416663688452</v>
+        <v>293.8721747397544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07727998863738085</v>
+        <v>1.502467252648458e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.6946792212249</v>
+        <v>-0.06557506113914834</v>
       </c>
       <c r="C4" t="n">
-        <v>2.975917381679807e-08</v>
+        <v>0.1925522242596238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0391807765172125</v>
+        <v>1285.458467122755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5678938017762568</v>
+        <v>0.4411243458203198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.70721393097073e-05</v>
+        <v>-1447.457360061771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.801498027714957</v>
+        <v>0.006738201794134726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.148604828012344</v>
+        <v>158.7802526037061</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8345584750742059</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.987400733489704</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08141501264923023</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>856.9706289785745</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4941757361062898</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-819.445239638398</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461040441089721</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3832.023990372883</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01987184598597019</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-51.45134496701146</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02672806733124304</v>
+        <v>0.03971332154332306</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4268.485303892827</v>
+        <v>3528.268445964614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006419683472849642</v>
+        <v>4.501225101991676e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.74861074168444</v>
+        <v>269.7198786268609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1922954615359056</v>
+        <v>8.366024215783984e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.4926271427966</v>
+        <v>-0.09251865882285003</v>
       </c>
       <c r="C4" t="n">
-        <v>3.511293779164427e-05</v>
+        <v>0.06733781657290173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07883873489972272</v>
+        <v>3448.72164469915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2264009780416543</v>
+        <v>0.03474450922333446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.447544441669932e-06</v>
+        <v>-1080.831794390816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8966087957193134</v>
+        <v>0.03844126699728319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.768981068114243</v>
+        <v>146.7219838424888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3347532088661672</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.1807098769894</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.008167880260537844</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>957.9235361029573</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3990924818851372</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>244.9599264211063</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7053767052755232</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4472.174177887297</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001656909991894096</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-55.98930206874149</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001689245158112423</v>
+        <v>0.04778629669297649</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3648.268314199666</v>
+        <v>3552.173276378462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006478664745308308</v>
+        <v>8.350391425193078e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.1686112255477</v>
+        <v>252.5662178989795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06938231636221613</v>
+        <v>9.898851045675686e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.1923695127537</v>
+        <v>-0.09287740183011529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.02895007996542e-06</v>
+        <v>0.06194628076287329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05678893989034792</v>
+        <v>5617.288783780303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4671259823278047</v>
+        <v>0.005404957279104262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.569861290806658e-05</v>
+        <v>-1079.075441895847</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7156575251794658</v>
+        <v>0.0623112114254111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.066433062678133</v>
+        <v>71.41637823524826</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9081273779396558</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.506835215469932</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2560670780195829</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>953.3127929882894</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4301418137074514</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-213.5492410739089</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7353187208305896</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3152.259657906368</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04414039993076189</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-40.46827799333878</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02684602707462379</v>
+        <v>0.3593952175900366</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4371.290764260646</v>
+        <v>3825.104388093675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003378287898634358</v>
+        <v>7.71125370691235e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.75324268647893</v>
+        <v>264.4278595197007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2464860785098449</v>
+        <v>1.178623637309596e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.2211373210715</v>
+        <v>-0.09601890444659063</v>
       </c>
       <c r="C4" t="n">
-        <v>5.979832205975129e-05</v>
+        <v>0.05427756956761746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04923831299350695</v>
+        <v>4320.36571021786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4248168804353321</v>
+        <v>0.01953088921005496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.046249693481793e-05</v>
+        <v>-1179.286723882336</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7290917947217308</v>
+        <v>0.04666429521941805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.37312750769122</v>
+        <v>62.23105530602285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2175969866457593</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.12713455456493</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0207620125421824</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>961.0836936684991</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3789413123326926</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-368.2667707657906</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.528609808454354</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3898.498081726589</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.006482927891902054</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-44.60514836136391</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.005147565494667253</v>
+        <v>0.4523783770138512</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3956.896695061489</v>
+        <v>3718.879553358001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007469995924908946</v>
+        <v>2.052083157587185e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.01869543146077</v>
+        <v>253.6955387875439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3565342960522013</v>
+        <v>2.414727212246657e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.1438710281937</v>
+        <v>-0.08254909340422323</v>
       </c>
       <c r="C4" t="n">
-        <v>2.270460338756374e-06</v>
+        <v>0.1446205924478128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03514823134584175</v>
+        <v>3646.645990529292</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6330753175240684</v>
+        <v>0.03880028476157864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.104156712688982e-05</v>
+        <v>-1445.392808764675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6725668558182761</v>
+        <v>0.006287686381629303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.847597643256371</v>
+        <v>128.7054526500833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.583239405116724</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.30848895927245</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06107531712736003</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>688.0382334796118</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.589753398164732</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-399.0969073242705</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5654906033674489</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3984.152600663083</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04590014964749963</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-44.62169223106919</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0175369598199647</v>
+        <v>0.05791421608873947</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3306.465580615392</v>
+        <v>2577.045521731161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01004729604363718</v>
+        <v>1.586806522041639e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.4407519515189</v>
+        <v>316.0282503134759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01666476952070275</v>
+        <v>7.113582407156536e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240.0137536098111</v>
+        <v>-0.05994723328705839</v>
       </c>
       <c r="C4" t="n">
-        <v>7.490212769682981e-07</v>
+        <v>0.1848328647758605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06833997317992663</v>
+        <v>6205.396793236616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3174668141320441</v>
+        <v>0.0004759152804857685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.333044696213227e-05</v>
+        <v>-699.0193381644738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.844094916692717</v>
+        <v>0.1841207969106763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.797851509893771</v>
+        <v>188.1544599480285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.848827939056036</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.150981775221275</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348434512487367</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1631.230709837275</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1536354080761684</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-21.06804748622631</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9736900824252064</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4136.475353281325</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.005693195745182384</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-41.3411433774429</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01827300786168716</v>
+        <v>0.01494651429243565</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4159.358787397666</v>
+        <v>3372.41448532201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01033919687217488</v>
+        <v>2.704783442767231e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.3944152624154</v>
+        <v>273.8240962532844</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07764561518172307</v>
+        <v>1.857268599233162e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.0129452654868</v>
+        <v>-0.09231834118115892</v>
       </c>
       <c r="C4" t="n">
-        <v>3.614417712209936e-07</v>
+        <v>0.05900711222691211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004058751486335943</v>
+        <v>5426.709862923793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9587505898815583</v>
+        <v>0.001974444273757799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.612761873852182e-05</v>
+        <v>-847.2956023526681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3732370029144573</v>
+        <v>0.1252461931461622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.195013617520141</v>
+        <v>58.31818477637704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7524420691515604</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.043228211734291</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1153244590242383</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1318.857211219221</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3250735526145869</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-794.8867472910156</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2611163204992336</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3567.073077764779</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02271284043125812</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-55.95348245972743</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02418310905920402</v>
+        <v>0.4078094583960655</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4585.250420706165</v>
+        <v>3625.984452822742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001153346276779621</v>
+        <v>2.996262938920109e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.11327461332655</v>
+        <v>272.3370793138853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4656737765172521</v>
+        <v>5.054443084572788e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236.0421723904318</v>
+        <v>-0.06769488317365985</v>
       </c>
       <c r="C4" t="n">
-        <v>2.150353415773267e-06</v>
+        <v>0.2059588308106516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0008805695231556415</v>
+        <v>4003.389836075834</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9897566368814552</v>
+        <v>0.02679829489837872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.964676381044445e-05</v>
+        <v>-1283.374730188715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.32958233448106</v>
+        <v>0.03832034886484728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.50197742985753</v>
+        <v>82.01542512456317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2630581276447864</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.102441418463279</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1378620384033549</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>732.0303058843365</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.561276289072157</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-502.3717758551633</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4374679810575453</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4432.448977183776</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.005598155103377027</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-45.19947945642086</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01442917973247223</v>
+        <v>0.3309692766399143</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4469.992470091202</v>
+        <v>3854.760109719517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00358421527769589</v>
+        <v>6.271656776657519e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.9458615460539</v>
+        <v>242.6223602853416</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1498464482050462</v>
+        <v>9.503252440425108e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236.8873825287852</v>
+        <v>-0.1005333796506867</v>
       </c>
       <c r="C4" t="n">
-        <v>5.501114266169615e-06</v>
+        <v>0.07905681001434371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02488205768392904</v>
+        <v>4539.968542173387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7343778981334042</v>
+        <v>0.01908361517854727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.161774413735775e-05</v>
+        <v>-1306.133409429324</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4810334206326533</v>
+        <v>0.02698905553316896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.593783393186442</v>
+        <v>92.590244915997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4128108333221002</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.615610267299957</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.27551200212604</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1183.586649841934</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3499673835986239</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-254.6314000681059</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7064523901215349</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3965.112559728379</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01812460282248859</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-49.45567529237177</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01462162442511672</v>
+        <v>0.2135738045798657</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2806.984603952316</v>
+        <v>3426.048371238675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05054058469947183</v>
+        <v>5.896493833004861e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.59102307320643</v>
+        <v>305.3707985245107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5187423358478989</v>
+        <v>4.100152891037598e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.2208183770788</v>
+        <v>-0.05986486753917714</v>
       </c>
       <c r="C4" t="n">
-        <v>1.723469576296509e-07</v>
+        <v>0.2259934593679663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01965599099023019</v>
+        <v>3839.016010043541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7610960342434303</v>
+        <v>0.02363536462471019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.194067858985162e-05</v>
+        <v>-1432.83681918416</v>
       </c>
       <c r="C6" t="n">
-        <v>0.627224267030652</v>
+        <v>0.009596085421268002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.676842243837577</v>
+        <v>129.6598115961817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7706420450848063</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.269336378771285</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1075222909490989</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>295.7549508466204</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8177432800874146</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-694.7634912249976</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2458145894820916</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6151.51047495112</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.411865547287949e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-22.62314311329698</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2868312476921547</v>
+        <v>0.08837134113251766</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3670.446899872784</v>
+        <v>2900.494797911154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01100529491844395</v>
+        <v>6.821035235543295e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.3474983497293</v>
+        <v>314.2490169735128</v>
       </c>
       <c r="C3" t="n">
-        <v>0.123778051955599</v>
+        <v>1.617930145448707e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.365080695622</v>
+        <v>-0.04458344539098358</v>
       </c>
       <c r="C4" t="n">
-        <v>1.822376290004658e-06</v>
+        <v>0.3270582798509616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03731340456746051</v>
+        <v>4756.991467021352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6364857360675719</v>
+        <v>0.007050548939157856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.672186444653351e-05</v>
+        <v>-646.9037150555043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5972247457965479</v>
+        <v>0.2541008722502546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.010129343920845</v>
+        <v>66.11551926724565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4871265824047546</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.107982561233</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04254403990593748</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2105.937389153995</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.102004922636443</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>124.4755864982724</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8678294981950612</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4489.304099417739</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01528346037225713</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-50.06266910226526</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.009091466336079389</v>
+        <v>0.3790759887602685</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4685.446126553108</v>
+        <v>3758.305417539496</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002610016244088144</v>
+        <v>9.819466428181498e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.66553375058467</v>
+        <v>220.4121253801545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2993477479708169</v>
+        <v>2.943172350104464e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.8507241138371</v>
+        <v>-0.1221051032577047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004317763508026939</v>
+        <v>0.01753847348490003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06275580546220277</v>
+        <v>4322.349471658958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3428082797002169</v>
+        <v>0.0131389362769629</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.734690209350239e-05</v>
+        <v>-848.7138525440438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6171601694667064</v>
+        <v>0.1235033845450136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.273841391118449</v>
+        <v>138.8708959774361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2999175304452181</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.188283257924</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.008589014811632642</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>826.8020401813778</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4871194616714136</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-214.8842758214323</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7377226677166953</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4061.353532261905</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.007141354043712078</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-52.48700820687711</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001646173803691737</v>
+        <v>0.06412321201489735</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4044.266485125928</v>
+        <v>3917.025287474595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003945491377951505</v>
+        <v>4.967807732644427e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.12467544260824</v>
+        <v>248.9400244875103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2485063335135792</v>
+        <v>2.207654094899842e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.7945441058627</v>
+        <v>-0.0805783685600359</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456385922220915e-05</v>
+        <v>0.1134929385477288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04659528168298666</v>
+        <v>5165.487508667656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4698419945427844</v>
+        <v>0.003477457807829128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.794806994102291e-05</v>
+        <v>-1593.596274832445</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6681814088933677</v>
+        <v>0.007759251098284703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.7655439850465</v>
+        <v>64.6691067603077</v>
       </c>
       <c r="C7" t="n">
-        <v>0.548990376218687</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.455802359769047</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2169162894849645</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.520133730036378</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9983349755119679</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-555.0295660250254</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4100295874452228</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5064.179404910197</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001874044536567337</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-35.66407915341807</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04340636322469112</v>
+        <v>0.3948094364678485</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3955.06790972003</v>
+        <v>3343.832167076699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001639842716545511</v>
+        <v>1.021942625199452e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.2115399038745</v>
+        <v>292.9837908061089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02822760542671394</v>
+        <v>8.464149719557756e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.0237625611769</v>
+        <v>-0.08115102800624491</v>
       </c>
       <c r="C4" t="n">
-        <v>1.66258292067533e-08</v>
+        <v>0.1016795359354348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01970619133235374</v>
+        <v>5916.972416969867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.766362508796407</v>
+        <v>0.001284034732544181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.608781602046842e-05</v>
+        <v>-1086.77600063372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6845631269594185</v>
+        <v>0.0505402541892396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.432094420367193</v>
+        <v>42.78748552620016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7863546187256274</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.356006234686681</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09823227000953766</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>570.9408107593042</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5967525230969427</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1009.241592084609</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1042327073622168</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2264.93514284325</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1166790843258538</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-44.02358750247052</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.009105269994914737</v>
+        <v>0.5800395363706685</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4097.676962158324</v>
+        <v>2942.057154553675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004532895017755931</v>
+        <v>7.925358916182855e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.5569426549994</v>
+        <v>291.2760902171365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08137381588264278</v>
+        <v>1.368821764506601e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.1314090521507</v>
+        <v>-0.05608092161629732</v>
       </c>
       <c r="C4" t="n">
-        <v>8.28691905632698e-07</v>
+        <v>0.2923638901332363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04857481116760384</v>
+        <v>5636.480734614817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5113199294513047</v>
+        <v>0.000845338553330611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.708848770342485e-05</v>
+        <v>-593.2850099841556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1785752948957047</v>
+        <v>0.2674307068018362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.72069816323891</v>
+        <v>76.53293122947309</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2567624400479724</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.418334049497588</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1319643436409384</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2220.452022421809</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06503977730743322</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-776.7046327737989</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2256802735055506</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3800.730868570157</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01400950100114545</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-44.59522762704478</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01543311666966656</v>
+        <v>0.287013226769041</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4345.251690593472</v>
+        <v>3658.278389666159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003495528912785767</v>
+        <v>1.056114600386483e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.0338544015769</v>
+        <v>241.9033887617982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1225944718363916</v>
+        <v>4.962600531625557e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.9691722142298</v>
+        <v>-0.1109397512088313</v>
       </c>
       <c r="C4" t="n">
-        <v>2.40526663300965e-05</v>
+        <v>0.02985327765479629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0773091223970257</v>
+        <v>4867.153194032963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.348194062018215</v>
+        <v>0.007093549444234976</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.400482886201461e-05</v>
+        <v>-1081.486245190021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7391340003357549</v>
+        <v>0.07828382178692585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.861349022573322</v>
+        <v>115.1258909690858</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7774731695057425</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.176533347275551</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06413650594547587</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>688.0577404498545</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6023440661693659</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-285.810837649007</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6819774112608056</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3804.195574696372</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03937827248333319</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-52.73710605451113</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.007205594606638435</v>
+        <v>0.1373009270511114</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3889.847545419806</v>
+        <v>4267.634786109119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002259807172154586</v>
+        <v>2.178176815305009e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0697593774954</v>
+        <v>241.8100639918681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08729237132445922</v>
+        <v>2.13578346288746e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>266.364330358246</v>
+        <v>-0.09746403625491654</v>
       </c>
       <c r="C4" t="n">
-        <v>2.084114806609686e-08</v>
+        <v>0.03209655571670606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03845450307586565</v>
+        <v>1983.486445493453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5414807492851113</v>
+        <v>0.2678382626795627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.276101032784621e-05</v>
+        <v>-1480.522027018847</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8370660380134525</v>
+        <v>0.006167421194723261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3824143881328474</v>
+        <v>121.187350913346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9649173443640119</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.635657814359005</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04497861154442186</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>594.6403411121819</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5988979094334153</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-549.4734143400838</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3630547072623008</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4028.910163692984</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.009416706896336143</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-54.11841815695347</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0019431362525636</v>
+        <v>0.1099951378324627</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2177.484820187318</v>
+        <v>3135.020881088554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1177207616032475</v>
+        <v>5.512886140459395e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.82851272058161</v>
+        <v>323.7889743296863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8744772751521108</v>
+        <v>2.863249031329519e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.5325113748282</v>
+        <v>-0.05583460277382936</v>
       </c>
       <c r="C4" t="n">
-        <v>1.4283337620656e-07</v>
+        <v>0.273767314948584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0344575347233792</v>
+        <v>4924.642952229147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5734128482272954</v>
+        <v>0.003098249999623694</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.478113789016693e-05</v>
+        <v>-1071.775565024373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6851063142701053</v>
+        <v>0.04425283783530885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.337896819572848</v>
+        <v>65.81213884896911</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3519916875016514</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.61165874517889</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01333645927153585</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1987.168220665862</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07580820247766837</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>429.1841973469679</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4762967741960538</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4475.363607629863</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.00194565055041792</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-20.37379206864115</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2974130477158731</v>
+        <v>0.3724963935943447</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Nantes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nantes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13662408" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13769370" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13881257" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ14004731" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ14129727" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14239970" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14342574" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ14453111" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ14572094" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ14682407" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ14818170" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ14964957" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ15114241" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ15247878" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ15363079" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ15483144" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ15587126" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ15714944" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ15826529" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ15930423" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ16063782" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ16209066" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ16334099" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ16459311" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ16570892" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ16681425" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ16804474" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ16939012" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ17155334" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ17266347" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ17376613" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ17486961" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ17597001" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ17712686" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ17857211" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ17997539" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ18130956" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ18246485" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ18356375" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ18466625" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ18576178" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ18686121" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ18813401" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ18926937" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ19033125" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ19158523" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ19269790" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ19380059" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ19505462" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ19615717" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ46591052" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ46675100" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ46774933" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ46872008" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ46981270" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ47075047" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ47189631" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ47304523" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ47413868" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ47538859" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ47660881" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ47776230" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ47933518" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ48049165" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ48155952" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ48299174" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ48425196" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ48547734" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ48680695" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ48854542" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ48983377" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ49103499" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ49265328" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ49387110" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ49502282" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ49752638" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ49878683" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ50008493" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ50131617" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ50274841" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ50463245" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ50587473" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ50722677" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ50893274" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ51059310" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ51227343" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ51356479" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ51492037" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ51617946" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ51747074" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ51873941" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ51999835" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ52133420" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ52259751" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ52374002" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ52512135" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ52623162" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ52760332" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ52879293" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ52999377" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Nantes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nantes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ46591052" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46675100" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ46774933" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46872008" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ46981270" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ47075047" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ47189631" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ47304523" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ47413868" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ47538859" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ47660881" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ47776230" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ47933518" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ48049165" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ48155952" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ48299174" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ48425196" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ48547734" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ48680695" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ48854542" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ48983377" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ49103499" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ49265328" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ49387110" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ49502282" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ49752638" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ49878683" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ50008493" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ50131617" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ50274841" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ50463245" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ50587473" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ50722677" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ50893274" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ51059310" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ51227343" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ51356479" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ51492037" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ51617946" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ51747074" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ51873941" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ51999835" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ52133420" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ52259751" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ52374002" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ52512135" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ52623162" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ52760332" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ52879293" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ52999377" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ52071599" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ52175248" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ52271249" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ52367758" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ52468276" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ52574425" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ52703249" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ52925760" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ53033251" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ53135759" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ53242274" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ53348104" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ53452615" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ53551129" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ53654156" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ53759667" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ53859181" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ53960695" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ54059209" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ54161723" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ54254227" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ54362270" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ54461781" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ54564295" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ54676728" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ54774242" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ54879753" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ54984270" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ55085787" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ55187302" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ55293816" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ55390846" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ55492359" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ55597871" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ55700382" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ55803416" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ55900933" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ55996449" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ56098960" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ56199474" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ56301986" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ56404490" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ56506002" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ56612510" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ56715713" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ56814242" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ56915752" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ57018261" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ57115400" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ57225911" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3381.975098965494</v>
+        <v>3074.060957804109</v>
       </c>
       <c r="C2" t="n">
-        <v>8.802332572955823e-08</v>
+        <v>0.03626647585280778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.5501264519847</v>
+        <v>51.0962391243574</v>
       </c>
       <c r="C3" t="n">
-        <v>1.573141430244153e-07</v>
+        <v>0.5336643190262031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09945106747047</v>
+        <v>250.8536144176025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04889112789482928</v>
+        <v>2.492903176602779e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4554.279956171103</v>
+        <v>-0.1474754847752485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01997526490820416</v>
+        <v>0.04910086884454273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-450.1013858665153</v>
+        <v>6.965248780883056e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4484792076833871</v>
+        <v>0.3838021666593026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.4811728059363</v>
+        <v>14.82537237329037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3031704389341099</v>
+        <v>0.004293572154557453</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>766.8425610317472</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5758311664874561</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1050.933845364769</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1655301964988447</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4536.434147768061</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01499776744878265</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-40.11570941085937</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09743588906824774</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3456.712222472996</v>
+        <v>3131.853140403534</v>
       </c>
       <c r="C2" t="n">
-        <v>5.92304013597755e-08</v>
+        <v>0.05364812973289547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.8920786292468</v>
+        <v>102.8572602260927</v>
       </c>
       <c r="C3" t="n">
-        <v>1.314959458540904e-07</v>
+        <v>0.2375242676489037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09026348545938036</v>
+        <v>265.3045845359247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.077079912241763</v>
+        <v>1.241023784315175e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5676.13009915087</v>
+        <v>-0.06920047555422811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004927263156258535</v>
+        <v>0.3640529232540691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1255.400656819214</v>
+        <v>-2.6739235528785e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03858614276533669</v>
+        <v>0.7497695553444825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.0342954942314</v>
+        <v>12.41273312425778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.176078534098342</v>
+        <v>0.03977581513843447</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1670.20044191134</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2477589297061697</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-366.4910549213415</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.638400269405798</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5234.990058416219</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01021275081026881</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-32.92215485980013</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2114226725457064</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3289.24806539058</v>
+        <v>3745.728673398093</v>
       </c>
       <c r="C2" t="n">
-        <v>3.417886087586183e-08</v>
+        <v>0.01428303112894915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>277.140879982074</v>
+        <v>32.73222418383742</v>
       </c>
       <c r="C3" t="n">
-        <v>1.875583344556836e-08</v>
+        <v>0.6904972815988946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0773608102094815</v>
+        <v>270.3060596883707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1627313714936062</v>
+        <v>2.444329769129476e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6155.485876709584</v>
+        <v>-0.09261746737209564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001310153106287899</v>
+        <v>0.2749815317390617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-844.1533817194158</v>
+        <v>5.08959436879041e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1557026014408774</v>
+        <v>0.9548766507207688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.64670961799226</v>
+        <v>10.29372020236567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6102371569573755</v>
+        <v>0.03913912609155237</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>916.1877524170732</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5206449584847805</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20.451566537752</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9780069240171998</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5918.913931728905</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.002419712401101828</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-42.65790432145798</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09037103891896169</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3233.782045060542</v>
+        <v>2394.768563231604</v>
       </c>
       <c r="C2" t="n">
-        <v>1.783655480680938e-06</v>
+        <v>0.128457051624677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.4485064413557</v>
+        <v>142.4923150205665</v>
       </c>
       <c r="C3" t="n">
-        <v>4.261035597778906e-07</v>
+        <v>0.1266865231452909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0872742421845345</v>
+        <v>284.9336911476154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09600330454591505</v>
+        <v>2.973149745947813e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5178.054128838223</v>
+        <v>-0.08224554698682068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005501147334021626</v>
+        <v>0.271946994480961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954.1937726315266</v>
+        <v>2.626852903658762e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1192280615861338</v>
+        <v>0.7360815319976319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.8958208260954</v>
+        <v>13.30586934143813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05462188971222087</v>
+        <v>0.02316944340192662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1379.389507106662</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3541496234641138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>129.6418223804427</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8694882410823617</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5172.013888653888</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005022283003025663</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-28.4360124432572</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2592387791886747</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3526.856502551863</v>
+        <v>4252.286200332453</v>
       </c>
       <c r="C2" t="n">
-        <v>1.453995107042215e-08</v>
+        <v>0.008134901233219116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.3847635965013</v>
+        <v>67.74432496885171</v>
       </c>
       <c r="C3" t="n">
-        <v>2.405265460587851e-08</v>
+        <v>0.4220432821523936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09219110666956412</v>
+        <v>291.605688268229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06489578397853232</v>
+        <v>8.37712564706791e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4996.380154872979</v>
+        <v>-0.07109200474436508</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006311613300043577</v>
+        <v>0.3463361069262282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1022.957697567891</v>
+        <v>-3.413122862635284e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07316924883264307</v>
+        <v>0.6961206887956893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.32034188393646</v>
+        <v>8.701625733719283</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3766706787690545</v>
+        <v>0.08688347958430959</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1422.050714437018</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3185874416610669</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-174.4596347424604</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8117868967799138</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4813.816115517513</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0089297934763848</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-51.60873299286324</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05641137108608665</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3477.781487216568</v>
+        <v>4805.687889391774</v>
       </c>
       <c r="C2" t="n">
-        <v>1.487909478638782e-10</v>
+        <v>0.0002760917216784164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299.2918220893164</v>
+        <v>127.0690177430486</v>
       </c>
       <c r="C3" t="n">
-        <v>7.557634790019765e-12</v>
+        <v>0.1033070061398843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04928410896779942</v>
+        <v>277.5407213170569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2714186067558905</v>
+        <v>7.92787817944584e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2779.860542882155</v>
+        <v>-0.08928974000453818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08527468718667811</v>
+        <v>0.1500594103346113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1353.072939412061</v>
+        <v>5.147065301833002e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004984084349511014</v>
+        <v>0.4570428504004468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117.5195950440531</v>
+        <v>5.556588467575938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06806530991383067</v>
+        <v>0.2875488763595392</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-930.8422433821088</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4617929561201837</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-845.5591931369891</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1978541675735387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2287.953751587791</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1825703038144662</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-42.4136399062445</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06048429972274114</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3877.065032520638</v>
+        <v>3268.711866158144</v>
       </c>
       <c r="C2" t="n">
-        <v>3.207976971599565e-09</v>
+        <v>0.05921647560553052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252.326496823718</v>
+        <v>63.91978899143206</v>
       </c>
       <c r="C3" t="n">
-        <v>1.246475372993761e-07</v>
+        <v>0.4639118197363099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1029394972869559</v>
+        <v>273.181718649987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03552992460868302</v>
+        <v>2.816204274071173e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4142.701729550965</v>
+        <v>-0.08977966855778141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01767791947003832</v>
+        <v>0.1945181206483218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1303.551657063151</v>
+        <v>5.137454259189646e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02129233670346652</v>
+        <v>0.9459667485750956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.06034097960558</v>
+        <v>10.12178358776453</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2124981923651166</v>
+        <v>0.06147241913220013</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1495.270525010974</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2896593330986751</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-448.7990741652491</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5584694096328024</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3917.780715902256</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02657474572254107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-23.78101844199324</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3769584685850021</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2780.494639379395</v>
+        <v>3658.762325800366</v>
       </c>
       <c r="C2" t="n">
-        <v>9.827868384769446e-07</v>
+        <v>0.005571898826455423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320.6131649504947</v>
+        <v>0.183945100556457</v>
       </c>
       <c r="C3" t="n">
-        <v>2.815795100541384e-11</v>
+        <v>0.9981185589567445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03798080837725648</v>
+        <v>278.7537759902638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4345519395236149</v>
+        <v>1.012751655690691e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5687.185899913999</v>
+        <v>-0.07990149124668547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009751287403626292</v>
+        <v>0.1887367237470566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-929.0471857423333</v>
+        <v>5.842563702422704e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07794761231522521</v>
+        <v>0.4017592136509536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.72638459908545</v>
+        <v>13.10065387436528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2611482380709774</v>
+        <v>0.00575294717870278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1567.352325491895</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2352541380584482</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-133.1041091148371</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8331261748208643</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5420.722968624781</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001096639165492267</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-41.25411089959354</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06116302338881808</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3400.322595022126</v>
+        <v>3081.628662881725</v>
       </c>
       <c r="C2" t="n">
-        <v>1.881165998731901e-08</v>
+        <v>0.0336483328003396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254.8835096282111</v>
+        <v>141.9107080705711</v>
       </c>
       <c r="C3" t="n">
-        <v>8.948864896740121e-08</v>
+        <v>0.1081742597951675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08938456864913838</v>
+        <v>297.1708908752371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06132971898736046</v>
+        <v>1.545739844348274e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4022.800375595315</v>
+        <v>-0.1017217998241274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01544973478104478</v>
+        <v>0.1531587755929481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832.2882110515575</v>
+        <v>4.713724259914807e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1369859862631596</v>
+        <v>0.5313092508824069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.2378491271074</v>
+        <v>9.463853492284233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05219748839968741</v>
+        <v>0.05737315497003919</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1637.556383047442</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2355855187093648</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>448.7654543288818</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5514097672673728</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3619.374631541219</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02848455911359976</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-37.86639149016072</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1103077564813668</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3331.31970033978</v>
+        <v>2671.678708603697</v>
       </c>
       <c r="C2" t="n">
-        <v>6.512388344551643e-08</v>
+        <v>0.09382471690648556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>282.8799398417914</v>
+        <v>42.09515022671337</v>
       </c>
       <c r="C3" t="n">
-        <v>1.210415387530036e-08</v>
+        <v>0.6223054020504295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09844637001427634</v>
+        <v>304.4261051196581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08072048013970605</v>
+        <v>1.341107175517079e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6550.446350835451</v>
+        <v>-0.05215309729224049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006685756329767603</v>
+        <v>0.539972315126964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1071.367071738094</v>
+        <v>-3.903394524663016e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06625143979603794</v>
+        <v>0.6155778329889365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.21159474300796</v>
+        <v>9.417109294063781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4049586295003806</v>
+        <v>0.06020595956080948</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1826.025871725486</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1913356454487979</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-436.7940155065771</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5729999049755069</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6729.658823325884</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0008501251343114127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-21.58484575724786</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3907637891256467</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4175.301018517197</v>
+        <v>4832.465183810444</v>
       </c>
       <c r="C2" t="n">
-        <v>2.115939845543797e-10</v>
+        <v>0.001964964813556217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>247.0971566208821</v>
+        <v>80.50517804486563</v>
       </c>
       <c r="C3" t="n">
-        <v>2.209050932556325e-07</v>
+        <v>0.327860277177033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09718988916621241</v>
+        <v>235.4103553397944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04727230870074556</v>
+        <v>5.003329530211996e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2534.585343082281</v>
+        <v>-0.06660927346841133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1547117065947831</v>
+        <v>0.3849458811433343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1527.579002059905</v>
+        <v>-5.931622239555695e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007884611015978114</v>
+        <v>0.5139604157424511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.87869820437118</v>
+        <v>11.05472172399752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191450328215182</v>
+        <v>0.02968562747371022</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1409.160025531116</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3068336791132913</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-788.2129717973194</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2828174717746653</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2238.967878672394</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1997167880102161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-47.82065655181883</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07501223487451168</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3929.137640478995</v>
+        <v>4391.124405179561</v>
       </c>
       <c r="C2" t="n">
-        <v>1.531890734269864e-10</v>
+        <v>0.003206361615563928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>271.9977211897575</v>
+        <v>29.01493458754379</v>
       </c>
       <c r="C3" t="n">
-        <v>2.54950663505488e-09</v>
+        <v>0.7282878298192996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09047052956964666</v>
+        <v>280.9499083727735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07854739620733031</v>
+        <v>1.59402001213761e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3462.101945223942</v>
+        <v>-0.0665968659935105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04850579000062603</v>
+        <v>0.3798984026677992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1441.735228249304</v>
+        <v>-3.130660048621749e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01264237729315058</v>
+        <v>0.6652393084203022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.59839308450771</v>
+        <v>8.780505967193026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3446607973972311</v>
+        <v>0.07014246550365989</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1035.377749288883</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4429614720276542</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-897.0464324006007</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2353668333818936</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3369.15487866698</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05872841867750583</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-38.27257500174886</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1058020491624465</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3691.250864507932</v>
+        <v>3759.133193444233</v>
       </c>
       <c r="C2" t="n">
-        <v>6.700894960795709e-09</v>
+        <v>0.0329199247054879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255.587771630028</v>
+        <v>113.999428261857</v>
       </c>
       <c r="C3" t="n">
-        <v>7.642538696863118e-08</v>
+        <v>0.1953406952983505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0912223653252993</v>
+        <v>271.5498296239414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06415159791855543</v>
+        <v>1.468137328424414e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4617.957580699331</v>
+        <v>-0.09969171708563662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01394948040120647</v>
+        <v>0.1722778697664377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1076.157224471399</v>
+        <v>3.040211683793647e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05965241038046596</v>
+        <v>0.724550443421402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.08085860944803</v>
+        <v>7.143216141002553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2566617051997439</v>
+        <v>0.3515145504232112</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>688.2540530758092</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6421659989941912</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-372.9064148028158</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6191530448284106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4447.500449459202</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02265607097815545</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-31.56288153628694</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2670060550997833</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3036.82990019664</v>
+        <v>4058.721556423989</v>
       </c>
       <c r="C2" t="n">
-        <v>4.381481843092348e-08</v>
+        <v>0.004978605676318129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>322.6900149075342</v>
+        <v>96.27263970511569</v>
       </c>
       <c r="C3" t="n">
-        <v>8.989899737529032e-12</v>
+        <v>0.2111131406447546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0324059908908971</v>
+        <v>304.4558542643564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4904292000541431</v>
+        <v>1.221591281843705e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4339.892640729646</v>
+        <v>-0.1016299091365906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005961563794538311</v>
+        <v>0.1115479400924389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-946.1084435127376</v>
+        <v>0.0001189268993314034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05542634482914824</v>
+        <v>0.1480902489222146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.67260017611557</v>
+        <v>5.874451962262643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2731972414661074</v>
+        <v>0.2760949546917935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1230.337053212028</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3940504649415925</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-226.6119929410979</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7245624452379896</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3737.870555052297</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0222984293696504</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-39.60330037234093</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0962810523491219</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3136.009969906233</v>
+        <v>1572.101313530689</v>
       </c>
       <c r="C2" t="n">
-        <v>5.210380950381284e-07</v>
+        <v>0.3433806836559418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.4028031143881</v>
+        <v>-12.16436053674312</v>
       </c>
       <c r="C3" t="n">
-        <v>7.175807920601507e-09</v>
+        <v>0.8964302881642567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08288640719932699</v>
+        <v>324.0287854986432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09289683464193023</v>
+        <v>1.167454956621368e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5555.926600328206</v>
+        <v>-0.03762589665797933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004568758271400365</v>
+        <v>0.59663758411337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-638.8378724927306</v>
+        <v>-3.01539703082786e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3011512613728025</v>
+        <v>0.6862016767149453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.5908914150298</v>
+        <v>14.00044495620852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3427103553120817</v>
+        <v>0.009218692927069004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2526.80336506449</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09640900087832172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>120.8132783223818</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8702475957087517</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5997.506472358964</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.002599288900461655</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.33586101462167</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7129183508006671</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3854.95293982574</v>
+        <v>3566.679875771862</v>
       </c>
       <c r="C2" t="n">
-        <v>3.897413288181513e-10</v>
+        <v>0.01424487930348022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.3104519091922</v>
+        <v>127.3408437809756</v>
       </c>
       <c r="C3" t="n">
-        <v>1.076410630371527e-07</v>
+        <v>0.1001443592875897</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09627885109008877</v>
+        <v>240.6136864162727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06907990085924239</v>
+        <v>1.332430053047618e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3601.870836755325</v>
+        <v>-0.1099128295257719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06232404738533556</v>
+        <v>0.1599843302988508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1395.001100054894</v>
+        <v>2.701148319104335e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01218258146997553</v>
+        <v>0.731669213773485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137.2288407915008</v>
+        <v>12.950890301507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06274796185764764</v>
+        <v>0.01579171084575472</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1101.7152737101</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4062946877604519</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-154.0314134138071</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8287138588910956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3203.222723190212</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0807392439494766</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-36.78847251765448</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1116588562419641</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3635.330231358443</v>
+        <v>4428.568686073815</v>
       </c>
       <c r="C2" t="n">
-        <v>4.626032194951946e-08</v>
+        <v>0.007319917614646084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.5974970126234</v>
+        <v>95.23715307321163</v>
       </c>
       <c r="C3" t="n">
-        <v>7.147352442374825e-08</v>
+        <v>0.2696239031380278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08938434822030773</v>
+        <v>269.983063569695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09001827728736889</v>
+        <v>3.077775549669163e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4548.840358137077</v>
+        <v>-0.09088515227888683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01256037556342245</v>
+        <v>0.2510092818999878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1289.627321228937</v>
+        <v>1.560659926399123e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02938320306842818</v>
+        <v>0.9847814812639835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.4672843024924</v>
+        <v>9.151217678353563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1720333473493643</v>
+        <v>0.08611231831680252</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>767.7543610670855</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5944915932016359</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-322.5740144396059</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6941356958280809</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4141.753992056556</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02874463939788137</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-51.10819446567515</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0644731960159803</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3723.362928176081</v>
+        <v>4453.699345710959</v>
       </c>
       <c r="C2" t="n">
-        <v>4.593874111489976e-09</v>
+        <v>0.003200630121548982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>249.0949135934276</v>
+        <v>75.48399070532936</v>
       </c>
       <c r="C3" t="n">
-        <v>9.148661336837837e-07</v>
+        <v>0.4130019801463176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.112055581196723</v>
+        <v>258.1494149548886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02498502640539239</v>
+        <v>3.570669715869911e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5081.085466289633</v>
+        <v>-0.07926373575562015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003668791915605632</v>
+        <v>0.2839000983966368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1114.426313355771</v>
+        <v>-5.176439764339127e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05304752727946088</v>
+        <v>0.5367071147949412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.63697767585242</v>
+        <v>6.989943126481712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.305795367182949</v>
+        <v>0.1732677069602725</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1261.028804090938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3471474994402647</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-679.2576098262778</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3771792147749728</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4967.698131830837</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00509049111477554</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-41.88258384315037</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08909647629378839</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3949.358575856084</v>
+        <v>4434.392237643115</v>
       </c>
       <c r="C2" t="n">
-        <v>1.931977463316924e-09</v>
+        <v>0.004551212263551645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254.7780265557579</v>
+        <v>115.0029774829866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.986913614544174e-07</v>
+        <v>0.1758743372410769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09655389063831579</v>
+        <v>261.9679565196797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09569256370268633</v>
+        <v>2.960582314440385e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2541.378364694822</v>
+        <v>-0.1170193914043556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1580103910714051</v>
+        <v>0.1509534667761564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1258.238473109758</v>
+        <v>3.399889627698192e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03641030120904422</v>
+        <v>0.6667270337965119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123.9686456827487</v>
+        <v>9.2946984815691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09694679734315115</v>
+        <v>0.07149875473525588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>629.6720960904368</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6399750401797295</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-240.7366999441443</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7595983455721091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2303.129205899728</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2006007832167304</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-45.56700659293436</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06481003826560236</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3668.400331662273</v>
+        <v>4208.720200120993</v>
       </c>
       <c r="C2" t="n">
-        <v>2.922081445451215e-09</v>
+        <v>0.00586398340101379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>271.0553655705364</v>
+        <v>59.07224699327578</v>
       </c>
       <c r="C3" t="n">
-        <v>1.563241443699767e-08</v>
+        <v>0.5011860531797006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07907045094404891</v>
+        <v>289.2903569134993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.142157030688669</v>
+        <v>1.325471397308574e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4322.056881200707</v>
+        <v>-0.06089238140899086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01205345442929938</v>
+        <v>0.416102611385797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1070.037732320183</v>
+        <v>-1.902524433702186e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0640087462630666</v>
+        <v>0.8513390678345997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.83007927494438</v>
+        <v>8.049900808096794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5605495945017502</v>
+        <v>0.1895929196254649</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1412.379098889428</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3433968414103474</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-317.8465609151472</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6658868431840395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4211.442758352533</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01656030370432034</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-47.53479092735873</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06844292425154161</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2293.381953909993</v>
+        <v>1753.875198679995</v>
       </c>
       <c r="C2" t="n">
-        <v>2.852570911239115e-05</v>
+        <v>0.2196592918207323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300.3093026387662</v>
+        <v>-28.69061058687933</v>
       </c>
       <c r="C3" t="n">
-        <v>2.754201141297639e-11</v>
+        <v>0.694985129775051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05203627718413137</v>
+        <v>259.8880793663288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2096474736579968</v>
+        <v>4.134351061702493e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10321.50880719383</v>
+        <v>-0.07344184688295477</v>
       </c>
       <c r="C5" t="n">
-        <v>2.891491216735543e-07</v>
+        <v>0.2200353500984796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-752.1412527506432</v>
+        <v>3.020068182462877e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1408860610411912</v>
+        <v>0.6290663577330335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.62501233310007</v>
+        <v>15.34432603239677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4524815944962587</v>
+        <v>0.001698184836336746</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-914.1039472883085</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5138471475297466</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-24.5585208993914</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9688946600459307</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9401.260608978915</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.744698996405269e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.18527407856474</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6661705440197492</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3460.121874668011</v>
+        <v>4227.39658841408</v>
       </c>
       <c r="C2" t="n">
-        <v>2.095453334672743e-08</v>
+        <v>0.004548129248166324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>290.3755247474659</v>
+        <v>201.0408624853371</v>
       </c>
       <c r="C3" t="n">
-        <v>5.186352967971671e-09</v>
+        <v>0.02418807779563759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07177773690044406</v>
+        <v>313.6199024038983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1356080114298731</v>
+        <v>1.491602578999531e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3461.221865585871</v>
+        <v>-0.07671392601851595</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04975341633470601</v>
+        <v>0.2716675400622815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1418.254044571088</v>
+        <v>1.352474876579657e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009599661506539233</v>
+        <v>0.8574519010237841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.5253558817426</v>
+        <v>6.758208016769455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0316174755587347</v>
+        <v>0.1603781874882328</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1320.721859579476</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3263737710053723</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-527.5228793147144</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4362640598033344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3069.620884936278</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08081117503941954</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-51.83328747423234</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03651439729151734</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2480.956855909976</v>
+        <v>1725.72144018619</v>
       </c>
       <c r="C2" t="n">
-        <v>6.518213749636537e-05</v>
+        <v>0.3126441835785794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>320.606970221252</v>
+        <v>61.28421709304848</v>
       </c>
       <c r="C3" t="n">
-        <v>4.421971823615094e-10</v>
+        <v>0.4553281433253015</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04437668698225801</v>
+        <v>299.6421292651499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3509795906593233</v>
+        <v>1.637582881297538e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7511.301906332565</v>
+        <v>-0.04618599476890931</v>
       </c>
       <c r="C5" t="n">
-        <v>6.913190607754609e-05</v>
+        <v>0.4919145899805762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-877.7084133175854</v>
+        <v>1.947555835526429e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09337339485929846</v>
+        <v>0.7845693521464995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.8198151787948</v>
+        <v>13.99265619696587</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1450810117332908</v>
+        <v>0.008959063301396395</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100.7899946325954</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.942159688195201</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-198.8908805669661</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.773787618859</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7118.291090967905</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0003371835046272247</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.10656093697433</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6251741269354165</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3672.225497779732</v>
+        <v>3687.404165286693</v>
       </c>
       <c r="C2" t="n">
-        <v>1.609666593561659e-09</v>
+        <v>0.01709448002538594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255.1249075356206</v>
+        <v>88.96488393370663</v>
       </c>
       <c r="C3" t="n">
-        <v>8.075587218135682e-08</v>
+        <v>0.2856504969533258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09803255642355249</v>
+        <v>264.1330809374206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04742767118361008</v>
+        <v>1.34139945878056e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4524.466045307587</v>
+        <v>-0.09356370386638341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008252049109007762</v>
+        <v>0.2188753411829485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1073.704605267247</v>
+        <v>2.456056709132255e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05664068052002245</v>
+        <v>0.9976064317511267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.64924673367196</v>
+        <v>8.100638414147411</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2043808780688357</v>
+        <v>0.1320222309907073</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1058.647799971654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4408726417152999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-364.0058821961502</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6430678380273871</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4200.15175040807</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01714627589523028</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-29.42572255553947</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2491009110444714</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3827.49923732447</v>
+        <v>3930.89868768009</v>
       </c>
       <c r="C2" t="n">
-        <v>3.649515981741662e-09</v>
+        <v>0.01151325847711085</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244.2065160621578</v>
+        <v>92.25119551876486</v>
       </c>
       <c r="C3" t="n">
-        <v>1.121012191864818e-06</v>
+        <v>0.3017774848806437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1055274277803277</v>
+        <v>260.4338915843352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03601198709697388</v>
+        <v>6.35028443214206e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4394.335509314252</v>
+        <v>-0.1084551091145517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01854520082319739</v>
+        <v>0.15127053187346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1156.518048334896</v>
+        <v>1.842478271820388e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04708702975714689</v>
+        <v>0.824789232882676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.48132231637618</v>
+        <v>9.817527268505216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2272345976147995</v>
+        <v>0.06049627631242934</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1014.375227662545</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4863375966516713</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-133.7387265994353</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8649523770058181</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3962.50407352293</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03285313395663411</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-40.26428322669035</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1145475614304697</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4101.235167956036</v>
+        <v>4203.590470203519</v>
       </c>
       <c r="C2" t="n">
-        <v>1.053639202382964e-10</v>
+        <v>0.006490490672009391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>247.8355259614297</v>
+        <v>184.9471362154634</v>
       </c>
       <c r="C3" t="n">
-        <v>1.548065735213614e-07</v>
+        <v>0.03147644181008614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08256532383711393</v>
+        <v>251.2240094150324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07015641201133113</v>
+        <v>8.282056970099259e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1362.739663328404</v>
+        <v>-0.08744161078425899</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4299641122189922</v>
+        <v>0.2001731769455113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1628.805111499049</v>
+        <v>3.91151813138814e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003767605417678286</v>
+        <v>0.9560205941247156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9499708157956</v>
+        <v>7.301395884982167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00878116950735423</v>
+        <v>0.1492125134221717</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1012.75776171208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4430593113566166</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-892.5012034295394</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2060445697777596</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1441.716699242016</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.414863737155353</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-29.84069056103314</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2471043354484636</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3506.035427778814</v>
+        <v>3324.203923587535</v>
       </c>
       <c r="C2" t="n">
-        <v>3.665010869314382e-08</v>
+        <v>0.04618739559243461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.6316643086005</v>
+        <v>49.93484500117245</v>
       </c>
       <c r="C3" t="n">
-        <v>6.30656030595551e-09</v>
+        <v>0.5719715899795021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09093643440707755</v>
+        <v>307.2775863381105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1025479941816727</v>
+        <v>1.244401548284098e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4839.151848491817</v>
+        <v>-0.111809777935908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006884667196232098</v>
+        <v>0.1485721263908411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1041.187060237762</v>
+        <v>5.024893675475552e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07870763381438102</v>
+        <v>0.5633638339175813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.61376518694027</v>
+        <v>10.351104062246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6050814751744249</v>
+        <v>0.07432281231757316</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1201.355477314349</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.420012708928506</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.46787394943613</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9106000681870814</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4229.98582225115</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01813278002706034</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-36.33801048126564</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1606258439848554</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3386.563781200689</v>
+        <v>4147.889225696464</v>
       </c>
       <c r="C2" t="n">
-        <v>5.402712169624795e-08</v>
+        <v>0.004585484171749118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>282.0249666242647</v>
+        <v>98.11301810761154</v>
       </c>
       <c r="C3" t="n">
-        <v>7.392292800479986e-09</v>
+        <v>0.2329601799526048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06904549460980779</v>
+        <v>291.3258875497589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2366971635914559</v>
+        <v>8.628310754990562e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4599.277826649079</v>
+        <v>-0.09125798384139366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01203610116426009</v>
+        <v>0.2302409547807621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1054.323641093094</v>
+        <v>4.631718309893259e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06591818477856906</v>
+        <v>0.5546048416938802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.36242846599532</v>
+        <v>11.22921708668935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2737547183300432</v>
+        <v>0.05441674238723224</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>649.0028634864607</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.616447872271537</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>35.51823759663876</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9588647392180387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4706.130862659562</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.008902064778198894</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-61.6068318012717</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01157895187158115</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2591.681427019072</v>
+        <v>2118.994392111972</v>
       </c>
       <c r="C2" t="n">
-        <v>1.151827349954718e-06</v>
+        <v>0.1256034985234223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>289.805594932491</v>
+        <v>18.32852844414924</v>
       </c>
       <c r="C3" t="n">
-        <v>3.338330323073756e-11</v>
+        <v>0.8098265776134181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06861265251140922</v>
+        <v>262.8388312563483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1022102257528608</v>
+        <v>8.165258081968733e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8240.370152431748</v>
+        <v>-0.03056576532640838</v>
       </c>
       <c r="C5" t="n">
-        <v>1.929717538353795e-06</v>
+        <v>0.630644922425591</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-655.2395101312065</v>
+        <v>-5.74663627360582e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1884653553969781</v>
+        <v>0.4309721863406528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.48470708130782</v>
+        <v>9.698584611636168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1450376171623508</v>
+        <v>0.02903740570411436</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>150.7425423428226</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9101463201585711</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-686.556306829712</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3091969124331745</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8706.648967611753</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.579864280303456e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.592754939957111</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9484791591319389</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3514.44388556908</v>
+        <v>4392.617076428903</v>
       </c>
       <c r="C2" t="n">
-        <v>4.26089749636846e-09</v>
+        <v>0.00495810606575398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>250.2266494283627</v>
+        <v>83.43462502572845</v>
       </c>
       <c r="C3" t="n">
-        <v>1.269373857332846e-07</v>
+        <v>0.3277305413101222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1257461430326567</v>
+        <v>251.1481503416303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02453813554912789</v>
+        <v>3.84301595250123e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6031.927183978056</v>
+        <v>-0.1048897692879349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002988998920788635</v>
+        <v>0.2385102340930677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-967.8868657488947</v>
+        <v>-4.985071693336609e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08422362055813416</v>
+        <v>0.5516531239396001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.1162381579881</v>
+        <v>7.523282719047807</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1739697160441583</v>
+        <v>0.1253401788863759</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1243.187041773162</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3775232700278431</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-386.4244818958819</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6300869300017029</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5581.139203416285</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001439083945213234</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-43.5401320219795</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09936460910029138</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2763.617601519411</v>
+        <v>2625.085695067166</v>
       </c>
       <c r="C2" t="n">
-        <v>1.288216029883974e-06</v>
+        <v>0.06195874496274709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.8064469688276</v>
+        <v>13.65539959368232</v>
       </c>
       <c r="C3" t="n">
-        <v>1.247714651923822e-10</v>
+        <v>0.870222459981473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04794029014195197</v>
+        <v>283.2959774836849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2784181437135995</v>
+        <v>7.40189802595541e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5975.443081552931</v>
+        <v>-0.08325263900073225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0013520004131268</v>
+        <v>0.197669100439002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-731.1562942635903</v>
+        <v>5.297283395638171e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1708047042532336</v>
+        <v>0.4468405303287424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.25593769895306</v>
+        <v>11.39898838974697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2279300492535808</v>
+        <v>0.01664834585540389</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-965.7379778969889</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4920422748197646</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-40.45663043035574</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9531953868602928</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5493.356664380133</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003951519989044313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-15.24726847553332</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4968723435705313</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3652.976354750292</v>
+        <v>2563.051105087984</v>
       </c>
       <c r="C2" t="n">
-        <v>2.146156421399603e-08</v>
+        <v>0.1126634434754615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267.5702834101953</v>
+        <v>59.66051852258148</v>
       </c>
       <c r="C3" t="n">
-        <v>5.047114647813992e-08</v>
+        <v>0.4819412258910361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07945628635918982</v>
+        <v>291.9125124475735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126039308852167</v>
+        <v>1.426015768167926e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4384.283245653689</v>
+        <v>-0.09892880689242384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0151667068393592</v>
+        <v>0.1750055945234767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1179.436615451214</v>
+        <v>6.968474616283397e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05177519167212437</v>
+        <v>0.4324569300573541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.11825467828029</v>
+        <v>12.02824367292741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3853965708743629</v>
+        <v>0.02696914768817758</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1390.538155013897</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3381228439875872</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.92872790285764</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9114452742895525</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4346.622300364545</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01323186665915734</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-23.70654243373964</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3978994526602437</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3783.549546466775</v>
+        <v>5427.988041092501</v>
       </c>
       <c r="C2" t="n">
-        <v>1.536938543892494e-10</v>
+        <v>0.0002486234069873989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293.8721747397544</v>
+        <v>209.8367116205371</v>
       </c>
       <c r="C3" t="n">
-        <v>1.502467252648458e-09</v>
+        <v>0.01423315364964072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06557506113914834</v>
+        <v>319.4828299333762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1925522242596238</v>
+        <v>2.272825804569523e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.458467122755</v>
+        <v>-0.06656927278121233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4411243458203198</v>
+        <v>0.3118065073279397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1447.457360061771</v>
+        <v>4.824656033333512e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006738201794134726</v>
+        <v>0.9455801392380438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.7802526037061</v>
+        <v>3.077598123597067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03971332154332306</v>
+        <v>0.5621172949851504</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>893.9521808451486</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4721560055155932</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-919.5106364175072</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1603099893113583</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>577.2850426651312</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.733202519693308</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-60.26614881697577</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01154050776601904</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3528.268445964614</v>
+        <v>4729.962860175377</v>
       </c>
       <c r="C2" t="n">
-        <v>4.501225101991676e-10</v>
+        <v>0.0009001130326552174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.7198786268609</v>
+        <v>218.9158177632935</v>
       </c>
       <c r="C3" t="n">
-        <v>8.366024215783984e-09</v>
+        <v>0.01069576902954955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09251865882285003</v>
+        <v>301.1428806442876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06733781657290173</v>
+        <v>1.028512600856656e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3448.72164469915</v>
+        <v>-0.06820968593303084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03474450922333446</v>
+        <v>0.3186945637197854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1080.831794390816</v>
+        <v>-4.688741285075484e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03844126699728319</v>
+        <v>0.5572560467316567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.7219838424888</v>
+        <v>0.2621855048374826</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04778629669297649</v>
+        <v>0.9635636702146835</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1968.951066288407</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1373021339668357</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-698.0727767922517</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2900861817524011</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2891.337593261429</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0826716172696761</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-46.93560902089157</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04928350314163605</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3552.173276378462</v>
+        <v>4034.385584037363</v>
       </c>
       <c r="C2" t="n">
-        <v>8.350391425193078e-08</v>
+        <v>0.009074702603377305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252.5662178989795</v>
+        <v>42.58960613415468</v>
       </c>
       <c r="C3" t="n">
-        <v>9.898851045675686e-08</v>
+        <v>0.6034486272193835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09287740183011529</v>
+        <v>251.5815158532944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06194628076287329</v>
+        <v>2.117954423609668e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5617.288783780303</v>
+        <v>-0.08248710473041315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005404957279104262</v>
+        <v>0.2581217892212671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1079.075441895847</v>
+        <v>-8.791801321814639e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0623112114254111</v>
+        <v>0.9134698129815297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.41637823524826</v>
+        <v>13.72732112146814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3593952175900366</v>
+        <v>0.01854765387659774</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>931.8250824234115</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5019174305094507</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-96.8630029780262</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8969211516393549</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5350.907134673815</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.006079289721377419</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-53.11513661211951</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03836568902217937</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3825.104388093675</v>
+        <v>4029.853313102642</v>
       </c>
       <c r="C2" t="n">
-        <v>7.71125370691235e-09</v>
+        <v>0.01469167546129651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264.4278595197007</v>
+        <v>63.10772856177834</v>
       </c>
       <c r="C3" t="n">
-        <v>1.178623637309596e-07</v>
+        <v>0.4846546300863471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09601890444659063</v>
+        <v>276.5113618837748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05427756956761746</v>
+        <v>1.326950230202799e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4320.36571021786</v>
+        <v>-0.108916178641584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01953088921005496</v>
+        <v>0.1540710309677874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1179.286723882336</v>
+        <v>2.966777214688472e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04666429521941805</v>
+        <v>0.7369036335425627</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.23105530602285</v>
+        <v>8.22397713050254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4523783770138512</v>
+        <v>0.1220369040581902</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>719.6118552667558</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6168122728763676</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-281.9430089278367</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7191621641714384</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4194.148097843315</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02514702920155747</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-37.46920185627268</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1530028124391</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3718.879553358001</v>
+        <v>4305.758657562539</v>
       </c>
       <c r="C2" t="n">
-        <v>2.052083157587185e-09</v>
+        <v>0.002669579470715649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253.6955387875439</v>
+        <v>76.07812627212115</v>
       </c>
       <c r="C3" t="n">
-        <v>2.414727212246657e-08</v>
+        <v>0.3246262927964586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08254909340422323</v>
+        <v>211.3153483435995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1446205924478128</v>
+        <v>3.599657597000224e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3646.645990529292</v>
+        <v>-0.1389210344748168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03880028476157864</v>
+        <v>0.06866151554156268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1445.392808764675</v>
+        <v>5.804477787153519e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006287686381629303</v>
+        <v>0.4326452370050616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.7054526500833</v>
+        <v>10.1404970951881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05791421608873947</v>
+        <v>0.02892111262298708</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1438.541367928749</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3046183981979152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-825.1893481633651</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2221580802527726</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3476.774357559947</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05202827692148877</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-26.15776878830473</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2554085725637458</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2577.045521731161</v>
+        <v>2058.701893061379</v>
       </c>
       <c r="C2" t="n">
-        <v>1.586806522041639e-05</v>
+        <v>0.1814822813995749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.0282503134759</v>
+        <v>145.9800230309593</v>
       </c>
       <c r="C3" t="n">
-        <v>7.113582407156536e-11</v>
+        <v>0.1058783328046031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05994723328705839</v>
+        <v>345.5558413549256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1848328647758605</v>
+        <v>1.05871201483715e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6205.396793236616</v>
+        <v>-0.03890935617250055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004759152804857685</v>
+        <v>0.5552232336058298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-699.0193381644738</v>
+        <v>-1.649722571914349e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1841207969106763</v>
+        <v>0.8115358650300313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.1544599480285</v>
+        <v>9.773959110182449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01494651429243565</v>
+        <v>0.06231077985644809</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2526.11409131545</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06375777558493784</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>278.4174976484039</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.686477053344194</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6464.400432366666</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0004899271650386281</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-30.69132135302462</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2319140259413132</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3372.41448532201</v>
+        <v>4392.998903176614</v>
       </c>
       <c r="C2" t="n">
-        <v>2.704783442767231e-08</v>
+        <v>0.003454742673364187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.8240962532844</v>
+        <v>72.96913627422177</v>
       </c>
       <c r="C3" t="n">
-        <v>1.857268599233162e-08</v>
+        <v>0.3669177675463378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09231834118115892</v>
+        <v>280.5627162198206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05900711222691211</v>
+        <v>9.74123760689627e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5426.709862923793</v>
+        <v>-0.06179467574102565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001974444273757799</v>
+        <v>0.3950513658977572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-847.2956023526681</v>
+        <v>-5.087023235568515e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1252461931461622</v>
+        <v>0.5319440376545888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.31818477637704</v>
+        <v>5.754987597362231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4078094583960655</v>
+        <v>0.3212113120940247</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1080.025020247886</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4156061529542107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-549.227521679974</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4541125991083435</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5589.888127004873</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001887364285444051</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-46.70682438091813</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07209980568828922</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3625.984452822742</v>
+        <v>3465.669120983184</v>
       </c>
       <c r="C2" t="n">
-        <v>2.996262938920109e-09</v>
+        <v>0.02336579583645898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.3370793138853</v>
+        <v>89.87784339365703</v>
       </c>
       <c r="C3" t="n">
-        <v>5.054443084572788e-08</v>
+        <v>0.3089146306004614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06769488317365985</v>
+        <v>283.7122215454536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2059588308106516</v>
+        <v>2.318018974124238e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4003.389836075834</v>
+        <v>-0.07957879791796396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02679829489837872</v>
+        <v>0.275663132223693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1283.374730188715</v>
+        <v>4.434385468796642e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03832034886484728</v>
+        <v>0.5913859312311621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.01542512456317</v>
+        <v>13.34244494495678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3309692766399143</v>
+        <v>0.01801204766810065</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1503.402688896094</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2813374655463196</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20.18946532689324</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9786871518300139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2993.714576488936</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08443093254424884</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-44.66112012699279</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07258817294525463</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3854.760109719517</v>
+        <v>4355.745970681368</v>
       </c>
       <c r="C2" t="n">
-        <v>6.271656776657519e-10</v>
+        <v>0.003066297577370774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6223602853416</v>
+        <v>55.27070232596452</v>
       </c>
       <c r="C3" t="n">
-        <v>9.503252440425108e-08</v>
+        <v>0.4856361530909977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1005333796506867</v>
+        <v>240.8700539654903</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07905681001434371</v>
+        <v>2.313063504809147e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4539.968542173387</v>
+        <v>-0.1264173063323866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01908361517854727</v>
+        <v>0.1152028866292713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1306.133409429324</v>
+        <v>2.439161626073022e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02698905553316896</v>
+        <v>0.7693400828423187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.590244915997</v>
+        <v>11.07221936568384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2135738045798657</v>
+        <v>0.02455732205426978</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>683.5659728125311</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6168765274262531</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-295.2609466994196</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6690042309758192</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4299.307775198222</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02631399474147009</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-44.78117365495103</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05723287257922269</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3426.048371238675</v>
+        <v>4381.770433634822</v>
       </c>
       <c r="C2" t="n">
-        <v>5.896493833004861e-08</v>
+        <v>0.005214875053845636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305.3707985245107</v>
+        <v>161.6014818249668</v>
       </c>
       <c r="C3" t="n">
-        <v>4.100152891037598e-09</v>
+        <v>0.06809662431202287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05986486753917714</v>
+        <v>331.0008663758957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2259934593679663</v>
+        <v>1.61241728141267e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3839.016010043541</v>
+        <v>-0.05348315249174035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02363536462471019</v>
+        <v>0.4389893079553947</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1432.83681918416</v>
+        <v>-7.297704912057079e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009596085421268002</v>
+        <v>0.9921997788982724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.6598115961817</v>
+        <v>6.158786282181833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08837134113251766</v>
+        <v>0.2298260838141711</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1146.027586270162</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3939229555447203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-591.7113941005842</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4320154953066347</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3247.139113509338</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06095817779372038</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-54.46002441802848</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03869942408342666</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2900.494797911154</v>
+        <v>2625.642240224784</v>
       </c>
       <c r="C2" t="n">
-        <v>6.821035235543295e-07</v>
+        <v>0.05928115843241468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.2490169735128</v>
+        <v>23.44148439595148</v>
       </c>
       <c r="C3" t="n">
-        <v>1.617930145448707e-10</v>
+        <v>0.775709015988773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04458344539098358</v>
+        <v>284.651054333125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3270582798509616</v>
+        <v>5.447016735032102e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4756.991467021352</v>
+        <v>-0.07933694827978706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007050548939157856</v>
+        <v>0.2291989982045725</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646.9037150555043</v>
+        <v>6.607088081092484e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2541008722502546</v>
+        <v>0.3548758060549053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.11551926724565</v>
+        <v>14.89375721957127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3790759887602685</v>
+        <v>0.004277217327597877</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-835.03581079989</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5404017372766028</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>185.2465395624815</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7947942655478286</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4259.413437789759</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01224705376871916</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-24.45195357354154</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2811026430225842</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3758.305417539496</v>
+        <v>4903.850672993933</v>
       </c>
       <c r="C2" t="n">
-        <v>9.819466428181498e-10</v>
+        <v>0.002023377612218553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220.4121253801545</v>
+        <v>157.380737574932</v>
       </c>
       <c r="C3" t="n">
-        <v>2.943172350104464e-06</v>
+        <v>0.06017011074505667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1221051032577047</v>
+        <v>229.4697108304378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01753847348490003</v>
+        <v>2.007781776012046e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4322.349471658958</v>
+        <v>-0.1119144511942199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0131389362769629</v>
+        <v>0.1371502516073797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-848.7138525440438</v>
+        <v>-2.976426486886821e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1235033845450136</v>
+        <v>0.745009122006847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.8708959774361</v>
+        <v>4.118540176260641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06412321201489735</v>
+        <v>0.4971248336173397</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>944.047867102312</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5073266229174804</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-476.700438604369</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5154767380938488</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4103.590722208789</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02238682487945653</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-44.85424228275333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08919627841895029</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3917.025287474595</v>
+        <v>3711.725751189009</v>
       </c>
       <c r="C2" t="n">
-        <v>4.967807732644427e-09</v>
+        <v>0.01921499023577229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248.9400244875103</v>
+        <v>62.78172955211434</v>
       </c>
       <c r="C3" t="n">
-        <v>2.207654094899842e-07</v>
+        <v>0.4650928291953341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0805783685600359</v>
+        <v>268.6490294372928</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1134929385477288</v>
+        <v>7.117205201851564e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5165.487508667656</v>
+        <v>-0.1078798239884933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003477457807829128</v>
+        <v>0.150575602162421</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1593.596274832445</v>
+        <v>6.067537079507422e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007759251098284703</v>
+        <v>0.5037488046903973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.6691067603077</v>
+        <v>9.655801998890064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3948094364678485</v>
+        <v>0.06447441951630177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>842.116495835513</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5582087623214165</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-374.6333266273627</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6209283299898725</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4944.79935137203</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005280818494901553</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-35.55359172195092</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.196830581543817</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3343.832167076699</v>
+        <v>2066.924190461182</v>
       </c>
       <c r="C2" t="n">
-        <v>1.021942625199452e-07</v>
+        <v>0.2042124840061429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>292.9837908061089</v>
+        <v>-3.850229811284919</v>
       </c>
       <c r="C3" t="n">
-        <v>8.464149719557756e-10</v>
+        <v>0.9652180150560719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08115102800624491</v>
+        <v>317.9353133701622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1016795359354348</v>
+        <v>7.803563287696385e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5916.972416969867</v>
+        <v>-0.04683589193160409</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001284034732544181</v>
+        <v>0.5164591225489943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1086.77600063372</v>
+        <v>-2.418659700714732e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0505402541892396</v>
+        <v>0.7541349949081806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.78748552620016</v>
+        <v>11.25645519373917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5800395363706685</v>
+        <v>0.03186337374228004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2326.32088331112</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1095619913521618</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-177.9335271209839</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8121541071280982</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5897.85330610018</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001426468341371799</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.62981392265772</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6456496942934177</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2942.057154553675</v>
+        <v>2628.075652497378</v>
       </c>
       <c r="C2" t="n">
-        <v>7.925358916182855e-07</v>
+        <v>0.06924530356329696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.2760902171365</v>
+        <v>-32.12439874881431</v>
       </c>
       <c r="C3" t="n">
-        <v>1.368821764506601e-09</v>
+        <v>0.7094891902667602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05608092161629732</v>
+        <v>252.794280743616</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2923638901332363</v>
+        <v>5.538237702847644e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5636.480734614817</v>
+        <v>-0.08348437888754862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000845338553330611</v>
+        <v>0.2265359502639839</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-593.2850099841556</v>
+        <v>6.975293978006249e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2674307068018362</v>
+        <v>0.4665312942700148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.53293122947309</v>
+        <v>14.33526047994098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.287013226769041</v>
+        <v>0.01766106812893254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1672.871163522363</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3219516259847776</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-134.1232685926998</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8361250890333178</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5914.699829636253</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.000523906856771924</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.0961707279495</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6015146726885454</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3658.278389666159</v>
+        <v>4128.048234207015</v>
       </c>
       <c r="C2" t="n">
-        <v>1.056114600386483e-08</v>
+        <v>0.006599150065002242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.9033887617982</v>
+        <v>125.7832708325719</v>
       </c>
       <c r="C3" t="n">
-        <v>4.962600531625557e-07</v>
+        <v>0.1336647880604101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1109397512088313</v>
+        <v>250.9620277459393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02985327765479629</v>
+        <v>2.255620249176869e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4867.153194032963</v>
+        <v>-0.1604622329905084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007093549444234976</v>
+        <v>0.02929936791227733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1081.486245190021</v>
+        <v>7.811967248891631e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07828382178692585</v>
+        <v>0.3124764038403391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.1258909690858</v>
+        <v>10.31605228758078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1373009270511114</v>
+        <v>0.03549377197048217</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>644.2123065915328</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.616636619796439</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>318.9551265549126</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6849214180462138</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4291.27180772467</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01389571024279772</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-51.91100109185516</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03999938525045809</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4267.634786109119</v>
+        <v>4600.495065269879</v>
       </c>
       <c r="C2" t="n">
-        <v>2.178176815305009e-11</v>
+        <v>0.002409360102470117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.8100639918681</v>
+        <v>96.8735821216795</v>
       </c>
       <c r="C3" t="n">
-        <v>2.13578346288746e-07</v>
+        <v>0.2537825891845781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09746403625491654</v>
+        <v>250.9842753063086</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03209655571670606</v>
+        <v>5.609572133276317e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1983.486445493453</v>
+        <v>-0.08090021052334044</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2678382626795627</v>
+        <v>0.2329325394115761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1480.522027018847</v>
+        <v>-2.055586446673166e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006167421194723261</v>
+        <v>0.7809940260814411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121.187350913346</v>
+        <v>5.915309177035969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1099951378324627</v>
+        <v>0.233637525777786</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>542.111729471394</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6795630688056702</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1053.827458891684</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1606337656051185</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2104.399744635001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2599029559296896</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-27.88974085700444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2378785758787462</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3135.020881088554</v>
+        <v>4064.34934869673</v>
       </c>
       <c r="C2" t="n">
-        <v>5.512886140459395e-08</v>
+        <v>0.008268298503355188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.7889743296863</v>
+        <v>88.78204471971401</v>
       </c>
       <c r="C3" t="n">
-        <v>2.863249031329519e-11</v>
+        <v>0.2845559465398536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05583460277382936</v>
+        <v>342.7199181130301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.273767314948584</v>
+        <v>9.800389747950645e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4924.642952229147</v>
+        <v>-0.05754433735580838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003098249999623694</v>
+        <v>0.4549927891594707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1071.775565024373</v>
+        <v>1.771740326788826e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04425283783530885</v>
+        <v>0.9810477920901346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.81213884896911</v>
+        <v>6.602863688099177</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3724963935943447</v>
+        <v>0.1597855572269771</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1348.820185732276</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3194091761411583</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-236.7346697489149</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7314500623409806</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4338.847977889523</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01043669749867334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-53.18712964752575</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03480785728959564</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Nantes.xlsx
+++ b/outputs/ML_Results/dist_LR/Nantes.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ52071599" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ52175248" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ52271249" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ52367758" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ52468276" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ52574425" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ52703249" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52925760" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ53033251" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ53135759" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ53242274" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ53348104" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ53452615" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ53551129" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ53654156" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ53759667" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ53859181" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ53960695" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ54059209" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ54161723" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ54254227" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ54362270" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ54461781" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ54564295" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ54676728" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ54774242" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ54879753" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ54984270" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ55085787" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ55187302" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ55293816" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ55390846" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ55492359" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ55597871" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ55700382" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ55803416" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ55900933" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ55996449" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ56098960" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ56199474" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ56301986" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ56404490" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ56506002" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ56612510" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ56715713" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ56814242" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ56915752" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ57018261" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ57115400" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ57225911" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ29852373" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ29963936" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ30067843" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ30172971" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ30276195" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ30381706" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ30486275" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ30699683" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ30826686" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ30932666" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ31037644" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ31145359" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ31246024" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ31351017" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ31460775" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ31568587" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ31676121" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ31784694" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ31894719" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ32002735" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ32110960" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ32218473" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ32325000" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ32431945" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ32539758" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ32703272" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ32807459" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ32914495" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ33021818" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ33130536" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ33237435" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ33346137" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ33452859" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ33560560" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ33668708" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ33776779" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ33884947" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ33992000" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ34098511" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ34205478" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ34315207" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ34424338" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ34532279" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ34639619" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ34746995" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ34859062" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ34968043" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ35075968" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ35184253" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ35291890" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3074.060957804109</v>
+        <v>3074.060957792972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03626647585280778</v>
+        <v>0.03626647585303606</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.0962391243574</v>
+        <v>51.09623912581185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5336643190262031</v>
+        <v>0.5336643190261414</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.8536144176025</v>
+        <v>250.8536144189508</v>
       </c>
       <c r="C4" t="n">
-        <v>2.492903176602779e-06</v>
+        <v>2.492903175995841e-06</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1474754847752485</v>
+        <v>-14.74754847723968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04910086884454273</v>
+        <v>0.04910086884466277</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.965248780883056e-05</v>
+        <v>69.65248781475964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3838021666593026</v>
+        <v>0.3838021666133957</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.82537237329037</v>
+        <v>14.82537237329084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004293572154557453</v>
+        <v>0.004293572154556011</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>766.8425610317472</v>
+        <v>7.668425610317435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5758311664874561</v>
+        <v>0.5758311664874575</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1050.933845364769</v>
+        <v>10.50933845364786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1655301964988447</v>
+        <v>0.1655301964988387</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4536.434147768061</v>
+        <v>45.36434147768079</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01499776744878265</v>
+        <v>0.0149977674487823</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-40.11570941085937</v>
+        <v>-40.11570941085912</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09743588906824774</v>
+        <v>0.09743588906824995</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3131.853140403534</v>
+        <v>3131.853140361719</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05364812973289547</v>
+        <v>0.0536481297353265</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.8572602260927</v>
+        <v>102.8572602239162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2375242676489037</v>
+        <v>0.2375242676487173</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265.3045845359247</v>
+        <v>265.3045845389171</v>
       </c>
       <c r="C4" t="n">
-        <v>1.241023784315175e-06</v>
+        <v>1.241023783879301e-06</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06920047555422811</v>
+        <v>-6.920047556088241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3640529232540691</v>
+        <v>0.3640529232177903</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.6739235528785e-05</v>
+        <v>-26.73923551895683</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7497695553444825</v>
+        <v>0.7497695554404658</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.41273312425778</v>
+        <v>12.41273312425776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03977581513843447</v>
+        <v>0.03977581513843465</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1670.20044191134</v>
+        <v>16.70200441911373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2477589297061697</v>
+        <v>0.2477589297061621</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-366.4910549213415</v>
+        <v>-3.664910549213543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.638400269405798</v>
+        <v>0.6384002694057859</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5234.990058416219</v>
+        <v>52.34990058416223</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01021275081026881</v>
+        <v>0.01021275081026879</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-32.92215485980013</v>
+        <v>-32.92215485980003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2114226725457064</v>
+        <v>0.2114226725457083</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3745.728673398093</v>
+        <v>3745.728673374017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01428303112894915</v>
+        <v>0.01428303112879074</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.73222418383742</v>
+        <v>32.73222418346143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6904972815988946</v>
+        <v>0.6904972815994472</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.3060596883707</v>
+        <v>270.3060596872504</v>
       </c>
       <c r="C4" t="n">
-        <v>2.444329769129476e-07</v>
+        <v>2.44432977002432e-07</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09261746737209564</v>
+        <v>-9.261746737052821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2749815317390617</v>
+        <v>0.2749815317411516</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.08959436879041e-06</v>
+        <v>5.089594347191678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9548766507207688</v>
+        <v>0.954876650911807</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.29372020236567</v>
+        <v>10.29372020236594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03913912609155237</v>
+        <v>0.03913912609154583</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>916.1877524170732</v>
+        <v>9.161877524170549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5206449584847805</v>
+        <v>0.5206449584847865</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.451566537752</v>
+        <v>0.2045156653775475</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9780069240171998</v>
+        <v>0.9780069240171968</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5918.913931728905</v>
+        <v>59.18913931728909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002419712401101828</v>
+        <v>0.002419712401101914</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-42.65790432145798</v>
+        <v>-42.65790432145801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09037103891896169</v>
+        <v>0.09037103891896024</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2394.768563231604</v>
+        <v>2394.7685631337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.128457051624677</v>
+        <v>0.1284570516393626</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.4923150205665</v>
+        <v>142.4923150211473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1266865231452909</v>
+        <v>0.1266865231453121</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284.9336911476154</v>
+        <v>284.9336911494402</v>
       </c>
       <c r="C4" t="n">
-        <v>2.973149745947813e-06</v>
+        <v>2.973149745394237e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08224554698682068</v>
+        <v>-8.224554698993597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.271946994480961</v>
+        <v>0.2719469944665739</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.626852903658762e-05</v>
+        <v>26.26852903999094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7360815319976319</v>
+        <v>0.7360815319583807</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.30586934143813</v>
+        <v>13.30586934143831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02316944340192662</v>
+        <v>0.02316944340192465</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1379.389507106662</v>
+        <v>13.79389507106667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3541496234641138</v>
+        <v>0.3541496234641116</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129.6418223804427</v>
+        <v>1.296418223804404</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8694882410823617</v>
+        <v>0.8694882410823639</v>
       </c>
     </row>
     <row r="10">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5172.013888653888</v>
+        <v>51.72013888653888</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005022283003025663</v>
+        <v>0.005022283003025665</v>
       </c>
     </row>
     <row r="11">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-28.4360124432572</v>
+        <v>-28.43601244325702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2592387791886747</v>
+        <v>0.259238779188678</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4252.286200332453</v>
+        <v>4252.286200359888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008134901233219116</v>
+        <v>0.008134901233001465</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.74432496885171</v>
+        <v>67.74432497269949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4220432821523936</v>
+        <v>0.4220432821525675</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.605688268229</v>
+        <v>291.6056882664493</v>
       </c>
       <c r="C4" t="n">
-        <v>8.37712564706791e-08</v>
+        <v>8.377125650179209e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07109200474436508</v>
+        <v>-7.109200474533131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3463361069262282</v>
+        <v>0.3463361069219298</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.413122862635284e-05</v>
+        <v>-34.1312286114279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6961206887956893</v>
+        <v>0.6961206889240215</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.701625733719283</v>
+        <v>8.701625733719702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08688347958430959</v>
+        <v>0.08688347958429272</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.050714437018</v>
+        <v>14.22050714437017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3185874416610669</v>
+        <v>0.3185874416610651</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-174.4596347424604</v>
+        <v>-1.744596347424515</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8117868967799138</v>
+        <v>0.8117868967799233</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4813.816115517513</v>
+        <v>48.13816115517511</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0089297934763848</v>
+        <v>0.008929793476384933</v>
       </c>
     </row>
     <row r="11">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-51.60873299286324</v>
+        <v>-51.60873299286307</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05641137108608665</v>
+        <v>0.05641137108608728</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4805.687889391774</v>
+        <v>4805.687889361045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002760917216784164</v>
+        <v>0.0002760917216862474</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.0690177430486</v>
+        <v>127.069017753463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1033070061398843</v>
+        <v>0.1033070061399103</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277.5407213170569</v>
+        <v>277.5407213111855</v>
       </c>
       <c r="C4" t="n">
-        <v>7.92787817944584e-09</v>
+        <v>7.927878185616691e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08928974000453818</v>
+        <v>-8.92897400118072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1500594103346113</v>
+        <v>0.1500594103112408</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.147065301833002e-05</v>
+        <v>51.47065302474198</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4570428504004468</v>
+        <v>0.4570428503499052</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.556588467575938</v>
+        <v>5.556588467575892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2875488763595392</v>
+        <v>0.2875488763595431</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-930.8422433821088</v>
+        <v>-9.308422433820564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4617929561201837</v>
+        <v>0.4617929561202087</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-845.5591931369891</v>
+        <v>-8.455591931369973</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1978541675735387</v>
+        <v>0.1978541675735344</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2287.953751587791</v>
+        <v>22.87953751587777</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1825703038144662</v>
+        <v>0.182570303814469</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-42.4136399062445</v>
+        <v>-42.41363990624453</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06048429972274114</v>
+        <v>0.06048429972274098</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3268.711866158144</v>
+        <v>3268.711866085099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05921647560553052</v>
+        <v>0.05921647560935955</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.91978899143206</v>
+        <v>63.91978899202428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4639118197363099</v>
+        <v>0.4639118197367099</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>273.181718649987</v>
+        <v>273.1817186503704</v>
       </c>
       <c r="C4" t="n">
-        <v>2.816204274071173e-06</v>
+        <v>2.816204273972378e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08977966855778141</v>
+        <v>-8.977966855485805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1945181206483218</v>
+        <v>0.1945181206554774</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.137454259189646e-06</v>
+        <v>5.137454261519053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9459667485750956</v>
+        <v>0.9459667485510903</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.12178358776453</v>
+        <v>10.12178358776483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06147241913220013</v>
+        <v>0.06147241913219186</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1495.270525010974</v>
+        <v>14.95270525010987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2896593330986751</v>
+        <v>0.2896593330986706</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-448.7990741652491</v>
+        <v>-4.487990741652586</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5584694096328024</v>
+        <v>0.558469409632794</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3917.780715902256</v>
+        <v>39.17780715902257</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02657474572254107</v>
+        <v>0.02657474572254072</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.78101844199324</v>
+        <v>-23.78101844199322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3769584685850021</v>
+        <v>0.3769584685850027</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3658.762325800366</v>
+        <v>3658.762325800149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005571898826455423</v>
+        <v>0.005571898826056255</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.183945100556457</v>
+        <v>0.1839451005536432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9981185589567445</v>
+        <v>0.9981185589567589</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.7537759902638</v>
+        <v>278.7537759902714</v>
       </c>
       <c r="C4" t="n">
-        <v>1.012751655690691e-08</v>
+        <v>1.012751655729e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07990149124668547</v>
+        <v>-7.990149124668516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1887367237470566</v>
+        <v>0.1887367237472609</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.842563702422704e-05</v>
+        <v>58.42563701618951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4017592136509536</v>
+        <v>0.4017592137180656</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.10065387436528</v>
+        <v>13.10065387436569</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00575294717870278</v>
+        <v>0.005752947178701213</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1567.352325491895</v>
+        <v>-15.67352325491888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2352541380584482</v>
+        <v>0.2352541380584503</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-133.1041091148371</v>
+        <v>-1.33104109114846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8331261748208643</v>
+        <v>0.833126174820853</v>
       </c>
     </row>
     <row r="10">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5420.722968624781</v>
+        <v>54.20722968624773</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001096639165492267</v>
+        <v>0.001096639165492264</v>
       </c>
     </row>
     <row r="11">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-41.25411089959354</v>
+        <v>-41.25411089959336</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06116302338881808</v>
+        <v>0.06116302338881927</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3081.628662881725</v>
+        <v>3081.628663023788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0336483328003396</v>
+        <v>0.03364833279407162</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.9107080705711</v>
+        <v>141.910708057237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1081742597951675</v>
+        <v>0.1081742597950226</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.1708908752371</v>
+        <v>297.1708908682522</v>
       </c>
       <c r="C4" t="n">
-        <v>1.545739844348274e-07</v>
+        <v>1.545739845861333e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1017217998241274</v>
+        <v>-10.17217998131142</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1531587755929481</v>
+        <v>0.1531587756227058</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.713724259914807e-05</v>
+        <v>47.13724254869493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5313092508824069</v>
+        <v>0.5313092512810313</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.463853492284233</v>
+        <v>9.463853492284759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05737315497003919</v>
+        <v>0.05737315497002474</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.556383047442</v>
+        <v>16.37556383047483</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2355855187093648</v>
+        <v>0.2355855187093535</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>448.7654543288818</v>
+        <v>4.487654543288663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5514097672673728</v>
+        <v>0.5514097672673861</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3619.374631541219</v>
+        <v>36.19374631541228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02848455911359976</v>
+        <v>0.0284845591135994</v>
       </c>
     </row>
     <row r="11">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.86639149016072</v>
+        <v>-37.86639149016062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1103077564813668</v>
+        <v>0.1103077564813673</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2671.678708603697</v>
+        <v>2671.678708624088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09382471690648556</v>
+        <v>0.09382471690551465</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.09515022671337</v>
+        <v>42.09515022325974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6223054020504295</v>
+        <v>0.6223054020506855</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304.4261051196581</v>
+        <v>304.4261051221425</v>
       </c>
       <c r="C4" t="n">
-        <v>1.341107175517079e-07</v>
+        <v>1.341107174555719e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05215309729224049</v>
+        <v>-5.215309729451548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.539972315126964</v>
+        <v>0.5399723151166165</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.903394524663016e-05</v>
+        <v>-39.03394524686837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6155778329889365</v>
+        <v>0.6155778329850192</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.417109294063781</v>
+        <v>9.417109294064069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06020595956080948</v>
+        <v>0.06020595956080022</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1826.025871725486</v>
+        <v>18.26025871725469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1913356454487979</v>
+        <v>0.1913356454487992</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-436.7940155065771</v>
+        <v>-4.367940155065842</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5729999049755069</v>
+        <v>0.5729999049755006</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6729.658823325884</v>
+        <v>67.29658823325889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008501251343114127</v>
+        <v>0.0008501251343114355</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.58484575724786</v>
+        <v>-21.5848457572479</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3907637891256467</v>
+        <v>0.3907637891256454</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4832.465183810444</v>
+        <v>4832.465183755898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001964964813556217</v>
+        <v>0.001964964813645613</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.50517804486563</v>
+        <v>80.5051780525155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.327860277177033</v>
+        <v>0.3278602771768849</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4103553397944</v>
+        <v>235.410355337373</v>
       </c>
       <c r="C4" t="n">
-        <v>5.003329530211996e-06</v>
+        <v>5.003329531904018e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06660927346841133</v>
+        <v>-6.660927346895782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3849458811433343</v>
+        <v>0.3849458811402989</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.931622239555695e-05</v>
+        <v>-59.31622240084351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5139604157424511</v>
+        <v>0.5139604157033359</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.05472172399752</v>
+        <v>11.05472172399763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02968562747371022</v>
+        <v>0.02968562747370827</v>
       </c>
     </row>
     <row r="8">
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1409.160025531116</v>
+        <v>14.09160025531115</v>
       </c>
       <c r="C8" t="n">
         <v>0.3068336791132913</v>
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-788.2129717973194</v>
+        <v>-7.882129717973193</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2828174717746653</v>
+        <v>0.2828174717746657</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2238.967878672394</v>
+        <v>22.38967878672401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1997167880102161</v>
+        <v>0.1997167880102154</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-47.82065655181883</v>
+        <v>-47.8206565518188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07501223487451168</v>
+        <v>0.07501223487451167</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4391.124405179561</v>
+        <v>4391.124405151716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003206361615563928</v>
+        <v>0.003206361615485659</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.01493458754379</v>
+        <v>29.01493458515517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7282878298192996</v>
+        <v>0.7282878298195214</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.9499083727735</v>
+        <v>280.9499083727483</v>
       </c>
       <c r="C4" t="n">
-        <v>1.59402001213761e-07</v>
+        <v>1.594020012144021e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0665968659935105</v>
+        <v>-6.659686599136485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3798984026677992</v>
+        <v>0.379898402669535</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.130660048621749e-05</v>
+        <v>-31.30660048577539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6652393084203022</v>
+        <v>0.6652393084146712</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.780505967193026</v>
+        <v>8.780505967193193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07014246550365989</v>
+        <v>0.07014246550365397</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1035.377749288883</v>
+        <v>10.3537774928889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4429614720276542</v>
+        <v>0.4429614720276501</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-897.0464324006007</v>
+        <v>-8.970464324005988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2353668333818936</v>
+        <v>0.2353668333818946</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3369.15487866698</v>
+        <v>33.69154878666988</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05872841867750583</v>
+        <v>0.0587284186775052</v>
       </c>
     </row>
     <row r="11">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-38.27257500174886</v>
+        <v>-38.27257500174881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1058020491624465</v>
+        <v>0.1058020491624474</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3759.133193444233</v>
+        <v>3759.133193319942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0329199247054879</v>
+        <v>0.03291992471019389</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.999428261857</v>
+        <v>113.9994282564232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1953406952983505</v>
+        <v>0.1953406952984617</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>271.5498296239414</v>
+        <v>271.5498296187575</v>
       </c>
       <c r="C4" t="n">
-        <v>1.468137328424414e-06</v>
+        <v>1.468137329179733e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09969171708563662</v>
+        <v>-9.969171708016098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1722778697664377</v>
+        <v>0.1722778697823905</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.040211683793647e-05</v>
+        <v>30.40211681658735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.724550443421402</v>
+        <v>0.7245504435940662</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.143216141002553</v>
+        <v>7.143216141002641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3515145504232112</v>
+        <v>0.3515145504232052</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>688.2540530758092</v>
+        <v>6.882540530758064</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6421659989941912</v>
+        <v>0.6421659989941926</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-372.9064148028158</v>
+        <v>-3.729064148028124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6191530448284106</v>
+        <v>0.6191530448284137</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4447.500449459202</v>
+        <v>44.47500449459206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02265607097815545</v>
+        <v>0.02265607097815523</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-31.56288153628694</v>
+        <v>-31.56288153628682</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2670060550997833</v>
+        <v>0.267006055099785</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4058.721556423989</v>
+        <v>4058.721556356357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004978605676318129</v>
+        <v>0.004978605676790367</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.27263970511569</v>
+        <v>96.2726397014672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2111131406447546</v>
+        <v>0.2111131406449053</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304.4558542643564</v>
+        <v>304.4558542649012</v>
       </c>
       <c r="C4" t="n">
-        <v>1.221591281843705e-08</v>
+        <v>1.221591281771522e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1016299091365906</v>
+        <v>-10.16299091321225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1115479400924389</v>
+        <v>0.1115479401024529</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001189268993314034</v>
+        <v>118.9268993249727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1480902489222146</v>
+        <v>0.1480902489366448</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.874451962262643</v>
+        <v>5.874451962262873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2760949546917935</v>
+        <v>0.2760949546917749</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1230.337053212028</v>
+        <v>-12.30337053212001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3940504649415925</v>
+        <v>0.3940504649416026</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-226.6119929410979</v>
+        <v>-2.266119929410863</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7245624452379896</v>
+        <v>0.7245624452380033</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3737.870555052297</v>
+        <v>37.37870555052274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0222984293696504</v>
+        <v>0.02229842936965114</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-39.60330037234093</v>
+        <v>-39.60330037234081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0962810523491219</v>
+        <v>0.09628105234912274</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.101313530689</v>
+        <v>1572.10131352824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3433806836559418</v>
+        <v>0.343380683658236</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-12.16436053674312</v>
+        <v>-12.16436053669173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8964302881642567</v>
+        <v>0.8964302881641594</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>324.0287854986432</v>
+        <v>324.0287854988339</v>
       </c>
       <c r="C4" t="n">
-        <v>1.167454956621368e-08</v>
+        <v>1.1674549568175e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03762589665797933</v>
+        <v>-3.762589665826816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.59663758411337</v>
+        <v>0.5966375841070793</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.01539703082786e-05</v>
+        <v>-30.15397031968195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6862016767149453</v>
+        <v>0.6862016766047007</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.00044495620852</v>
+        <v>14.00044495620898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009218692927069004</v>
+        <v>0.009218692927066679</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2526.80336506449</v>
+        <v>25.26803365064501</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09640900087832172</v>
+        <v>0.09640900087832061</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.8132783223818</v>
+        <v>1.208132783223803</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8702475957087517</v>
+        <v>0.8702475957087532</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5997.506472358964</v>
+        <v>59.97506472358978</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002599288900461655</v>
+        <v>0.002599288900461612</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10.33586101462167</v>
+        <v>-10.33586101462119</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7129183508006671</v>
+        <v>0.71291835080068</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3566.679875771862</v>
+        <v>3566.679875679658</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01424487930348022</v>
+        <v>0.01424487930531671</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.3408437809756</v>
+        <v>127.3408437826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1001443592875897</v>
+        <v>0.1001443592875831</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240.6136864162727</v>
+        <v>240.613686425284</v>
       </c>
       <c r="C4" t="n">
-        <v>1.332430053047618e-06</v>
+        <v>1.332430051535831e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1099128295257719</v>
+        <v>-10.99128295234923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1599843302988508</v>
+        <v>0.1599843303055376</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.701148319104335e-05</v>
+        <v>27.01148320054887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.731669213773485</v>
+        <v>0.7316692136881469</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.950890301507</v>
+        <v>12.9508903015072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01579171084575472</v>
+        <v>0.01579171084575252</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1101.7152737101</v>
+        <v>11.01715273710104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4062946877604519</v>
+        <v>0.4062946877604503</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-154.0314134138071</v>
+        <v>-1.540314134138043</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8287138588910956</v>
+        <v>0.8287138588910985</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3203.222723190212</v>
+        <v>32.0322272319023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0807392439494766</v>
+        <v>0.08073924394947447</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-36.78847251765448</v>
+        <v>-36.78847251765423</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1116588562419641</v>
+        <v>0.1116588562419664</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4428.568686073815</v>
+        <v>4428.568686012945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007319917614646084</v>
+        <v>0.007319917615115503</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.23715307321163</v>
+        <v>95.23715306946889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2696239031380278</v>
+        <v>0.2696239031379011</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.983063569695</v>
+        <v>269.9830635663624</v>
       </c>
       <c r="C4" t="n">
-        <v>3.077775549669163e-06</v>
+        <v>3.077775550733052e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09088515227888683</v>
+        <v>-9.088515227384892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2510092818999878</v>
+        <v>0.2510092819180078</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.560659926399123e-06</v>
+        <v>1.56065990766956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9847814812639835</v>
+        <v>0.9847814814460059</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.151217678353563</v>
+        <v>9.151217678353737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08611231831680252</v>
+        <v>0.08611231831679617</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>767.7543610670855</v>
+        <v>7.677543610670924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5944915932016359</v>
+        <v>0.5944915932016319</v>
       </c>
     </row>
     <row r="9">
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-322.5740144396059</v>
+        <v>-3.225740144395985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6941356958280809</v>
+        <v>0.6941356958280875</v>
       </c>
     </row>
     <row r="10">
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4141.753992056556</v>
+        <v>41.41753992056559</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02874463939788137</v>
+        <v>0.02874463939788112</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-51.10819446567515</v>
+        <v>-51.10819446567525</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0644731960159803</v>
+        <v>0.06447319601598016</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4453.699345710959</v>
+        <v>4453.699345719161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003200630121548982</v>
+        <v>0.003200630121515969</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.48399070532936</v>
+        <v>75.48399070093727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4130019801463176</v>
+        <v>0.4130019801461743</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258.1494149548886</v>
+        <v>258.1494149512558</v>
       </c>
       <c r="C4" t="n">
-        <v>3.570669715869911e-06</v>
+        <v>3.57066971812113e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07926373575562015</v>
+        <v>-7.92637357502073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2839000983966368</v>
+        <v>0.2839000984161353</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.176439764339127e-05</v>
+        <v>-51.76439764403685</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5367071147949412</v>
+        <v>0.5367071147838278</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.989943126481712</v>
+        <v>6.989943126482125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1732677069602725</v>
+        <v>0.1732677069602446</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1261.028804090938</v>
+        <v>12.6102880409095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3471474994402647</v>
+        <v>0.3471474994402609</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-679.2576098262778</v>
+        <v>-6.792576098262824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3771792147749728</v>
+        <v>0.3771792147749694</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4967.698131830837</v>
+        <v>49.67698131830842</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00509049111477554</v>
+        <v>0.005090491114775498</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-41.88258384315037</v>
+        <v>-41.8825838431504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08909647629378839</v>
+        <v>0.08909647629378822</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4434.392237643115</v>
+        <v>4434.392237548015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004551212263551645</v>
+        <v>0.004551212264033232</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.0029774829866</v>
+        <v>115.00297747606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1758743372410769</v>
+        <v>0.175874337240882</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261.9679565196797</v>
+        <v>261.9679565175932</v>
       </c>
       <c r="C4" t="n">
-        <v>2.960582314440385e-06</v>
+        <v>2.96058231511943e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1170193914043556</v>
+        <v>-11.7019391407929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1509534667761564</v>
+        <v>0.150953466767824</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.399889627698192e-05</v>
+        <v>33.99889627524101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6667270337965119</v>
+        <v>0.666727033808362</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.2946984815691</v>
+        <v>9.294698481569434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07149875473525588</v>
+        <v>0.07149875473524483</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>629.6720960904368</v>
+        <v>6.296720960904636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6399750401797295</v>
+        <v>0.6399750401797155</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-240.7366999441443</v>
+        <v>-2.407366999441487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7595983455721091</v>
+        <v>0.7595983455721049</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2303.129205899728</v>
+        <v>23.03129205899722</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2006007832167304</v>
+        <v>0.2006007832167315</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-45.56700659293436</v>
+        <v>-45.56700659293413</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06481003826560236</v>
+        <v>0.06481003826560357</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4208.720200120993</v>
+        <v>4208.720200112239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00586398340101379</v>
+        <v>0.005863983401064896</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.07224699327578</v>
+        <v>59.07224698897838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5011860531797006</v>
+        <v>0.501186053179949</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.2903569134993</v>
+        <v>289.2903569149</v>
       </c>
       <c r="C4" t="n">
-        <v>1.325471397308574e-07</v>
+        <v>1.325471397013349e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06089238140899086</v>
+        <v>-6.08923814084839</v>
       </c>
       <c r="C5" t="n">
-        <v>0.416102611385797</v>
+        <v>0.4161026113882732</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.902524433702186e-05</v>
+        <v>-19.02524433496686</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8513390678345997</v>
+        <v>0.8513390678528636</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.049900808096794</v>
+        <v>8.049900808097327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1895929196254649</v>
+        <v>0.1895929196254319</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.379098889428</v>
+        <v>14.12379098889457</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3433968414103474</v>
+        <v>0.3433968414103361</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-317.8465609151472</v>
+        <v>-3.178465609151198</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6658868431840395</v>
+        <v>0.6658868431840653</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4211.442758352533</v>
+        <v>42.11442758352521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01656030370432034</v>
+        <v>0.01656030370432063</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-47.53479092735873</v>
+        <v>-47.53479092735903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06844292425154161</v>
+        <v>0.0684429242515411</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1753.875198679995</v>
+        <v>1753.875198716129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2196592918207323</v>
+        <v>0.2196592918046697</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.69061058687933</v>
+        <v>-28.6906105860829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.694985129775051</v>
+        <v>0.6949851297747067</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.8880793663288</v>
+        <v>259.8880793636287</v>
       </c>
       <c r="C4" t="n">
-        <v>4.134351061702493e-08</v>
+        <v>4.134351059564958e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07344184688295477</v>
+        <v>-7.344184688528935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2200353500984796</v>
+        <v>0.2200353500690639</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.020068182462877e-05</v>
+        <v>30.20068182109691</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6290663577330335</v>
+        <v>0.6290663577702462</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.34432603239677</v>
+        <v>15.34432603239692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001698184836336746</v>
+        <v>0.001698184836336513</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-914.1039472883085</v>
+        <v>-9.141039472883051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5138471475297466</v>
+        <v>0.5138471475297486</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-24.5585208993914</v>
+        <v>-0.2455852089938908</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9688946600459307</v>
+        <v>0.9688946600459336</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9401.260608978915</v>
+        <v>94.01260608978913</v>
       </c>
       <c r="C10" t="n">
-        <v>1.744698996405269e-06</v>
+        <v>1.744698996405286e-06</v>
       </c>
     </row>
     <row r="11">
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10.18527407856474</v>
+        <v>-10.18527407856462</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6661705440197492</v>
+        <v>0.6661705440197534</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4227.39658841408</v>
+        <v>4227.396588246917</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004548129248166324</v>
+        <v>0.004548129249320101</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.0408624853371</v>
+        <v>201.0408624414131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02418807779563759</v>
+        <v>0.02418807779565769</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.6199024038983</v>
+        <v>313.6199024170161</v>
       </c>
       <c r="C4" t="n">
-        <v>1.491602578999531e-08</v>
+        <v>1.491602576948044e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07671392601851595</v>
+        <v>-7.671392600583417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2716675400622815</v>
+        <v>0.2716675401300379</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.352474876579657e-05</v>
+        <v>13.52474874957369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8574519010237841</v>
+        <v>0.8574519011899158</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.758208016769455</v>
+        <v>6.75820801676984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1603781874882328</v>
+        <v>0.1603781874882073</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.721859579476</v>
+        <v>13.20721859579482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3263737710053723</v>
+        <v>0.3263737710053702</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-527.5228793147144</v>
+        <v>-5.275228793147086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4362640598033344</v>
+        <v>0.4362640598033403</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3069.620884936278</v>
+        <v>30.69620884936286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08081117503941954</v>
+        <v>0.08081117503941872</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-51.83328747423234</v>
+        <v>-51.8332874742318</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03651439729151734</v>
+        <v>0.0365143972915186</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1725.72144018619</v>
+        <v>1725.721440155166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3126441835785794</v>
+        <v>0.312644183587325</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.28421709304848</v>
+        <v>61.28421709291732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4553281433253015</v>
+        <v>0.45532814332514</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299.6421292651499</v>
+        <v>299.6421292657442</v>
       </c>
       <c r="C4" t="n">
-        <v>1.637582881297538e-07</v>
+        <v>1.637582881201093e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04618599476890931</v>
+        <v>-4.618599476845173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4919145899805762</v>
+        <v>0.4919145899838487</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.947555835526429e-05</v>
+        <v>19.47555835352932</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7845693521464995</v>
+        <v>0.7845693521671522</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.99265619696587</v>
+        <v>13.99265619696617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008959063301396395</v>
+        <v>0.008959063301394826</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.7899946325954</v>
+        <v>1.0078999463261</v>
       </c>
       <c r="C8" t="n">
-        <v>0.942159688195201</v>
+        <v>0.9421596881951927</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-198.8908805669661</v>
+        <v>-1.988908805669804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.773787618859</v>
+        <v>0.7737876188589836</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7118.291090967905</v>
+        <v>71.18291090967926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003371835046272247</v>
+        <v>0.0003371835046272197</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.10656093697433</v>
+        <v>-13.10656093697409</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6251741269354165</v>
+        <v>0.6251741269354222</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3687.404165286693</v>
+        <v>3687.404165166839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01709448002538594</v>
+        <v>0.01709448002815761</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.96488393370663</v>
+        <v>88.96488394332164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2856504969533258</v>
+        <v>0.2856504969536856</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264.1330809374206</v>
+        <v>264.1330809342596</v>
       </c>
       <c r="C4" t="n">
-        <v>1.34139945878056e-06</v>
+        <v>1.341399459408809e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09356370386638341</v>
+        <v>-9.356370386732284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2188753411829485</v>
+        <v>0.2188753411799442</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.456056709132255e-07</v>
+        <v>0.2456057014462658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9976064317511267</v>
+        <v>0.9976064314536652</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.100638414147411</v>
+        <v>8.100638414147625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1320222309907073</v>
+        <v>0.1320222309906962</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.647799971654</v>
+        <v>10.58647799971668</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4408726417152999</v>
+        <v>0.4408726417152942</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-364.0058821961502</v>
+        <v>-3.640058821961581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6430678380273871</v>
+        <v>0.64306783802738</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4200.15175040807</v>
+        <v>42.00151750408057</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01714627589523028</v>
+        <v>0.01714627589523061</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.42572255553947</v>
+        <v>-29.42572255553918</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2491009110444714</v>
+        <v>0.2491009110444754</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3930.89868768009</v>
+        <v>3930.898687578349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01151325847711085</v>
+        <v>0.01151325847811961</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.25119551876486</v>
+        <v>92.25119553493857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3017774848806437</v>
+        <v>0.3017774848807566</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.4338915843352</v>
+        <v>260.4338915911497</v>
       </c>
       <c r="C4" t="n">
-        <v>6.35028443214206e-06</v>
+        <v>6.350284425317672e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1084551091145517</v>
+        <v>-10.84551091190063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15127053187346</v>
+        <v>0.1512705318646771</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.842478271820388e-05</v>
+        <v>18.42478275719813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.824789232882676</v>
+        <v>0.8247892325364345</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.817527268505216</v>
+        <v>9.817527268505366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06049627631242934</v>
+        <v>0.06049627631242521</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1014.375227662545</v>
+        <v>10.14375227662552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4863375966516713</v>
+        <v>0.4863375966516684</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-133.7387265994353</v>
+        <v>-1.33738726599427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8649523770058181</v>
+        <v>0.8649523770058265</v>
       </c>
     </row>
     <row r="10">
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3962.50407352293</v>
+        <v>39.62504073522931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03285313395663411</v>
+        <v>0.03285313395663388</v>
       </c>
     </row>
     <row r="11">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-40.26428322669035</v>
+        <v>-40.26428322669009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1145475614304697</v>
+        <v>0.1145475614304723</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4203.590470203519</v>
+        <v>4203.59047015696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006490490672009391</v>
+        <v>0.006490490672397065</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.9471362154634</v>
+        <v>184.9471362169494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03147644181008614</v>
+        <v>0.03147644181012548</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.2240094150324</v>
+        <v>251.2240094175926</v>
       </c>
       <c r="C4" t="n">
-        <v>8.282056970099259e-07</v>
+        <v>8.282056967579873e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08744161078425899</v>
+        <v>-8.744161079572853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2001731769455113</v>
+        <v>0.200173176897685</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.91151813138814e-06</v>
+        <v>3.911518135132106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9560205941247156</v>
+        <v>0.9560205940821793</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.301395884982167</v>
+        <v>7.301395884982384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1492125134221717</v>
+        <v>0.1492125134221579</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1012.75776171208</v>
+        <v>10.12757761712097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4430593113566166</v>
+        <v>0.4430593113566095</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-892.5012034295394</v>
+        <v>-8.925012034295492</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2060445697777596</v>
+        <v>0.2060445697777551</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1441.716699242016</v>
+        <v>14.41716699242003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.414863737155353</v>
+        <v>0.4148637371553577</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.84069056103314</v>
+        <v>-29.84069056103317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2471043354484636</v>
+        <v>0.2471043354484632</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3324.203923587535</v>
+        <v>3324.203923541779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04618739559243461</v>
+        <v>0.04618739559522084</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.93484500117245</v>
+        <v>49.93484500210388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5719715899795021</v>
+        <v>0.5719715899796183</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.2775863381105</v>
+        <v>307.2775863391827</v>
       </c>
       <c r="C4" t="n">
-        <v>1.244401548284098e-07</v>
+        <v>1.244401548070961e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.111809777935908</v>
+        <v>-11.18097779358589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1485721263908411</v>
+        <v>0.1485721263909072</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.024893675475552e-05</v>
+        <v>50.24893674719868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5633638339175813</v>
+        <v>0.5633638339773043</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.351104062246</v>
+        <v>10.35110406224645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07432281231757316</v>
+        <v>0.07432281231755941</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.355477314349</v>
+        <v>12.01355477314345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.420012708928506</v>
+        <v>0.4200127089285066</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.46787394943613</v>
+        <v>0.8746787394944633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9106000681870814</v>
+        <v>0.910600068187071</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4229.98582225115</v>
+        <v>42.2998582225113</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01813278002706034</v>
+        <v>0.01813278002706085</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-36.33801048126564</v>
+        <v>-36.33801048126551</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1606258439848554</v>
+        <v>0.1606258439848567</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4147.889225696464</v>
+        <v>4147.889225628784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004585484171749118</v>
+        <v>0.004585484172036687</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.11301810761154</v>
+        <v>98.11301809775193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2329601799526048</v>
+        <v>0.2329601799524393</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.3258875497589</v>
+        <v>291.3258875492979</v>
       </c>
       <c r="C4" t="n">
-        <v>8.628310754990562e-08</v>
+        <v>8.628310755332179e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09125798384139366</v>
+        <v>-9.125798383909739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2302409547807621</v>
+        <v>0.2302409547898444</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.631718309893259e-05</v>
+        <v>46.31718308997645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5546048416938802</v>
+        <v>0.5546048417482522</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.22921708668935</v>
+        <v>11.22921708668933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05441674238723224</v>
+        <v>0.05441674238723267</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>649.0028634864607</v>
+        <v>6.490028634865197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.616447872271537</v>
+        <v>0.6164478722715059</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.51823759663876</v>
+        <v>0.3551823759662245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9588647392180387</v>
+        <v>0.9588647392180576</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4706.130862659562</v>
+        <v>47.06130862659548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008902064778198894</v>
+        <v>0.008902064778199095</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-61.6068318012717</v>
+        <v>-61.60683180127192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01157895187158115</v>
+        <v>0.01157895187158077</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.994392111972</v>
+        <v>2118.994392117947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1256034985234223</v>
+        <v>0.125603498522956</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.32852844414924</v>
+        <v>18.32852844148488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8098265776134181</v>
+        <v>0.8098265776137918</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.8388312563483</v>
+        <v>262.8388312581069</v>
       </c>
       <c r="C4" t="n">
-        <v>8.165258081968733e-08</v>
+        <v>8.165258075569829e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03056576532640838</v>
+        <v>-3.056576532674915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.630644922425591</v>
+        <v>0.6306449224240157</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.74663627360582e-05</v>
+        <v>-57.46636272312978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4309721863406528</v>
+        <v>0.4309721864504263</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.698584611636168</v>
+        <v>9.698584611636413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02903740570411436</v>
+        <v>0.02903740570411009</v>
       </c>
     </row>
     <row r="8">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.7425423428226</v>
+        <v>1.507425423428197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9101463201585711</v>
+        <v>0.9101463201585728</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-686.556306829712</v>
+        <v>-6.865563068297106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3091969124331745</v>
+        <v>0.3091969124331758</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8706.648967611753</v>
+        <v>87.06648967611754</v>
       </c>
       <c r="C10" t="n">
-        <v>2.579864280303456e-06</v>
+        <v>2.579864280303427e-06</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.592754939957111</v>
+        <v>-1.592754939957075</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9484791591319389</v>
+        <v>0.9484791591319401</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4392.617076428903</v>
+        <v>4392.617076444926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00495810606575398</v>
+        <v>0.004958106065698976</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.43462502572845</v>
+        <v>83.43462501931995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3277305413101222</v>
+        <v>0.3277305413103343</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.1481503416303</v>
+        <v>251.1481503460622</v>
       </c>
       <c r="C4" t="n">
-        <v>3.84301595250123e-06</v>
+        <v>3.843015949484773e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1048897692879349</v>
+        <v>-10.48897692867151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2385102340930677</v>
+        <v>0.2385102340959261</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.985071693336609e-05</v>
+        <v>-49.85071693911131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5516531239396001</v>
+        <v>0.5516531238949181</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.523282719047807</v>
+        <v>7.523282719047989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1253401788863759</v>
+        <v>0.1253401788863654</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1243.187041773162</v>
+        <v>12.43187041773152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3775232700278431</v>
+        <v>0.3775232700278456</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-386.4244818958819</v>
+        <v>-3.86424481895882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6300869300017029</v>
+        <v>0.6300869300017025</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5581.139203416285</v>
+        <v>55.81139203416265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001439083945213234</v>
+        <v>0.001439083945213271</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-43.5401320219795</v>
+        <v>-43.54013202197942</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09936460910029138</v>
+        <v>0.09936460910029191</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2625.085695067166</v>
+        <v>2625.085695046533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06195874496274709</v>
+        <v>0.06195874496259911</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.65539959368232</v>
+        <v>13.65539959406789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.870222459981473</v>
+        <v>0.8702224599810591</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.2959774836849</v>
+        <v>283.2959774843089</v>
       </c>
       <c r="C4" t="n">
-        <v>7.40189802595541e-08</v>
+        <v>7.401898024108927e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08325263900073225</v>
+        <v>-8.325263900098971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197669100439002</v>
+        <v>0.197669100440874</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.297283395638171e-05</v>
+        <v>52.97283395891293</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4468405303287424</v>
+        <v>0.4468405303089321</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.39898838974697</v>
+        <v>11.39898838974719</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01664834585540389</v>
+        <v>0.01664834585540172</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-965.7379778969889</v>
+        <v>-9.657379778969769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4920422748197646</v>
+        <v>0.49204227481977</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-40.45663043035574</v>
+        <v>-0.4045663043036818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9531953868602928</v>
+        <v>0.9531953868602785</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5493.356664380133</v>
+        <v>54.93356664380143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003951519989044313</v>
+        <v>0.003951519989044226</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-15.24726847553332</v>
+        <v>-15.24726847553304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4968723435705313</v>
+        <v>0.4968723435705392</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2563.051105087984</v>
+        <v>2563.051104993695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1126634434754615</v>
+        <v>0.112663443482792</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.66051852258148</v>
+        <v>59.66051851711649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4819412258910361</v>
+        <v>0.4819412258908538</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.9125124475735</v>
+        <v>291.9125124498349</v>
       </c>
       <c r="C4" t="n">
-        <v>1.426015768167926e-07</v>
+        <v>1.426015767707921e-07</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09892880689242384</v>
+        <v>-9.892880689077117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1750055945234767</v>
+        <v>0.1750055945267198</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.968474616283397e-05</v>
+        <v>69.68474615612251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4324569300573541</v>
+        <v>0.4324569301016731</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.02824367292741</v>
+        <v>12.02824367292771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02696914768817758</v>
+        <v>0.02696914768817314</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1390.538155013897</v>
+        <v>13.90538155013912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3381228439875872</v>
+        <v>0.3381228439875822</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.92872790285764</v>
+        <v>0.829287279028506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9114452742895525</v>
+        <v>0.91144527428956</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4346.622300364545</v>
+        <v>43.46622300364543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01323186665915734</v>
+        <v>0.0132318666591574</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.70654243373964</v>
+        <v>-23.70654243373956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3978994526602437</v>
+        <v>0.3978994526602446</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5427.988041092501</v>
+        <v>5427.988040776845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002486234069873989</v>
+        <v>0.000248623407114266</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>209.8367116205371</v>
+        <v>209.8367116350274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01423315364964072</v>
+        <v>0.01423315364964945</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.4828299333762</v>
+        <v>319.4828299433528</v>
       </c>
       <c r="C4" t="n">
-        <v>2.272825804569523e-09</v>
+        <v>2.272825801722347e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06656927278121233</v>
+        <v>-6.656927278409015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3118065073279397</v>
+        <v>0.3118065073095614</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.824656033333512e-06</v>
+        <v>4.824656055534433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9455801392380438</v>
+        <v>0.9455801389896088</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.077598123597067</v>
+        <v>3.07759812359722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5621172949851504</v>
+        <v>0.5621172949851303</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>893.9521808451486</v>
+        <v>8.939521808451566</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4721560055155932</v>
+        <v>0.4721560055155881</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-919.5106364175072</v>
+        <v>-9.195106364175054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1603099893113583</v>
+        <v>0.160309989311359</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>577.2850426651312</v>
+        <v>5.772850426651246</v>
       </c>
       <c r="C10" t="n">
-        <v>0.733202519693308</v>
+        <v>0.7332025196933107</v>
       </c>
     </row>
     <row r="11">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-60.26614881697577</v>
+        <v>-60.26614881697566</v>
       </c>
       <c r="C11" t="n">
         <v>0.01154050776601904</v>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4729.962860175377</v>
+        <v>4729.962860166583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009001130326552174</v>
+        <v>0.0009001130326678889</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>218.9158177632935</v>
+        <v>218.9158177563717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01069576902954955</v>
+        <v>0.01069576902952157</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.1428806442876</v>
+        <v>301.1428806409744</v>
       </c>
       <c r="C4" t="n">
-        <v>1.028512600856656e-08</v>
+        <v>1.028512601254568e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06820968593303084</v>
+        <v>-6.820968593333685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3186945637197854</v>
+        <v>0.3186945637177885</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.688741285075484e-05</v>
+        <v>-46.88741287050124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5572560467316567</v>
+        <v>0.5572560465652239</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2621855048374826</v>
+        <v>0.2621855048375714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9635636702146835</v>
+        <v>0.9635636702146712</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1968.951066288407</v>
+        <v>19.68951066288411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1373021339668357</v>
+        <v>0.1373021339668347</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-698.0727767922517</v>
+        <v>-6.980727767922357</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2900861817524011</v>
+        <v>0.2900861817524132</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2891.337593261429</v>
+        <v>28.91337593261426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0826716172696761</v>
+        <v>0.08267161726967596</v>
       </c>
     </row>
     <row r="11">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-46.93560902089157</v>
+        <v>-46.93560902089168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04928350314163605</v>
+        <v>0.04928350314163551</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4034.385584037363</v>
+        <v>4034.385584057547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009074702603377305</v>
+        <v>0.00907470260326791</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.58960613415468</v>
+        <v>42.58960613511181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6034486272193835</v>
+        <v>0.6034486272195433</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.5815158532944</v>
+        <v>251.581515850939</v>
       </c>
       <c r="C4" t="n">
-        <v>2.117954423609668e-06</v>
+        <v>2.117954424388656e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08248710473041315</v>
+        <v>-8.248710472918869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2581217892212671</v>
+        <v>0.2581217892240378</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.791801321814639e-06</v>
+        <v>-8.791801323075447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9134698129815297</v>
+        <v>0.9134698129671339</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.72732112146814</v>
+        <v>13.72732112146824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01854765387659774</v>
+        <v>0.01854765387659667</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>931.8250824234115</v>
+        <v>9.318250824234095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5019174305094507</v>
+        <v>0.5019174305094517</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-96.8630029780262</v>
+        <v>-0.9686300297802761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8969211516393549</v>
+        <v>0.8969211516393534</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5350.907134673815</v>
+        <v>53.50907134673805</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006079289721377419</v>
+        <v>0.006079289721377481</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-53.11513661211951</v>
+        <v>-53.11513661211967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03836568902217937</v>
+        <v>0.03836568902217904</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4029.853313102642</v>
+        <v>4029.853313092216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01469167546129651</v>
+        <v>0.01469167546145793</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.10772856177834</v>
+        <v>63.1077285607997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4846546300863471</v>
+        <v>0.4846546300864877</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.5113618837748</v>
+        <v>276.5113618862359</v>
       </c>
       <c r="C4" t="n">
-        <v>1.326950230202799e-06</v>
+        <v>1.326950229653634e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.108916178641584</v>
+        <v>-10.89161786447276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1540710309677874</v>
+        <v>0.1540710309635177</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.966777214688472e-05</v>
+        <v>29.66777214543288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7369036335425627</v>
+        <v>0.7369036335630939</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.22397713050254</v>
+        <v>8.223977130503108</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1220369040581902</v>
+        <v>0.1220369040581627</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>719.6118552667558</v>
+        <v>7.196118552667706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6168122728763676</v>
+        <v>0.6168122728763599</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-281.9430089278367</v>
+        <v>-2.819430089278335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7191621641714384</v>
+        <v>0.7191621641714416</v>
       </c>
     </row>
     <row r="10">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4194.148097843315</v>
+        <v>41.94148097843313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02514702920155747</v>
+        <v>0.02514702920155728</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.46920185627268</v>
+        <v>-37.46920185627245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1530028124391</v>
+        <v>0.1530028124391021</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4305.758657562539</v>
+        <v>4305.758657590436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002669579470715649</v>
+        <v>0.002669579470639586</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.07812627212115</v>
+        <v>76.07812626540505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3246262927964586</v>
+        <v>0.3246262927963927</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.3153483435995</v>
+        <v>211.3153483478674</v>
       </c>
       <c r="C4" t="n">
-        <v>3.599657597000224e-05</v>
+        <v>3.599657595126721e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1389210344748168</v>
+        <v>-13.89210344745155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06866151554156268</v>
+        <v>0.06866151554182645</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.804477787153519e-05</v>
+        <v>58.04477786575995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4326452370050616</v>
+        <v>0.4326452370411851</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.1404970951881</v>
+        <v>10.14049709518875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02892111262298708</v>
+        <v>0.02892111262297535</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1438.541367928749</v>
+        <v>-14.38541367928753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3046183981979152</v>
+        <v>0.3046183981979141</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-825.1893481633651</v>
+        <v>-8.251893481633694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2221580802527726</v>
+        <v>0.2221580802527692</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3476.774357559947</v>
+        <v>34.76774357559945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05202827692148877</v>
+        <v>0.05202827692148861</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-26.15776878830473</v>
+        <v>-26.15776878830448</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2554085725637458</v>
+        <v>0.2554085725637504</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2058.701893061379</v>
+        <v>2058.701893017616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1814822813995749</v>
+        <v>0.1814822814075562</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.9800230309593</v>
+        <v>145.9800230234142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1058783328046031</v>
+        <v>0.1058783328045269</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345.5558413549256</v>
+        <v>345.5558413519444</v>
       </c>
       <c r="C4" t="n">
-        <v>1.05871201483715e-09</v>
+        <v>1.058712014988161e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03890935617250055</v>
+        <v>-3.890935616119661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5552232336058298</v>
+        <v>0.5552232337126966</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.649722571914349e-05</v>
+        <v>-16.49722577188032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8115358650300313</v>
+        <v>0.8115358644262514</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.773959110182449</v>
+        <v>9.773959110182831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06231077985644809</v>
+        <v>0.06231077985643694</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2526.11409131545</v>
+        <v>25.26114091315428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06375777558493784</v>
+        <v>0.06375777558493999</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>278.4174976484039</v>
+        <v>2.784174976484175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.686477053344194</v>
+        <v>0.6864770533441793</v>
       </c>
     </row>
     <row r="10">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6464.400432366666</v>
+        <v>64.64400432366656</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004899271650386281</v>
+        <v>0.0004899271650386432</v>
       </c>
     </row>
     <row r="11">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.69132135302462</v>
+        <v>-30.69132135302442</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2319140259413132</v>
+        <v>0.2319140259413166</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4392.998903176614</v>
+        <v>4392.998903294321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003454742673364187</v>
+        <v>0.003454742673048533</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.96913627422177</v>
+        <v>72.96913627768473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3669177675463378</v>
+        <v>0.3669177675464789</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.5627162198206</v>
+        <v>280.5627162161286</v>
       </c>
       <c r="C4" t="n">
-        <v>9.74123760689627e-08</v>
+        <v>9.741237613244533e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06179467574102565</v>
+        <v>-6.179467573994433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3950513658977572</v>
+        <v>0.39505136590356</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.087023235568515e-05</v>
+        <v>-50.8702323569085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5319440376545888</v>
+        <v>0.5319440376347484</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.754987597362231</v>
+        <v>5.7549875973623</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3212113120940247</v>
+        <v>0.321211312094019</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1080.025020247886</v>
+        <v>10.80025020247879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4156061529542107</v>
+        <v>0.4156061529542131</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-549.227521679974</v>
+        <v>-5.492275216799801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4541125991083435</v>
+        <v>0.4541125991083382</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5589.888127004873</v>
+        <v>55.89888127004841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001887364285444051</v>
+        <v>0.001887364285444124</v>
       </c>
     </row>
     <row r="11">
@@ -6935,7 +6935,7 @@
         <v>-46.70682438091813</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07209980568828922</v>
+        <v>0.07209980568828944</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3465.669120983184</v>
+        <v>3465.669120991092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02336579583645898</v>
+        <v>0.02336579583627328</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.87784339365703</v>
+        <v>89.87784340165555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3089146306004614</v>
+        <v>0.3089146306005204</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.7122215454536</v>
+        <v>283.7122215424103</v>
       </c>
       <c r="C4" t="n">
-        <v>2.318018974124238e-07</v>
+        <v>2.318018975522201e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07957879791796396</v>
+        <v>-7.957879790800884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.275663132223693</v>
+        <v>0.2756631322593576</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.434385468796642e-05</v>
+        <v>44.34385467933731</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5913859312311621</v>
+        <v>0.5913859312838454</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.34244494495678</v>
+        <v>13.34244494495692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01801204766810065</v>
+        <v>0.01801204766809909</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1503.402688896094</v>
+        <v>15.03402688896099</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2813374655463196</v>
+        <v>0.2813374655463186</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.18946532689324</v>
+        <v>0.2018946532688801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9786871518300139</v>
+        <v>0.9786871518300193</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2993.714576488936</v>
+        <v>29.93714576488926</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08443093254424884</v>
+        <v>0.08443093254424992</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-44.66112012699279</v>
+        <v>-44.66112012699264</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07258817294525463</v>
+        <v>0.07258817294525584</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4355.745970681368</v>
+        <v>4355.745970662836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003066297577370774</v>
+        <v>0.003066297577409162</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.27070232596452</v>
+        <v>55.27070232356812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4856361530909977</v>
+        <v>0.4856361530913877</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240.8700539654903</v>
+        <v>240.8700539622986</v>
       </c>
       <c r="C4" t="n">
-        <v>2.313063504809147e-06</v>
+        <v>2.313063506043961e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1264173063323866</v>
+        <v>-12.64173063334215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1152028866292713</v>
+        <v>0.1152028866276825</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.439161626073022e-05</v>
+        <v>24.39161625745906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7693400828423187</v>
+        <v>0.7693400828688446</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.07221936568384</v>
+        <v>11.07221936568428</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02455732205426978</v>
+        <v>0.02455732205426296</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>683.5659728125311</v>
+        <v>6.835659728125435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6168765274262531</v>
+        <v>0.6168765274262487</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-295.2609466994196</v>
+        <v>-2.952609466994165</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6690042309758192</v>
+        <v>0.6690042309758226</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4299.307775198222</v>
+        <v>42.99307775198221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02631399474147009</v>
+        <v>0.02631399474146983</v>
       </c>
     </row>
     <row r="11">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-44.78117365495103</v>
+        <v>-44.78117365495081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05723287257922269</v>
+        <v>0.05723287257922443</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4381.770433634822</v>
+        <v>4381.770433678853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005214875053845636</v>
+        <v>0.005214875053508463</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.6014818249668</v>
+        <v>161.6014818220129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06809662431202287</v>
+        <v>0.06809662431193672</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.0008663758957</v>
+        <v>331.0008663657587</v>
       </c>
       <c r="C4" t="n">
-        <v>1.61241728141267e-08</v>
+        <v>1.612417282662145e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05348315249174035</v>
+        <v>-5.348315248390824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4389893079553947</v>
+        <v>0.4389893080154323</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.297704912057079e-07</v>
+        <v>-0.7297705134161276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9921997788982724</v>
+        <v>0.9921997786602794</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.158786282181833</v>
+        <v>6.158786282181985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2298260838141711</v>
+        <v>0.2298260838141582</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.027586270162</v>
+        <v>11.46027586270165</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3939229555447203</v>
+        <v>0.3939229555447199</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-591.7113941005842</v>
+        <v>-5.91711394100588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4320154953066347</v>
+        <v>0.4320154953066316</v>
       </c>
     </row>
     <row r="10">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3247.139113509338</v>
+        <v>32.4713911350933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06095817779372038</v>
+        <v>0.06095817779372114</v>
       </c>
     </row>
     <row r="11">
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-54.46002441802848</v>
+        <v>-54.46002441802835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03869942408342666</v>
+        <v>0.03869942408342676</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2625.642240224784</v>
+        <v>2625.642240186263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05928115843241468</v>
+        <v>0.05928115843197396</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.44148439595148</v>
+        <v>23.44148439574519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.775709015988773</v>
+        <v>0.7757090159883566</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284.651054333125</v>
+        <v>284.651054334581</v>
       </c>
       <c r="C4" t="n">
-        <v>5.447016735032102e-08</v>
+        <v>5.447016731527659e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07933694827978706</v>
+        <v>-7.933694828079421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2291989982045725</v>
+        <v>0.2291989982076025</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.607088081092484e-05</v>
+        <v>66.07088081226746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3548758060549053</v>
+        <v>0.3548758060654127</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.89375721957127</v>
+        <v>14.89375721957139</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004277217327597877</v>
+        <v>0.004277217327597477</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-835.03581079989</v>
+        <v>-8.35035810799841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5404017372766028</v>
+        <v>0.540401737276627</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.2465395624815</v>
+        <v>1.852465395624662</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7947942655478286</v>
+        <v>0.7947942655478453</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4259.413437789759</v>
+        <v>42.59413437789762</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01224705376871916</v>
+        <v>0.01224705376871906</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.45195357354154</v>
+        <v>-24.45195357354145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2811026430225842</v>
+        <v>0.281102643022586</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4903.850672993933</v>
+        <v>4903.850672855576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002023377612218553</v>
+        <v>0.002023377612614219</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.380737574932</v>
+        <v>157.3807375518261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06017011074505667</v>
+        <v>0.06017011074502319</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.4697108304378</v>
+        <v>229.469710832561</v>
       </c>
       <c r="C4" t="n">
-        <v>2.007781776012046e-05</v>
+        <v>2.007781775563049e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1119144511942199</v>
+        <v>-11.19144511946873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1371502516073797</v>
+        <v>0.1371502516061792</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.976426486886821e-05</v>
+        <v>-29.76426489242203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.745009122006847</v>
+        <v>0.7450091218071017</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.118540176260641</v>
+        <v>4.11854017626078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4971248336173397</v>
+        <v>0.4971248336173254</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.047867102312</v>
+        <v>9.440478671023087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5073266229174804</v>
+        <v>0.5073266229174811</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-476.700438604369</v>
+        <v>-4.767004386043624</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5154767380938488</v>
+        <v>0.5154767380938546</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4103.590722208789</v>
+        <v>41.035907222088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02238682487945653</v>
+        <v>0.0223868248794562</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-44.85424228275333</v>
+        <v>-44.85424228275349</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08919627841895029</v>
+        <v>0.08919627841894963</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3711.725751189009</v>
+        <v>3711.725751190467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01921499023577229</v>
+        <v>0.01921499023575758</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.78172955211434</v>
+        <v>62.78172954916101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4650928291953341</v>
+        <v>0.4650928291954237</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.6490294372928</v>
+        <v>268.6490294374146</v>
       </c>
       <c r="C4" t="n">
-        <v>7.117205201851564e-07</v>
+        <v>7.117205201720434e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1078798239884933</v>
+        <v>-10.78798239890455</v>
       </c>
       <c r="C5" t="n">
-        <v>0.150575602162421</v>
+        <v>0.1505756021615721</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.067537079507422e-05</v>
+        <v>60.67537079066653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5037488046903973</v>
+        <v>0.5037488047195829</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.655801998890064</v>
+        <v>9.65580199889026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06447441951630177</v>
+        <v>0.06447441951629518</v>
       </c>
     </row>
     <row r="8">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>842.116495835513</v>
+        <v>8.421164958355135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5582087623214165</v>
+        <v>0.5582087623214178</v>
       </c>
     </row>
     <row r="9">
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-374.6333266273627</v>
+        <v>-3.746333266273723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6209283299898725</v>
+        <v>0.620928329989864</v>
       </c>
     </row>
     <row r="10">
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4944.79935137203</v>
+        <v>49.44799351372026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005280818494901553</v>
+        <v>0.005280818494901566</v>
       </c>
     </row>
     <row r="11">
@@ -7928,7 +7928,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-35.55359172195092</v>
+        <v>-35.55359172195098</v>
       </c>
       <c r="C11" t="n">
         <v>0.196830581543817</v>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2066.924190461182</v>
+        <v>2066.924190461518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2042124840061429</v>
+        <v>0.204212484006023</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.850229811284919</v>
+        <v>-3.850229811292422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9652180150560719</v>
+        <v>0.9652180150557863</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>317.9353133701622</v>
+        <v>317.9353133701064</v>
       </c>
       <c r="C4" t="n">
-        <v>7.803563287696385e-09</v>
+        <v>7.803563287093939e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04683589193160409</v>
+        <v>-4.68358919316362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5164591225489943</v>
+        <v>0.5164591225467033</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.418659700714732e-05</v>
+        <v>-24.18659701289175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7541349949081806</v>
+        <v>0.7541349948576408</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.25645519373917</v>
+        <v>11.25645519373955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03186337374228004</v>
+        <v>0.03186337374227364</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2326.32088331112</v>
+        <v>23.2632088331112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1095619913521618</v>
+        <v>0.1095619913521617</v>
       </c>
     </row>
     <row r="9">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-177.9335271209839</v>
+        <v>-1.779335271209881</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8121541071280982</v>
+        <v>0.812154107128094</v>
       </c>
     </row>
     <row r="10">
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5897.85330610018</v>
+        <v>58.97853306100194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001426468341371799</v>
+        <v>0.001426468341371774</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.62981392265772</v>
+        <v>-12.6298139226577</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6456496942934177</v>
+        <v>0.6456496942934182</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2628.075652497378</v>
+        <v>2628.07565248559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06924530356329696</v>
+        <v>0.06924530356614432</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-32.12439874881431</v>
+        <v>-32.12439874952543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7094891902667602</v>
+        <v>0.7094891902670055</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.794280743616</v>
+        <v>252.7942807450456</v>
       </c>
       <c r="C4" t="n">
-        <v>5.538237702847644e-07</v>
+        <v>5.538237702618668e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08348437888754862</v>
+        <v>-8.348437888600358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2265359502639839</v>
+        <v>0.2265359502771784</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.975293978006249e-05</v>
+        <v>69.75293976587665</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4665312942700148</v>
+        <v>0.4665312943599574</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.33526047994098</v>
+        <v>14.33526047994143</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01766106812893254</v>
+        <v>0.01766106812892848</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1672.871163522363</v>
+        <v>-16.72871163522376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3219516259847776</v>
+        <v>0.3219516259847752</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-134.1232685926998</v>
+        <v>-1.341232685927263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8361250890333178</v>
+        <v>0.8361250890332873</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5914.699829636253</v>
+        <v>59.14699829636243</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000523906856771924</v>
+        <v>0.0005239068567719524</v>
       </c>
     </row>
     <row r="11">
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.0961707279495</v>
+        <v>-13.09617072794981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6015146726885454</v>
+        <v>0.6015146726885401</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4128.048234207015</v>
+        <v>4128.048234101734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006599150065002242</v>
+        <v>0.006599150066214331</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.7832708325719</v>
+        <v>125.7832708410543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1336647880604101</v>
+        <v>0.1336647880602211</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.9620277459393</v>
+        <v>250.9620277475663</v>
       </c>
       <c r="C4" t="n">
-        <v>2.255620249176869e-06</v>
+        <v>2.255620248768971e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1604622329905084</v>
+        <v>-16.04622329953756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02929936791227733</v>
+        <v>0.02929936790983176</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.811967248891631e-05</v>
+        <v>78.11967249459508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3124764038403391</v>
+        <v>0.3124764038289612</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.31605228758078</v>
+        <v>10.31605228758098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03549377197048217</v>
+        <v>0.03549377197047762</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>644.2123065915328</v>
+        <v>6.442123065915439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.616636619796439</v>
+        <v>0.6166366197964328</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>318.9551265549126</v>
+        <v>3.189551265549078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6849214180462138</v>
+        <v>0.6849214180462183</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4291.27180772467</v>
+        <v>42.91271807724673</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01389571024279772</v>
+        <v>0.01389571024279767</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-51.91100109185516</v>
+        <v>-51.91100109185518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03999938525045809</v>
+        <v>0.03999938525045819</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4600.495065269879</v>
+        <v>4600.49506533336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002409360102470117</v>
+        <v>0.002409360102324155</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.8735821216795</v>
+        <v>96.87358212615956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2537825891845781</v>
+        <v>0.2537825891848083</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.9842753063086</v>
+        <v>250.9842753009199</v>
       </c>
       <c r="C4" t="n">
-        <v>5.609572133276317e-06</v>
+        <v>5.609572138332099e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08090021052334044</v>
+        <v>-8.090021052631638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2329325394115761</v>
+        <v>0.2329325394009824</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.055586446673166e-05</v>
+        <v>-20.55586446962083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7809940260814411</v>
+        <v>0.7809940260538877</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.915309177035969</v>
+        <v>5.91530917703634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.233637525777786</v>
+        <v>0.2336375257777538</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>542.111729471394</v>
+        <v>5.421117294714143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6795630688056702</v>
+        <v>0.6795630688056584</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1053.827458891684</v>
+        <v>-10.5382745889168</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1606337656051185</v>
+        <v>0.1606337656051193</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2104.399744635001</v>
+        <v>21.04399744634984</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2599029559296896</v>
+        <v>0.259902955929695</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.88974085700444</v>
+        <v>-27.88974085700426</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2378785758787462</v>
+        <v>0.2378785758787486</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4064.34934869673</v>
+        <v>4064.349348716341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008268298503355188</v>
+        <v>0.008268298503215305</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.78204471971401</v>
+        <v>88.78204471431013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2845559465398536</v>
+        <v>0.2845559465399148</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342.7199181130301</v>
+        <v>342.7199181127818</v>
       </c>
       <c r="C4" t="n">
-        <v>9.800389747950645e-10</v>
+        <v>9.800389748357426e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05754433735580838</v>
+        <v>-5.754433735436351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4549927891594707</v>
+        <v>0.4549927891679958</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.771740326788826e-06</v>
+        <v>1.771740334190724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9810477920901346</v>
+        <v>0.9810477920106704</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.602863688099177</v>
+        <v>6.602863688099497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1597855572269771</v>
+        <v>0.1597855572269549</v>
       </c>
     </row>
     <row r="8">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1348.820185732276</v>
+        <v>13.48820185732267</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3194091761411583</v>
+        <v>0.3194091761411598</v>
       </c>
     </row>
     <row r="9">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-236.7346697489149</v>
+        <v>-2.367346697489143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7314500623409806</v>
+        <v>0.7314500623409812</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4338.847977889523</v>
+        <v>43.38847977889516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01043669749867334</v>
+        <v>0.0104366974986735</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-53.18712964752575</v>
+        <v>-53.18712964752561</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03480785728959564</v>
+        <v>0.03480785728959611</v>
       </c>
     </row>
   </sheetData>
